--- a/RadiogenicHeatProduction.xlsx
+++ b/RadiogenicHeatProduction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1095" yWindow="75" windowWidth="16410" windowHeight="6750"/>
+    <workbookView xWindow="1095" yWindow="75" windowWidth="16410" windowHeight="6750" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="1167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="1166">
   <si>
     <t>unknown</t>
   </si>
@@ -477,9 +477,6 @@
   </si>
   <si>
     <t>free text qualitative or quantitative statement regarding the accuracy of the sample density or the method used to determine.</t>
-  </si>
-  <si>
-    <t>RadioactvityMeasurementDevice</t>
   </si>
   <si>
     <t>(if 'other' or 'unknown' provide additional information in MeasurementProcedure)</t>
@@ -5596,6 +5593,99 @@
     <xf numFmtId="0" fontId="27" fillId="50" borderId="14" xfId="58" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="14" xfId="81" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="14" xfId="81" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="49" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="53" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="48" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="48" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="49" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="53" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="57" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5617,124 +5707,31 @@
     <xf numFmtId="0" fontId="0" fillId="44" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="55" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="56" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="56" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="56" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="55" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="55" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="54" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="55" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="14" xfId="81" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="55" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="14" xfId="81" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="55" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="49" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="56" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="56" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="53" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="56" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="48" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="48" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="49" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="53" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="57" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="187">
@@ -6370,8 +6367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22" defaultRowHeight="15"/>
@@ -6636,47 +6633,47 @@
   <sheetData>
     <row r="2" spans="2:5" ht="18.75">
       <c r="B2" s="60" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C2" s="61" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="60" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C3" s="62" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="120">
       <c r="B4" s="60" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" s="63" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="60" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C5" s="64" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="161" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C6" s="162" t="s">
         <v>1145</v>
-      </c>
-      <c r="C6" s="162" t="s">
-        <v>1146</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="20.25" thickBot="1">
       <c r="B8" s="65" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C8" s="66"/>
       <c r="D8" s="66"/>
@@ -6684,27 +6681,27 @@
     </row>
     <row r="9" spans="2:5" ht="15.75" thickTop="1">
       <c r="B9" s="67" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="C9" s="68" t="s">
+      <c r="D9" s="69" t="s">
         <v>138</v>
       </c>
-      <c r="D9" s="69" t="s">
+      <c r="E9" s="69" t="s">
         <v>139</v>
-      </c>
-      <c r="E9" s="69" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="30">
       <c r="B10" s="94" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C10" s="95" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="D10" s="95" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E10" s="71">
         <v>41183</v>
@@ -6712,13 +6709,13 @@
     </row>
     <row r="11" spans="2:5" ht="75">
       <c r="B11" s="94" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C11" s="95" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="D11" s="154" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E11" s="71">
         <v>41184</v>
@@ -6726,11 +6723,11 @@
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="70"/>
-      <c r="C12" s="179" t="s">
+      <c r="C12" s="164" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D12" s="165" t="s">
         <v>1165</v>
-      </c>
-      <c r="D12" s="180" t="s">
-        <v>1166</v>
       </c>
       <c r="E12" s="71">
         <v>41219</v>
@@ -6771,7 +6768,7 @@
     </row>
     <row r="19" spans="2:5" ht="20.25" thickBot="1">
       <c r="B19" s="155" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C19" s="79"/>
       <c r="D19" s="80"/>
@@ -6779,13 +6776,13 @@
     </row>
     <row r="20" spans="2:5" ht="16.5" thickTop="1" thickBot="1">
       <c r="B20" s="82" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C20" s="83" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" s="84" t="s">
         <v>138</v>
-      </c>
-      <c r="D20" s="84" t="s">
-        <v>139</v>
       </c>
       <c r="E20" s="88"/>
     </row>
@@ -6839,7 +6836,7 @@
     <row r="30" spans="2:5">
       <c r="B30" s="157"/>
       <c r="C30" s="160" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="D30" s="156"/>
       <c r="E30" s="156"/>
@@ -6885,13 +6882,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="69.75" customHeight="1">
-      <c r="A2" s="163" t="s">
-        <v>172</v>
-      </c>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
+      <c r="A2" s="188" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="189"/>
+      <c r="C2" s="189"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="189"/>
     </row>
     <row r="3" spans="1:6" ht="14.45" customHeight="1">
       <c r="A3" s="24"/>
@@ -6904,58 +6901,58 @@
     <row r="5" spans="1:6">
       <c r="A5" s="92"/>
       <c r="B5" s="91" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20.25" thickBot="1">
-      <c r="A7" s="165" t="s">
-        <v>145</v>
-      </c>
-      <c r="B7" s="165"/>
-      <c r="C7" s="165"/>
-      <c r="D7" s="165"/>
-      <c r="E7" s="165"/>
-      <c r="F7" s="165"/>
+      <c r="A7" s="190" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" s="190"/>
+      <c r="C7" s="190"/>
+      <c r="D7" s="190"/>
+      <c r="E7" s="190"/>
+      <c r="F7" s="190"/>
     </row>
     <row r="8" spans="1:6" ht="33" customHeight="1" thickTop="1">
-      <c r="A8" s="163" t="s">
-        <v>144</v>
-      </c>
-      <c r="B8" s="163"/>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="163"/>
+      <c r="A8" s="188" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" s="188"/>
+      <c r="C8" s="188"/>
+      <c r="D8" s="188"/>
+      <c r="E8" s="188"/>
+      <c r="F8" s="188"/>
     </row>
     <row r="9" spans="1:6" ht="43.9" customHeight="1">
-      <c r="A9" s="163" t="s">
+      <c r="A9" s="188" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9" s="188"/>
+      <c r="C9" s="188"/>
+      <c r="D9" s="188"/>
+      <c r="E9" s="188"/>
+      <c r="F9" s="188"/>
+    </row>
+    <row r="10" spans="1:6" ht="33" customHeight="1">
+      <c r="A10" s="188" t="s">
         <v>170</v>
       </c>
-      <c r="B9" s="163"/>
-      <c r="C9" s="163"/>
-      <c r="D9" s="163"/>
-      <c r="E9" s="163"/>
-      <c r="F9" s="163"/>
-    </row>
-    <row r="10" spans="1:6" ht="33" customHeight="1">
-      <c r="A10" s="163" t="s">
-        <v>171</v>
-      </c>
-      <c r="B10" s="164"/>
-      <c r="C10" s="164"/>
-      <c r="D10" s="164"/>
-      <c r="E10" s="164"/>
-      <c r="F10" s="164"/>
+      <c r="B10" s="189"/>
+      <c r="C10" s="189"/>
+      <c r="D10" s="189"/>
+      <c r="E10" s="189"/>
+      <c r="F10" s="189"/>
     </row>
     <row r="11" spans="1:6" ht="35.450000000000003" customHeight="1">
-      <c r="A11" s="163" t="s">
-        <v>143</v>
-      </c>
-      <c r="B11" s="164"/>
-      <c r="C11" s="164"/>
-      <c r="D11" s="164"/>
-      <c r="E11" s="164"/>
-      <c r="F11" s="164"/>
+      <c r="A11" s="188" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" s="189"/>
+      <c r="C11" s="189"/>
+      <c r="D11" s="189"/>
+      <c r="E11" s="189"/>
+      <c r="F11" s="189"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6988,7 +6985,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" customHeight="1" thickBot="1">
       <c r="A1" s="96" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B1" s="96"/>
       <c r="C1" s="96"/>
@@ -6998,7 +6995,7 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" thickTop="1">
       <c r="A2" s="97" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B2" s="97"/>
       <c r="C2" s="98"/>
@@ -7016,92 +7013,92 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="93" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="93" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="93" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="93" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="93" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="93" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="93" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="93" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -7113,8 +7110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT1"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AC7" sqref="AC7"/>
+    <sheetView topLeftCell="AF1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AI2" sqref="AI2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7175,28 +7172,28 @@
         <v>80</v>
       </c>
       <c r="C1" s="122" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D1" s="122" t="s">
         <v>1100</v>
       </c>
-      <c r="D1" s="122" t="s">
-        <v>1101</v>
-      </c>
       <c r="E1" s="123" t="s">
+        <v>214</v>
+      </c>
+      <c r="F1" s="123" t="s">
         <v>215</v>
       </c>
-      <c r="F1" s="123" t="s">
+      <c r="G1" s="124" t="s">
+        <v>1095</v>
+      </c>
+      <c r="H1" s="124" t="s">
         <v>216</v>
       </c>
-      <c r="G1" s="124" t="s">
-        <v>1096</v>
-      </c>
-      <c r="H1" s="124" t="s">
-        <v>217</v>
-      </c>
       <c r="I1" s="125" t="s">
+        <v>174</v>
+      </c>
+      <c r="J1" s="125" t="s">
         <v>175</v>
-      </c>
-      <c r="J1" s="125" t="s">
-        <v>176</v>
       </c>
       <c r="K1" s="126" t="s">
         <v>95</v>
@@ -7205,7 +7202,7 @@
         <v>87</v>
       </c>
       <c r="M1" s="128" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N1" s="125" t="s">
         <v>89</v>
@@ -7214,19 +7211,19 @@
         <v>90</v>
       </c>
       <c r="P1" s="125" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="Q1" s="125" t="s">
+        <v>124</v>
+      </c>
+      <c r="R1" s="128" t="s">
         <v>125</v>
       </c>
-      <c r="R1" s="128" t="s">
+      <c r="S1" s="128" t="s">
         <v>126</v>
       </c>
-      <c r="S1" s="128" t="s">
+      <c r="T1" s="128" t="s">
         <v>127</v>
-      </c>
-      <c r="T1" s="128" t="s">
-        <v>128</v>
       </c>
       <c r="U1" s="127" t="s">
         <v>110</v>
@@ -7241,25 +7238,25 @@
         <v>93</v>
       </c>
       <c r="Y1" s="127" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z1" s="125" t="s">
         <v>198</v>
-      </c>
-      <c r="Z1" s="125" t="s">
-        <v>199</v>
       </c>
       <c r="AA1" s="129" t="s">
         <v>98</v>
       </c>
       <c r="AB1" s="130" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC1" s="130" t="s">
         <v>202</v>
       </c>
-      <c r="AC1" s="130" t="s">
+      <c r="AD1" s="130" t="s">
         <v>203</v>
       </c>
-      <c r="AD1" s="130" t="s">
-        <v>204</v>
-      </c>
       <c r="AE1" s="131" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AF1" s="131" t="s">
         <v>99</v>
@@ -7268,34 +7265,34 @@
         <v>100</v>
       </c>
       <c r="AH1" s="133" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="AI1" s="134" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="AJ1" s="134" t="s">
         <v>102</v>
       </c>
       <c r="AK1" s="134" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AL1" s="132" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="AM1" s="132" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN1" s="132" t="s">
         <v>121</v>
       </c>
-      <c r="AN1" s="132" t="s">
+      <c r="AO1" s="132" t="s">
         <v>122</v>
       </c>
-      <c r="AO1" s="132" t="s">
-        <v>123</v>
-      </c>
       <c r="AP1" s="135" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AQ1" s="135" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AR1" s="136" t="s">
         <v>103</v>
@@ -7322,8 +7319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7338,26 +7335,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="191" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
-      <c r="G1" s="166"/>
-      <c r="H1" s="166"/>
+      <c r="B1" s="191"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
       <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:9" ht="58.9" customHeight="1">
-      <c r="A2" s="167" t="s">
-        <v>1115</v>
-      </c>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
+      <c r="A2" s="192" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B2" s="192"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
       <c r="F2" s="100"/>
       <c r="G2" s="100"/>
       <c r="H2" s="51"/>
@@ -7421,7 +7418,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F5" s="26"/>
       <c r="G5" s="13"/>
@@ -7430,7 +7427,7 @@
     </row>
     <row r="6" spans="1:9" ht="38.25">
       <c r="A6" s="15" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>81</v>
@@ -7442,7 +7439,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F6" s="35"/>
       <c r="G6" s="13"/>
@@ -7451,7 +7448,7 @@
     </row>
     <row r="7" spans="1:9" ht="102">
       <c r="A7" s="15" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>77</v>
@@ -7463,7 +7460,7 @@
         <v>83</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F7" s="31"/>
       <c r="G7" s="17"/>
@@ -7472,7 +7469,7 @@
     </row>
     <row r="8" spans="1:9" ht="51">
       <c r="A8" s="115" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>81</v>
@@ -7481,10 +7478,10 @@
         <v>82</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F8" s="36"/>
       <c r="G8" s="13"/>
@@ -7493,7 +7490,7 @@
     </row>
     <row r="9" spans="1:9" ht="25.5">
       <c r="A9" s="115" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>77</v>
@@ -7505,7 +7502,7 @@
         <v>83</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F9" s="36"/>
       <c r="G9" s="17"/>
@@ -7514,7 +7511,7 @@
     </row>
     <row r="10" spans="1:9" s="110" customFormat="1" ht="38.25">
       <c r="A10" s="116" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B10" s="117" t="s">
         <v>81</v>
@@ -7526,13 +7523,13 @@
         <v>83</v>
       </c>
       <c r="E10" s="114" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="F10" s="109"/>
     </row>
     <row r="11" spans="1:9" s="110" customFormat="1" ht="38.25">
       <c r="A11" s="116" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B11" s="117" t="s">
         <v>81</v>
@@ -7541,16 +7538,16 @@
         <v>82</v>
       </c>
       <c r="D11" s="119" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E11" s="114" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="F11" s="109"/>
     </row>
     <row r="12" spans="1:9" ht="76.5">
       <c r="A12" s="106" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>77</v>
@@ -7562,7 +7559,7 @@
         <v>83</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F12" s="36"/>
       <c r="G12" s="17"/>
@@ -7571,7 +7568,7 @@
     </row>
     <row r="13" spans="1:9" ht="38.25">
       <c r="A13" s="106" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>81</v>
@@ -7580,10 +7577,10 @@
         <v>82</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F13" s="36"/>
       <c r="G13" s="13"/>
@@ -7634,7 +7631,7 @@
     </row>
     <row r="16" spans="1:9" s="55" customFormat="1" ht="25.5">
       <c r="A16" s="108" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>86</v>
@@ -7646,7 +7643,7 @@
         <v>83</v>
       </c>
       <c r="E16" s="57" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F16" s="37"/>
       <c r="H16" s="52"/>
@@ -7663,10 +7660,10 @@
         <v>82</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F17" s="37"/>
       <c r="G17" s="13"/>
@@ -7684,10 +7681,10 @@
         <v>82</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F18" s="37"/>
       <c r="G18" s="13"/>
@@ -7696,7 +7693,7 @@
     </row>
     <row r="19" spans="1:9" s="110" customFormat="1" ht="25.5">
       <c r="A19" s="106" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B19" s="20" t="s">
         <v>81</v>
@@ -7708,13 +7705,13 @@
         <v>83</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F19" s="109"/>
     </row>
     <row r="20" spans="1:9" s="13" customFormat="1" ht="28.5">
       <c r="A20" s="106" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B20" s="20" t="s">
         <v>81</v>
@@ -7726,7 +7723,7 @@
         <v>83</v>
       </c>
       <c r="E20" s="56" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="F20" s="37"/>
       <c r="H20" s="52"/>
@@ -7734,7 +7731,7 @@
     </row>
     <row r="21" spans="1:9" s="13" customFormat="1" ht="25.5">
       <c r="A21" s="108" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B21" s="20" t="s">
         <v>81</v>
@@ -7746,7 +7743,7 @@
         <v>83</v>
       </c>
       <c r="E21" s="56" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="F21" s="37"/>
       <c r="H21" s="52"/>
@@ -7754,7 +7751,7 @@
     </row>
     <row r="22" spans="1:9" s="13" customFormat="1">
       <c r="A22" s="108" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B22" s="20" t="s">
         <v>81</v>
@@ -7766,7 +7763,7 @@
         <v>83</v>
       </c>
       <c r="E22" s="56" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F22" s="37"/>
       <c r="H22" s="52"/>
@@ -7774,7 +7771,7 @@
     </row>
     <row r="23" spans="1:9" s="13" customFormat="1">
       <c r="A23" s="108" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B23" s="20" t="s">
         <v>81</v>
@@ -7786,7 +7783,7 @@
         <v>83</v>
       </c>
       <c r="E23" s="57" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F23" s="37"/>
       <c r="H23" s="52"/>
@@ -7848,7 +7845,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F26" s="37"/>
       <c r="G26" s="13"/>
@@ -7878,7 +7875,7 @@
     </row>
     <row r="28" spans="1:9" s="55" customFormat="1" ht="38.25">
       <c r="A28" s="107" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B28" s="21" t="s">
         <v>84</v>
@@ -7890,7 +7887,7 @@
         <v>83</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F28" s="37"/>
       <c r="H28" s="19"/>
@@ -7898,7 +7895,7 @@
     </row>
     <row r="29" spans="1:9" ht="25.5">
       <c r="A29" s="106" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B29" s="20" t="s">
         <v>84</v>
@@ -7910,7 +7907,7 @@
         <v>83</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F29" s="31"/>
       <c r="G29" s="13"/>
@@ -7940,7 +7937,7 @@
     </row>
     <row r="31" spans="1:9" ht="51">
       <c r="A31" s="41" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B31" s="28" t="s">
         <v>86</v>
@@ -7949,10 +7946,10 @@
         <v>82</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F31" s="37"/>
       <c r="G31" s="13"/>
@@ -7961,7 +7958,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="41" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B32" s="28" t="s">
         <v>84</v>
@@ -7970,10 +7967,10 @@
         <v>85</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F32" s="36"/>
       <c r="G32" s="13"/>
@@ -7982,7 +7979,7 @@
     </row>
     <row r="33" spans="1:12" s="13" customFormat="1" ht="38.25">
       <c r="A33" s="41" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B33" s="28" t="s">
         <v>84</v>
@@ -7994,7 +7991,7 @@
         <v>83</v>
       </c>
       <c r="E33" s="31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F33" s="36"/>
       <c r="H33" s="52"/>
@@ -8002,7 +7999,7 @@
     </row>
     <row r="34" spans="1:12" ht="25.5">
       <c r="A34" s="42" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B34" s="16" t="s">
         <v>84</v>
@@ -8014,7 +8011,7 @@
         <v>83</v>
       </c>
       <c r="E34" s="32" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F34" s="38"/>
       <c r="G34" s="13"/>
@@ -8026,7 +8023,7 @@
         <v>99</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C35" s="29" t="s">
         <v>82</v>
@@ -8065,7 +8062,7 @@
     </row>
     <row r="37" spans="1:12" s="55" customFormat="1" ht="25.5">
       <c r="A37" s="50" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B37" s="16" t="s">
         <v>77</v>
@@ -8077,7 +8074,7 @@
         <v>83</v>
       </c>
       <c r="E37" s="32" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F37" s="36"/>
       <c r="H37" s="52"/>
@@ -8085,7 +8082,7 @@
     </row>
     <row r="38" spans="1:12" ht="76.5">
       <c r="A38" s="47" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="B38" s="16" t="s">
         <v>81</v>
@@ -8094,10 +8091,10 @@
         <v>82</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="F38" s="39"/>
       <c r="G38" s="13"/>
@@ -8118,7 +8115,7 @@
         <v>83</v>
       </c>
       <c r="E39" s="31" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
@@ -8130,10 +8127,10 @@
     </row>
     <row r="40" spans="1:12" ht="25.5">
       <c r="A40" s="47" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B40" s="44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C40" s="28" t="s">
         <v>82</v>
@@ -8142,7 +8139,7 @@
         <v>83</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
@@ -8154,19 +8151,19 @@
     </row>
     <row r="41" spans="1:12" ht="25.5">
       <c r="A41" s="45" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C41" s="28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D41" s="21">
         <v>1</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
@@ -8178,7 +8175,7 @@
     </row>
     <row r="42" spans="1:12" s="13" customFormat="1">
       <c r="A42" s="45" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B42" s="16" t="s">
         <v>84</v>
@@ -8190,12 +8187,12 @@
         <v>1</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="43" spans="1:12" s="13" customFormat="1">
       <c r="A43" s="45" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B43" s="16" t="s">
         <v>84</v>
@@ -8207,15 +8204,15 @@
         <v>1</v>
       </c>
       <c r="E43" s="24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="44" spans="1:12" s="13" customFormat="1" ht="25.5">
       <c r="A44" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="B44" s="16" t="s">
         <v>123</v>
-      </c>
-      <c r="B44" s="16" t="s">
-        <v>124</v>
       </c>
       <c r="C44" s="28" t="s">
         <v>85</v>
@@ -8224,12 +8221,12 @@
         <v>1</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="27">
       <c r="A45" s="22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B45" s="16" t="s">
         <v>84</v>
@@ -8241,7 +8238,7 @@
         <v>1</v>
       </c>
       <c r="E45" s="32" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="F45" s="31"/>
       <c r="G45" s="13"/>
@@ -8253,7 +8250,7 @@
     </row>
     <row r="46" spans="1:12" s="13" customFormat="1" ht="65.25">
       <c r="A46" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B46" s="16" t="s">
         <v>81</v>
@@ -8265,7 +8262,7 @@
         <v>1</v>
       </c>
       <c r="E46" s="32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F46" s="31"/>
       <c r="H46" s="19"/>
@@ -8330,7 +8327,7 @@
         <v>1</v>
       </c>
       <c r="E49" s="32" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F49" s="39"/>
       <c r="G49" s="13"/>
@@ -8422,8 +8419,8 @@
       <c r="A7" s="142" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="168" t="s">
-        <v>115</v>
+      <c r="B7" s="193" t="s">
+        <v>114</v>
       </c>
       <c r="C7" s="145"/>
       <c r="D7" s="2"/>
@@ -8432,7 +8429,7 @@
       <c r="A8" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="169"/>
+      <c r="B8" s="194"/>
       <c r="C8" s="145"/>
       <c r="D8" s="2"/>
     </row>
@@ -8442,119 +8439,119 @@
     </row>
     <row r="11" spans="1:4" s="110" customFormat="1" ht="20.25" thickBot="1">
       <c r="A11" s="150" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B11" s="146" t="s">
         <v>1116</v>
-      </c>
-      <c r="B11" s="146" t="s">
-        <v>1117</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="110" customFormat="1" ht="15.75" thickTop="1">
       <c r="A12" s="147" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B12" s="148"/>
     </row>
     <row r="13" spans="1:4" s="110" customFormat="1">
       <c r="A13" s="147" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B13" s="148"/>
     </row>
     <row r="14" spans="1:4" s="110" customFormat="1">
       <c r="A14" s="147" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B14" s="148"/>
     </row>
     <row r="15" spans="1:4" s="110" customFormat="1">
       <c r="A15" s="147" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B15" s="148"/>
     </row>
     <row r="16" spans="1:4" s="110" customFormat="1">
       <c r="A16" s="147" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B16" s="148"/>
     </row>
     <row r="17" spans="1:3" s="110" customFormat="1">
       <c r="A17" s="147" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B17" s="148"/>
     </row>
     <row r="18" spans="1:3" s="110" customFormat="1">
       <c r="A18" s="147" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B18" s="148"/>
     </row>
     <row r="19" spans="1:3" s="110" customFormat="1">
       <c r="A19" s="147" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B19" s="148"/>
     </row>
     <row r="20" spans="1:3" s="110" customFormat="1">
       <c r="A20" s="147" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B20" s="148"/>
       <c r="C20" s="55"/>
     </row>
     <row r="21" spans="1:3" s="110" customFormat="1">
       <c r="A21" s="147" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B21" s="148"/>
       <c r="C21" s="55"/>
     </row>
     <row r="22" spans="1:3" s="110" customFormat="1">
       <c r="A22" s="147" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B22" s="148"/>
       <c r="C22" s="55"/>
     </row>
     <row r="23" spans="1:3" s="110" customFormat="1">
       <c r="A23" s="147" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B23" s="148"/>
       <c r="C23" s="55"/>
     </row>
     <row r="24" spans="1:3" s="110" customFormat="1">
       <c r="A24" s="147" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B24" s="148"/>
       <c r="C24" s="55"/>
     </row>
     <row r="25" spans="1:3" s="110" customFormat="1">
       <c r="A25" s="147" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B25" s="148"/>
       <c r="C25" s="55"/>
     </row>
     <row r="26" spans="1:3" s="110" customFormat="1">
       <c r="A26" s="147" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B26" s="148"/>
       <c r="C26" s="55"/>
     </row>
     <row r="27" spans="1:3" s="110" customFormat="1">
       <c r="A27" s="147" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B27" s="148"/>
       <c r="C27" s="55"/>
     </row>
     <row r="28" spans="1:3" s="110" customFormat="1">
       <c r="A28" s="147" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B28" s="148"/>
       <c r="C28" s="55"/>
@@ -8564,7 +8561,7 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="1" customFormat="1">
@@ -9139,7 +9136,7 @@
         <v>66</v>
       </c>
       <c r="B1" s="111" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C1" s="111" t="s">
         <v>77</v>
@@ -9150,3723 +9147,3723 @@
     </row>
     <row r="2" spans="1:4" ht="30">
       <c r="A2" s="113" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" s="113" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="113" t="s">
+      <c r="C2" s="113" t="s">
+        <v>218</v>
+      </c>
+      <c r="D2" s="113" t="s">
         <v>221</v>
-      </c>
-      <c r="C2" s="113" t="s">
-        <v>219</v>
-      </c>
-      <c r="D2" s="113" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30">
       <c r="A3" s="113" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3" s="113" t="s">
         <v>224</v>
       </c>
-      <c r="B3" s="113" t="s">
-        <v>225</v>
-      </c>
       <c r="C3" s="113" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D3" s="113" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="105">
       <c r="A4" s="113" t="s">
+        <v>226</v>
+      </c>
+      <c r="B4" s="113" t="s">
         <v>227</v>
       </c>
-      <c r="B4" s="113" t="s">
+      <c r="C4" s="113" t="s">
+        <v>225</v>
+      </c>
+      <c r="D4" s="113" t="s">
         <v>228</v>
-      </c>
-      <c r="C4" s="113" t="s">
-        <v>226</v>
-      </c>
-      <c r="D4" s="113" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30">
       <c r="A5" s="113" t="s">
+        <v>230</v>
+      </c>
+      <c r="B5" s="113" t="s">
         <v>231</v>
       </c>
-      <c r="B5" s="113" t="s">
+      <c r="C5" s="113" t="s">
+        <v>229</v>
+      </c>
+      <c r="D5" s="113" t="s">
         <v>232</v>
-      </c>
-      <c r="C5" s="113" t="s">
-        <v>230</v>
-      </c>
-      <c r="D5" s="113" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30">
       <c r="A6" s="113" t="s">
+        <v>234</v>
+      </c>
+      <c r="B6" s="113" t="s">
         <v>235</v>
       </c>
-      <c r="B6" s="113" t="s">
-        <v>236</v>
-      </c>
       <c r="C6" s="113" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D6" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30">
       <c r="A7" s="113" t="s">
+        <v>237</v>
+      </c>
+      <c r="B7" s="113" t="s">
         <v>238</v>
       </c>
-      <c r="B7" s="113" t="s">
-        <v>239</v>
-      </c>
       <c r="C7" s="113" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D7" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30">
       <c r="A8" s="113" t="s">
+        <v>240</v>
+      </c>
+      <c r="B8" s="113" t="s">
         <v>241</v>
       </c>
-      <c r="B8" s="113" t="s">
-        <v>242</v>
-      </c>
       <c r="C8" s="113" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D8" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="45">
       <c r="A9" s="113" t="s">
+        <v>243</v>
+      </c>
+      <c r="B9" s="113" t="s">
         <v>244</v>
       </c>
-      <c r="B9" s="113" t="s">
-        <v>245</v>
-      </c>
       <c r="C9" s="113" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D9" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30">
       <c r="A10" s="113" t="s">
+        <v>246</v>
+      </c>
+      <c r="B10" s="113" t="s">
         <v>247</v>
       </c>
-      <c r="B10" s="113" t="s">
-        <v>248</v>
-      </c>
       <c r="C10" s="113" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D10" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="120">
       <c r="A11" s="113" t="s">
+        <v>249</v>
+      </c>
+      <c r="B11" s="113" t="s">
         <v>250</v>
       </c>
-      <c r="B11" s="113" t="s">
+      <c r="C11" s="113" t="s">
+        <v>248</v>
+      </c>
+      <c r="D11" s="113" t="s">
         <v>251</v>
-      </c>
-      <c r="C11" s="113" t="s">
-        <v>249</v>
-      </c>
-      <c r="D11" s="113" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="210">
       <c r="A12" s="113" t="s">
+        <v>253</v>
+      </c>
+      <c r="B12" s="113" t="s">
         <v>254</v>
       </c>
-      <c r="B12" s="113" t="s">
-        <v>255</v>
-      </c>
       <c r="C12" s="113" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D12" s="113" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30">
       <c r="A13" s="113" t="s">
+        <v>256</v>
+      </c>
+      <c r="B13" s="113" t="s">
         <v>257</v>
       </c>
-      <c r="B13" s="113" t="s">
-        <v>258</v>
-      </c>
       <c r="C13" s="113" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D13" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="90">
       <c r="A14" s="113" t="s">
+        <v>259</v>
+      </c>
+      <c r="B14" s="113" t="s">
         <v>260</v>
       </c>
-      <c r="B14" s="113" t="s">
+      <c r="C14" s="113" t="s">
+        <v>258</v>
+      </c>
+      <c r="D14" s="113" t="s">
         <v>261</v>
-      </c>
-      <c r="C14" s="113" t="s">
-        <v>259</v>
-      </c>
-      <c r="D14" s="113" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="105">
       <c r="A15" s="113" t="s">
+        <v>263</v>
+      </c>
+      <c r="B15" s="113" t="s">
         <v>264</v>
       </c>
-      <c r="B15" s="113" t="s">
+      <c r="C15" s="113" t="s">
+        <v>262</v>
+      </c>
+      <c r="D15" s="113" t="s">
         <v>265</v>
-      </c>
-      <c r="C15" s="113" t="s">
-        <v>263</v>
-      </c>
-      <c r="D15" s="113" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30">
       <c r="A16" s="113" t="s">
+        <v>267</v>
+      </c>
+      <c r="B16" s="113" t="s">
         <v>268</v>
       </c>
-      <c r="B16" s="113" t="s">
+      <c r="C16" s="113" t="s">
+        <v>266</v>
+      </c>
+      <c r="D16" s="113" t="s">
         <v>269</v>
-      </c>
-      <c r="C16" s="113" t="s">
-        <v>267</v>
-      </c>
-      <c r="D16" s="113" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="45">
       <c r="A17" s="113" t="s">
+        <v>271</v>
+      </c>
+      <c r="B17" s="113" t="s">
         <v>272</v>
       </c>
-      <c r="B17" s="113" t="s">
-        <v>273</v>
-      </c>
       <c r="C17" s="113" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D17" s="113" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30">
       <c r="A18" s="113" t="s">
+        <v>274</v>
+      </c>
+      <c r="B18" s="113" t="s">
         <v>275</v>
       </c>
-      <c r="B18" s="113" t="s">
-        <v>276</v>
-      </c>
       <c r="C18" s="113" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D18" s="113" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="60">
       <c r="A19" s="113" t="s">
+        <v>277</v>
+      </c>
+      <c r="B19" s="113" t="s">
         <v>278</v>
       </c>
-      <c r="B19" s="113" t="s">
+      <c r="C19" s="113" t="s">
+        <v>276</v>
+      </c>
+      <c r="D19" s="113" t="s">
         <v>279</v>
-      </c>
-      <c r="C19" s="113" t="s">
-        <v>277</v>
-      </c>
-      <c r="D19" s="113" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="60">
       <c r="A20" s="113" t="s">
+        <v>281</v>
+      </c>
+      <c r="B20" s="113" t="s">
         <v>282</v>
       </c>
-      <c r="B20" s="113" t="s">
+      <c r="C20" s="113" t="s">
+        <v>280</v>
+      </c>
+      <c r="D20" s="113" t="s">
         <v>283</v>
-      </c>
-      <c r="C20" s="113" t="s">
-        <v>281</v>
-      </c>
-      <c r="D20" s="113" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="30">
       <c r="A21" s="113" t="s">
+        <v>285</v>
+      </c>
+      <c r="B21" s="113" t="s">
         <v>286</v>
       </c>
-      <c r="B21" s="113" t="s">
+      <c r="C21" s="113" t="s">
+        <v>284</v>
+      </c>
+      <c r="D21" s="113" t="s">
         <v>287</v>
-      </c>
-      <c r="C21" s="113" t="s">
-        <v>285</v>
-      </c>
-      <c r="D21" s="113" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="45">
       <c r="A22" s="113" t="s">
+        <v>289</v>
+      </c>
+      <c r="B22" s="113" t="s">
         <v>290</v>
       </c>
-      <c r="B22" s="113" t="s">
-        <v>291</v>
-      </c>
       <c r="C22" s="113" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D22" s="113" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="45">
       <c r="A23" s="113" t="s">
+        <v>292</v>
+      </c>
+      <c r="B23" s="113" t="s">
         <v>293</v>
       </c>
-      <c r="B23" s="113" t="s">
-        <v>294</v>
-      </c>
       <c r="C23" s="113" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D23" s="113" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="210">
       <c r="A24" s="113" t="s">
+        <v>295</v>
+      </c>
+      <c r="B24" s="113" t="s">
         <v>296</v>
       </c>
-      <c r="B24" s="113" t="s">
-        <v>297</v>
-      </c>
       <c r="C24" s="113" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D24" s="113" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="45">
       <c r="A25" s="113" t="s">
+        <v>298</v>
+      </c>
+      <c r="B25" s="113" t="s">
         <v>299</v>
       </c>
-      <c r="B25" s="113" t="s">
-        <v>300</v>
-      </c>
       <c r="C25" s="113" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D25" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="60">
       <c r="A26" s="113" t="s">
+        <v>301</v>
+      </c>
+      <c r="B26" s="113" t="s">
         <v>302</v>
       </c>
-      <c r="B26" s="113" t="s">
-        <v>303</v>
-      </c>
       <c r="C26" s="113" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D26" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="30">
       <c r="A27" s="113" t="s">
+        <v>304</v>
+      </c>
+      <c r="B27" s="113" t="s">
         <v>305</v>
       </c>
-      <c r="B27" s="113" t="s">
-        <v>306</v>
-      </c>
       <c r="C27" s="113" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D27" s="113" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="30">
       <c r="A28" s="113" t="s">
+        <v>307</v>
+      </c>
+      <c r="B28" s="113" t="s">
         <v>308</v>
       </c>
-      <c r="B28" s="113" t="s">
-        <v>309</v>
-      </c>
       <c r="C28" s="113" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D28" s="113" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="90">
       <c r="A29" s="113" t="s">
+        <v>310</v>
+      </c>
+      <c r="B29" s="113" t="s">
         <v>311</v>
       </c>
-      <c r="B29" s="113" t="s">
+      <c r="C29" s="113" t="s">
+        <v>309</v>
+      </c>
+      <c r="D29" s="113" t="s">
         <v>312</v>
-      </c>
-      <c r="C29" s="113" t="s">
-        <v>310</v>
-      </c>
-      <c r="D29" s="113" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="60">
       <c r="A30" s="113" t="s">
+        <v>314</v>
+      </c>
+      <c r="B30" s="113" t="s">
         <v>315</v>
       </c>
-      <c r="B30" s="113" t="s">
+      <c r="C30" s="113" t="s">
+        <v>313</v>
+      </c>
+      <c r="D30" s="113" t="s">
         <v>316</v>
-      </c>
-      <c r="C30" s="113" t="s">
-        <v>314</v>
-      </c>
-      <c r="D30" s="113" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="60">
       <c r="A31" s="113" t="s">
+        <v>318</v>
+      </c>
+      <c r="B31" s="113" t="s">
         <v>319</v>
       </c>
-      <c r="B31" s="113" t="s">
+      <c r="C31" s="113" t="s">
+        <v>317</v>
+      </c>
+      <c r="D31" s="113" t="s">
         <v>320</v>
-      </c>
-      <c r="C31" s="113" t="s">
-        <v>318</v>
-      </c>
-      <c r="D31" s="113" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="135">
       <c r="A32" s="113" t="s">
+        <v>322</v>
+      </c>
+      <c r="B32" s="113" t="s">
         <v>323</v>
       </c>
-      <c r="B32" s="113" t="s">
+      <c r="C32" s="113" t="s">
+        <v>321</v>
+      </c>
+      <c r="D32" s="113" t="s">
         <v>324</v>
-      </c>
-      <c r="C32" s="113" t="s">
-        <v>322</v>
-      </c>
-      <c r="D32" s="113" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="60">
       <c r="A33" s="113" t="s">
+        <v>326</v>
+      </c>
+      <c r="B33" s="113" t="s">
         <v>327</v>
       </c>
-      <c r="B33" s="113" t="s">
-        <v>328</v>
-      </c>
       <c r="C33" s="113" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D33" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="30">
       <c r="A34" s="113" t="s">
+        <v>329</v>
+      </c>
+      <c r="B34" s="113" t="s">
         <v>330</v>
       </c>
-      <c r="B34" s="113" t="s">
+      <c r="C34" s="113" t="s">
+        <v>328</v>
+      </c>
+      <c r="D34" s="113" t="s">
         <v>331</v>
-      </c>
-      <c r="C34" s="113" t="s">
-        <v>329</v>
-      </c>
-      <c r="D34" s="113" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="75">
       <c r="A35" s="113" t="s">
+        <v>333</v>
+      </c>
+      <c r="B35" s="113" t="s">
         <v>334</v>
       </c>
-      <c r="B35" s="113" t="s">
+      <c r="C35" s="113" t="s">
+        <v>332</v>
+      </c>
+      <c r="D35" s="113" t="s">
         <v>335</v>
-      </c>
-      <c r="C35" s="113" t="s">
-        <v>333</v>
-      </c>
-      <c r="D35" s="113" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="210">
       <c r="A36" s="113" t="s">
+        <v>337</v>
+      </c>
+      <c r="B36" s="113" t="s">
         <v>338</v>
       </c>
-      <c r="B36" s="113" t="s">
-        <v>339</v>
-      </c>
       <c r="C36" s="113" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D36" s="113" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="60">
       <c r="A37" s="113" t="s">
+        <v>340</v>
+      </c>
+      <c r="B37" s="113" t="s">
         <v>341</v>
       </c>
-      <c r="B37" s="113" t="s">
+      <c r="C37" s="113" t="s">
+        <v>339</v>
+      </c>
+      <c r="D37" s="113" t="s">
         <v>342</v>
-      </c>
-      <c r="C37" s="113" t="s">
-        <v>340</v>
-      </c>
-      <c r="D37" s="113" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="30">
       <c r="A38" s="113" t="s">
+        <v>344</v>
+      </c>
+      <c r="B38" s="113" t="s">
         <v>345</v>
       </c>
-      <c r="B38" s="113" t="s">
+      <c r="C38" s="113" t="s">
+        <v>343</v>
+      </c>
+      <c r="D38" s="113" t="s">
         <v>346</v>
-      </c>
-      <c r="C38" s="113" t="s">
-        <v>344</v>
-      </c>
-      <c r="D38" s="113" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="60">
       <c r="A39" s="113" t="s">
+        <v>348</v>
+      </c>
+      <c r="B39" s="113" t="s">
         <v>349</v>
       </c>
-      <c r="B39" s="113" t="s">
-        <v>350</v>
-      </c>
       <c r="C39" s="113" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D39" s="113" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="45">
       <c r="A40" s="113" t="s">
+        <v>351</v>
+      </c>
+      <c r="B40" s="113" t="s">
         <v>352</v>
       </c>
-      <c r="B40" s="113" t="s">
+      <c r="C40" s="113" t="s">
+        <v>350</v>
+      </c>
+      <c r="D40" s="113" t="s">
         <v>353</v>
-      </c>
-      <c r="C40" s="113" t="s">
-        <v>351</v>
-      </c>
-      <c r="D40" s="113" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="45">
       <c r="A41" s="113" t="s">
+        <v>355</v>
+      </c>
+      <c r="B41" s="113" t="s">
         <v>356</v>
       </c>
-      <c r="B41" s="113" t="s">
+      <c r="C41" s="113" t="s">
+        <v>354</v>
+      </c>
+      <c r="D41" s="113" t="s">
         <v>357</v>
-      </c>
-      <c r="C41" s="113" t="s">
-        <v>355</v>
-      </c>
-      <c r="D41" s="113" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="30">
       <c r="A42" s="113" t="s">
+        <v>359</v>
+      </c>
+      <c r="B42" s="113" t="s">
         <v>360</v>
       </c>
-      <c r="B42" s="113" t="s">
-        <v>361</v>
-      </c>
       <c r="C42" s="113" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D42" s="113" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="30">
       <c r="A43" s="113" t="s">
+        <v>362</v>
+      </c>
+      <c r="B43" s="113" t="s">
         <v>363</v>
       </c>
-      <c r="B43" s="113" t="s">
-        <v>364</v>
-      </c>
       <c r="C43" s="113" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D43" s="113" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="45">
       <c r="A44" s="113" t="s">
+        <v>365</v>
+      </c>
+      <c r="B44" s="113" t="s">
         <v>366</v>
       </c>
-      <c r="B44" s="113" t="s">
-        <v>367</v>
-      </c>
       <c r="C44" s="113" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D44" s="113" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="45">
       <c r="A45" s="113" t="s">
+        <v>368</v>
+      </c>
+      <c r="B45" s="113" t="s">
         <v>369</v>
       </c>
-      <c r="B45" s="113" t="s">
-        <v>370</v>
-      </c>
       <c r="C45" s="113" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D45" s="113" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="60">
       <c r="A46" s="113" t="s">
+        <v>371</v>
+      </c>
+      <c r="B46" s="113" t="s">
         <v>372</v>
       </c>
-      <c r="B46" s="113" t="s">
-        <v>373</v>
-      </c>
       <c r="C46" s="113" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D46" s="113" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="60">
       <c r="A47" s="113" t="s">
+        <v>374</v>
+      </c>
+      <c r="B47" s="113" t="s">
         <v>375</v>
       </c>
-      <c r="B47" s="113" t="s">
-        <v>376</v>
-      </c>
       <c r="C47" s="113" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D47" s="113" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="60">
       <c r="A48" s="113" t="s">
+        <v>377</v>
+      </c>
+      <c r="B48" s="113" t="s">
         <v>378</v>
       </c>
-      <c r="B48" s="113" t="s">
-        <v>379</v>
-      </c>
       <c r="C48" s="113" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D48" s="113" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="75">
       <c r="A49" s="113" t="s">
+        <v>380</v>
+      </c>
+      <c r="B49" s="113" t="s">
         <v>381</v>
       </c>
-      <c r="B49" s="113" t="s">
+      <c r="C49" s="113" t="s">
+        <v>379</v>
+      </c>
+      <c r="D49" s="113" t="s">
         <v>382</v>
-      </c>
-      <c r="C49" s="113" t="s">
-        <v>380</v>
-      </c>
-      <c r="D49" s="113" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="30">
       <c r="A50" s="113" t="s">
+        <v>384</v>
+      </c>
+      <c r="B50" s="113" t="s">
         <v>385</v>
       </c>
-      <c r="B50" s="113" t="s">
-        <v>386</v>
-      </c>
       <c r="C50" s="113" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D50" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="90">
       <c r="A51" s="113" t="s">
+        <v>387</v>
+      </c>
+      <c r="B51" s="113" t="s">
         <v>388</v>
       </c>
-      <c r="B51" s="113" t="s">
+      <c r="C51" s="113" t="s">
+        <v>386</v>
+      </c>
+      <c r="D51" s="113" t="s">
         <v>389</v>
-      </c>
-      <c r="C51" s="113" t="s">
-        <v>387</v>
-      </c>
-      <c r="D51" s="113" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="105">
       <c r="A52" s="113" t="s">
+        <v>391</v>
+      </c>
+      <c r="B52" s="113" t="s">
         <v>392</v>
       </c>
-      <c r="B52" s="113" t="s">
+      <c r="C52" s="113" t="s">
+        <v>390</v>
+      </c>
+      <c r="D52" s="113" t="s">
         <v>393</v>
-      </c>
-      <c r="C52" s="113" t="s">
-        <v>391</v>
-      </c>
-      <c r="D52" s="113" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="60">
       <c r="A53" s="113" t="s">
+        <v>395</v>
+      </c>
+      <c r="B53" s="113" t="s">
         <v>396</v>
       </c>
-      <c r="B53" s="113" t="s">
-        <v>397</v>
-      </c>
       <c r="C53" s="113" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D53" s="113" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="45">
       <c r="A54" s="113" t="s">
+        <v>398</v>
+      </c>
+      <c r="B54" s="113" t="s">
         <v>399</v>
       </c>
-      <c r="B54" s="113" t="s">
-        <v>400</v>
-      </c>
       <c r="C54" s="113" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D54" s="113" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="135">
       <c r="A55" s="113" t="s">
+        <v>401</v>
+      </c>
+      <c r="B55" s="113" t="s">
         <v>402</v>
       </c>
-      <c r="B55" s="113" t="s">
+      <c r="C55" s="113" t="s">
+        <v>400</v>
+      </c>
+      <c r="D55" s="113" t="s">
         <v>403</v>
-      </c>
-      <c r="C55" s="113" t="s">
-        <v>401</v>
-      </c>
-      <c r="D55" s="113" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="45">
       <c r="A56" s="113" t="s">
+        <v>405</v>
+      </c>
+      <c r="B56" s="113" t="s">
         <v>406</v>
       </c>
-      <c r="B56" s="113" t="s">
+      <c r="C56" s="113" t="s">
+        <v>404</v>
+      </c>
+      <c r="D56" s="113" t="s">
         <v>407</v>
-      </c>
-      <c r="C56" s="113" t="s">
-        <v>405</v>
-      </c>
-      <c r="D56" s="113" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="45">
       <c r="A57" s="113" t="s">
+        <v>409</v>
+      </c>
+      <c r="B57" s="113" t="s">
         <v>410</v>
       </c>
-      <c r="B57" s="113" t="s">
+      <c r="C57" s="113" t="s">
+        <v>408</v>
+      </c>
+      <c r="D57" s="113" t="s">
         <v>411</v>
-      </c>
-      <c r="C57" s="113" t="s">
-        <v>409</v>
-      </c>
-      <c r="D57" s="113" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="75">
       <c r="A58" s="113" t="s">
+        <v>413</v>
+      </c>
+      <c r="B58" s="113" t="s">
         <v>414</v>
       </c>
-      <c r="B58" s="113" t="s">
+      <c r="C58" s="113" t="s">
+        <v>412</v>
+      </c>
+      <c r="D58" s="113" t="s">
         <v>415</v>
-      </c>
-      <c r="C58" s="113" t="s">
-        <v>413</v>
-      </c>
-      <c r="D58" s="113" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="90">
       <c r="A59" s="113" t="s">
+        <v>417</v>
+      </c>
+      <c r="B59" s="113" t="s">
         <v>418</v>
       </c>
-      <c r="B59" s="113" t="s">
-        <v>419</v>
-      </c>
       <c r="C59" s="113" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D59" s="113" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="75">
       <c r="A60" s="113" t="s">
+        <v>420</v>
+      </c>
+      <c r="B60" s="113" t="s">
         <v>421</v>
       </c>
-      <c r="B60" s="113" t="s">
-        <v>422</v>
-      </c>
       <c r="C60" s="113" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D60" s="113" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="30">
       <c r="A61" s="113" t="s">
+        <v>423</v>
+      </c>
+      <c r="B61" s="113" t="s">
         <v>424</v>
       </c>
-      <c r="B61" s="113" t="s">
+      <c r="C61" s="113" t="s">
+        <v>422</v>
+      </c>
+      <c r="D61" s="113" t="s">
         <v>425</v>
-      </c>
-      <c r="C61" s="113" t="s">
-        <v>423</v>
-      </c>
-      <c r="D61" s="113" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="30">
       <c r="A62" s="113" t="s">
+        <v>427</v>
+      </c>
+      <c r="B62" s="113" t="s">
         <v>428</v>
       </c>
-      <c r="B62" s="113" t="s">
-        <v>429</v>
-      </c>
       <c r="C62" s="113" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D62" s="113" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="105">
       <c r="A63" s="113" t="s">
+        <v>430</v>
+      </c>
+      <c r="B63" s="113" t="s">
         <v>431</v>
       </c>
-      <c r="B63" s="113" t="s">
+      <c r="C63" s="113" t="s">
+        <v>429</v>
+      </c>
+      <c r="D63" s="113" t="s">
         <v>432</v>
-      </c>
-      <c r="C63" s="113" t="s">
-        <v>430</v>
-      </c>
-      <c r="D63" s="113" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="30">
       <c r="A64" s="113" t="s">
+        <v>434</v>
+      </c>
+      <c r="B64" s="113" t="s">
         <v>435</v>
       </c>
-      <c r="B64" s="113" t="s">
-        <v>436</v>
-      </c>
       <c r="C64" s="113" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D64" s="113" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="105">
       <c r="A65" s="113" t="s">
+        <v>437</v>
+      </c>
+      <c r="B65" s="113" t="s">
         <v>438</v>
       </c>
-      <c r="B65" s="113" t="s">
-        <v>439</v>
-      </c>
       <c r="C65" s="113" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D65" s="113" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="90">
       <c r="A66" s="113" t="s">
+        <v>440</v>
+      </c>
+      <c r="B66" s="113" t="s">
         <v>441</v>
       </c>
-      <c r="B66" s="113" t="s">
-        <v>442</v>
-      </c>
       <c r="C66" s="113" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D66" s="113" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="60">
       <c r="A67" s="113" t="s">
+        <v>443</v>
+      </c>
+      <c r="B67" s="113" t="s">
         <v>444</v>
       </c>
-      <c r="B67" s="113" t="s">
+      <c r="C67" s="113" t="s">
+        <v>442</v>
+      </c>
+      <c r="D67" s="113" t="s">
         <v>445</v>
-      </c>
-      <c r="C67" s="113" t="s">
-        <v>443</v>
-      </c>
-      <c r="D67" s="113" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="45">
       <c r="A68" s="113" t="s">
+        <v>447</v>
+      </c>
+      <c r="B68" s="113" t="s">
         <v>448</v>
       </c>
-      <c r="B68" s="113" t="s">
-        <v>449</v>
-      </c>
       <c r="C68" s="113" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D68" s="113" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="120">
       <c r="A69" s="113" t="s">
+        <v>450</v>
+      </c>
+      <c r="B69" s="113" t="s">
         <v>451</v>
       </c>
-      <c r="B69" s="113" t="s">
-        <v>452</v>
-      </c>
       <c r="C69" s="113" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D69" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="135">
       <c r="A70" s="113" t="s">
+        <v>453</v>
+      </c>
+      <c r="B70" s="113" t="s">
         <v>454</v>
       </c>
-      <c r="B70" s="113" t="s">
+      <c r="C70" s="113" t="s">
+        <v>452</v>
+      </c>
+      <c r="D70" s="113" t="s">
         <v>455</v>
-      </c>
-      <c r="C70" s="113" t="s">
-        <v>453</v>
-      </c>
-      <c r="D70" s="113" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="120">
       <c r="A71" s="113" t="s">
+        <v>457</v>
+      </c>
+      <c r="B71" s="113" t="s">
         <v>458</v>
       </c>
-      <c r="B71" s="113" t="s">
-        <v>459</v>
-      </c>
       <c r="C71" s="113" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D71" s="113" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="75">
       <c r="A72" s="113" t="s">
+        <v>460</v>
+      </c>
+      <c r="B72" s="113" t="s">
         <v>461</v>
       </c>
-      <c r="B72" s="113" t="s">
-        <v>462</v>
-      </c>
       <c r="C72" s="113" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D72" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="75">
       <c r="A73" s="113" t="s">
+        <v>463</v>
+      </c>
+      <c r="B73" s="113" t="s">
         <v>464</v>
       </c>
-      <c r="B73" s="113" t="s">
-        <v>465</v>
-      </c>
       <c r="C73" s="113" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D73" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="120">
       <c r="A74" s="113" t="s">
+        <v>466</v>
+      </c>
+      <c r="B74" s="113" t="s">
         <v>467</v>
       </c>
-      <c r="B74" s="113" t="s">
-        <v>468</v>
-      </c>
       <c r="C74" s="113" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D74" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="75">
       <c r="A75" s="113" t="s">
+        <v>469</v>
+      </c>
+      <c r="B75" s="113" t="s">
         <v>470</v>
       </c>
-      <c r="B75" s="113" t="s">
+      <c r="C75" s="113" t="s">
+        <v>468</v>
+      </c>
+      <c r="D75" s="113" t="s">
         <v>471</v>
-      </c>
-      <c r="C75" s="113" t="s">
-        <v>469</v>
-      </c>
-      <c r="D75" s="113" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="60">
       <c r="A76" s="113" t="s">
+        <v>473</v>
+      </c>
+      <c r="B76" s="113" t="s">
         <v>474</v>
       </c>
-      <c r="B76" s="113" t="s">
+      <c r="C76" s="113" t="s">
+        <v>472</v>
+      </c>
+      <c r="D76" s="113" t="s">
         <v>475</v>
-      </c>
-      <c r="C76" s="113" t="s">
-        <v>473</v>
-      </c>
-      <c r="D76" s="113" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="45">
       <c r="A77" s="113" t="s">
+        <v>477</v>
+      </c>
+      <c r="B77" s="113" t="s">
         <v>478</v>
       </c>
-      <c r="B77" s="113" t="s">
-        <v>479</v>
-      </c>
       <c r="C77" s="113" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D77" s="113" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="30">
       <c r="A78" s="113" t="s">
+        <v>480</v>
+      </c>
+      <c r="B78" s="113" t="s">
         <v>481</v>
       </c>
-      <c r="B78" s="113" t="s">
-        <v>482</v>
-      </c>
       <c r="C78" s="113" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D78" s="113" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="30">
       <c r="A79" s="113" t="s">
+        <v>483</v>
+      </c>
+      <c r="B79" s="113" t="s">
         <v>484</v>
       </c>
-      <c r="B79" s="113" t="s">
-        <v>485</v>
-      </c>
       <c r="C79" s="113" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D79" s="113" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="45">
       <c r="A80" s="113" t="s">
+        <v>486</v>
+      </c>
+      <c r="B80" s="113" t="s">
         <v>487</v>
       </c>
-      <c r="B80" s="113" t="s">
-        <v>488</v>
-      </c>
       <c r="C80" s="113" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D80" s="113" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="75">
       <c r="A81" s="113" t="s">
+        <v>489</v>
+      </c>
+      <c r="B81" s="113" t="s">
         <v>490</v>
       </c>
-      <c r="B81" s="113" t="s">
+      <c r="C81" s="113" t="s">
+        <v>488</v>
+      </c>
+      <c r="D81" s="113" t="s">
         <v>491</v>
-      </c>
-      <c r="C81" s="113" t="s">
-        <v>489</v>
-      </c>
-      <c r="D81" s="113" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="60">
       <c r="A82" s="113" t="s">
+        <v>493</v>
+      </c>
+      <c r="B82" s="113" t="s">
         <v>494</v>
       </c>
-      <c r="B82" s="113" t="s">
+      <c r="C82" s="113" t="s">
+        <v>492</v>
+      </c>
+      <c r="D82" s="113" t="s">
         <v>495</v>
-      </c>
-      <c r="C82" s="113" t="s">
-        <v>493</v>
-      </c>
-      <c r="D82" s="113" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="45">
       <c r="A83" s="113" t="s">
+        <v>497</v>
+      </c>
+      <c r="B83" s="113" t="s">
         <v>498</v>
       </c>
-      <c r="B83" s="113" t="s">
+      <c r="C83" s="113" t="s">
+        <v>496</v>
+      </c>
+      <c r="D83" s="113" t="s">
         <v>499</v>
-      </c>
-      <c r="C83" s="113" t="s">
-        <v>497</v>
-      </c>
-      <c r="D83" s="113" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="105">
       <c r="A84" s="113" t="s">
+        <v>501</v>
+      </c>
+      <c r="B84" s="113" t="s">
         <v>502</v>
       </c>
-      <c r="B84" s="113" t="s">
+      <c r="C84" s="113" t="s">
+        <v>500</v>
+      </c>
+      <c r="D84" s="113" t="s">
         <v>503</v>
-      </c>
-      <c r="C84" s="113" t="s">
-        <v>501</v>
-      </c>
-      <c r="D84" s="113" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="30">
       <c r="A85" s="113" t="s">
+        <v>505</v>
+      </c>
+      <c r="B85" s="113" t="s">
         <v>506</v>
       </c>
-      <c r="B85" s="113" t="s">
-        <v>507</v>
-      </c>
       <c r="C85" s="113" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D85" s="113" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="60">
       <c r="A86" s="113" t="s">
+        <v>508</v>
+      </c>
+      <c r="B86" s="113" t="s">
         <v>509</v>
       </c>
-      <c r="B86" s="113" t="s">
+      <c r="C86" s="113" t="s">
+        <v>507</v>
+      </c>
+      <c r="D86" s="113" t="s">
         <v>510</v>
-      </c>
-      <c r="C86" s="113" t="s">
-        <v>508</v>
-      </c>
-      <c r="D86" s="113" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="90">
       <c r="A87" s="113" t="s">
+        <v>512</v>
+      </c>
+      <c r="B87" s="113" t="s">
         <v>513</v>
       </c>
-      <c r="B87" s="113" t="s">
-        <v>514</v>
-      </c>
       <c r="C87" s="113" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D87" s="113" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="45">
       <c r="A88" s="113" t="s">
+        <v>515</v>
+      </c>
+      <c r="B88" s="113" t="s">
         <v>516</v>
       </c>
-      <c r="B88" s="113" t="s">
-        <v>517</v>
-      </c>
       <c r="C88" s="113" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D88" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="45">
       <c r="A89" s="113" t="s">
+        <v>518</v>
+      </c>
+      <c r="B89" s="113" t="s">
         <v>519</v>
       </c>
-      <c r="B89" s="113" t="s">
-        <v>520</v>
-      </c>
       <c r="C89" s="113" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D89" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="45">
       <c r="A90" s="113" t="s">
+        <v>521</v>
+      </c>
+      <c r="B90" s="113" t="s">
         <v>522</v>
       </c>
-      <c r="B90" s="113" t="s">
-        <v>523</v>
-      </c>
       <c r="C90" s="113" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D90" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="30">
       <c r="A91" s="113" t="s">
+        <v>524</v>
+      </c>
+      <c r="B91" s="113" t="s">
         <v>525</v>
       </c>
-      <c r="B91" s="113" t="s">
-        <v>526</v>
-      </c>
       <c r="C91" s="113" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D91" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="30">
       <c r="A92" s="113" t="s">
+        <v>527</v>
+      </c>
+      <c r="B92" s="113" t="s">
         <v>528</v>
       </c>
-      <c r="B92" s="113" t="s">
-        <v>529</v>
-      </c>
       <c r="C92" s="113" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D92" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="45">
       <c r="A93" s="113" t="s">
+        <v>530</v>
+      </c>
+      <c r="B93" s="113" t="s">
         <v>531</v>
       </c>
-      <c r="B93" s="113" t="s">
-        <v>532</v>
-      </c>
       <c r="C93" s="113" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D93" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="30">
       <c r="A94" s="113" t="s">
+        <v>533</v>
+      </c>
+      <c r="B94" s="113" t="s">
         <v>534</v>
       </c>
-      <c r="B94" s="113" t="s">
-        <v>535</v>
-      </c>
       <c r="C94" s="113" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D94" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="30">
       <c r="A95" s="113" t="s">
+        <v>536</v>
+      </c>
+      <c r="B95" s="113" t="s">
         <v>537</v>
       </c>
-      <c r="B95" s="113" t="s">
-        <v>538</v>
-      </c>
       <c r="C95" s="113" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D95" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="45">
       <c r="A96" s="113" t="s">
+        <v>539</v>
+      </c>
+      <c r="B96" s="113" t="s">
         <v>540</v>
       </c>
-      <c r="B96" s="113" t="s">
-        <v>541</v>
-      </c>
       <c r="C96" s="113" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D96" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="45">
       <c r="A97" s="113" t="s">
+        <v>542</v>
+      </c>
+      <c r="B97" s="113" t="s">
         <v>543</v>
       </c>
-      <c r="B97" s="113" t="s">
-        <v>544</v>
-      </c>
       <c r="C97" s="113" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D97" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="30">
       <c r="A98" s="113" t="s">
+        <v>545</v>
+      </c>
+      <c r="B98" s="113" t="s">
         <v>546</v>
       </c>
-      <c r="B98" s="113" t="s">
-        <v>547</v>
-      </c>
       <c r="C98" s="113" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D98" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="45">
       <c r="A99" s="113" t="s">
+        <v>548</v>
+      </c>
+      <c r="B99" s="113" t="s">
         <v>549</v>
       </c>
-      <c r="B99" s="113" t="s">
-        <v>550</v>
-      </c>
       <c r="C99" s="113" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D99" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="90">
       <c r="A100" s="113" t="s">
+        <v>551</v>
+      </c>
+      <c r="B100" s="113" t="s">
         <v>552</v>
       </c>
-      <c r="B100" s="113" t="s">
-        <v>553</v>
-      </c>
       <c r="C100" s="113" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D100" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="45">
       <c r="A101" s="113" t="s">
+        <v>554</v>
+      </c>
+      <c r="B101" s="113" t="s">
         <v>555</v>
       </c>
-      <c r="B101" s="113" t="s">
-        <v>556</v>
-      </c>
       <c r="C101" s="113" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D101" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="90">
       <c r="A102" s="113" t="s">
+        <v>557</v>
+      </c>
+      <c r="B102" s="113" t="s">
         <v>558</v>
       </c>
-      <c r="B102" s="113" t="s">
-        <v>559</v>
-      </c>
       <c r="C102" s="113" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D102" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="45">
       <c r="A103" s="113" t="s">
+        <v>560</v>
+      </c>
+      <c r="B103" s="113" t="s">
         <v>561</v>
       </c>
-      <c r="B103" s="113" t="s">
-        <v>562</v>
-      </c>
       <c r="C103" s="113" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D103" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="45">
       <c r="A104" s="113" t="s">
+        <v>563</v>
+      </c>
+      <c r="B104" s="113" t="s">
         <v>564</v>
       </c>
-      <c r="B104" s="113" t="s">
-        <v>565</v>
-      </c>
       <c r="C104" s="113" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D104" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="45">
       <c r="A105" s="113" t="s">
+        <v>566</v>
+      </c>
+      <c r="B105" s="113" t="s">
         <v>567</v>
       </c>
-      <c r="B105" s="113" t="s">
-        <v>568</v>
-      </c>
       <c r="C105" s="113" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D105" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="30">
       <c r="A106" s="113" t="s">
+        <v>569</v>
+      </c>
+      <c r="B106" s="113" t="s">
         <v>570</v>
       </c>
-      <c r="B106" s="113" t="s">
-        <v>571</v>
-      </c>
       <c r="C106" s="113" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D106" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="60">
       <c r="A107" s="113" t="s">
+        <v>572</v>
+      </c>
+      <c r="B107" s="113" t="s">
         <v>573</v>
       </c>
-      <c r="B107" s="113" t="s">
-        <v>574</v>
-      </c>
       <c r="C107" s="113" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D107" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="30">
       <c r="A108" s="113" t="s">
+        <v>575</v>
+      </c>
+      <c r="B108" s="113" t="s">
         <v>576</v>
       </c>
-      <c r="B108" s="113" t="s">
-        <v>577</v>
-      </c>
       <c r="C108" s="113" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D108" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="60">
       <c r="A109" s="113" t="s">
+        <v>578</v>
+      </c>
+      <c r="B109" s="113" t="s">
         <v>579</v>
       </c>
-      <c r="B109" s="113" t="s">
-        <v>580</v>
-      </c>
       <c r="C109" s="113" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D109" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="45">
       <c r="A110" s="113" t="s">
+        <v>581</v>
+      </c>
+      <c r="B110" s="113" t="s">
         <v>582</v>
       </c>
-      <c r="B110" s="113" t="s">
-        <v>583</v>
-      </c>
       <c r="C110" s="113" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D110" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="60">
       <c r="A111" s="113" t="s">
+        <v>584</v>
+      </c>
+      <c r="B111" s="113" t="s">
         <v>585</v>
       </c>
-      <c r="B111" s="113" t="s">
+      <c r="C111" s="113" t="s">
+        <v>583</v>
+      </c>
+      <c r="D111" s="113" t="s">
         <v>586</v>
-      </c>
-      <c r="C111" s="113" t="s">
-        <v>584</v>
-      </c>
-      <c r="D111" s="113" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="45">
       <c r="A112" s="113" t="s">
+        <v>588</v>
+      </c>
+      <c r="B112" s="113" t="s">
         <v>589</v>
       </c>
-      <c r="B112" s="113" t="s">
+      <c r="C112" s="113" t="s">
+        <v>587</v>
+      </c>
+      <c r="D112" s="113" t="s">
         <v>590</v>
-      </c>
-      <c r="C112" s="113" t="s">
-        <v>588</v>
-      </c>
-      <c r="D112" s="113" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="75">
       <c r="A113" s="113" t="s">
+        <v>592</v>
+      </c>
+      <c r="B113" s="113" t="s">
         <v>593</v>
       </c>
-      <c r="B113" s="113" t="s">
-        <v>594</v>
-      </c>
       <c r="C113" s="113" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D113" s="113" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="60">
       <c r="A114" s="113" t="s">
+        <v>595</v>
+      </c>
+      <c r="B114" s="113" t="s">
         <v>596</v>
       </c>
-      <c r="B114" s="113" t="s">
+      <c r="C114" s="113" t="s">
+        <v>594</v>
+      </c>
+      <c r="D114" s="113" t="s">
         <v>597</v>
-      </c>
-      <c r="C114" s="113" t="s">
-        <v>595</v>
-      </c>
-      <c r="D114" s="113" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="45">
       <c r="A115" s="113" t="s">
+        <v>599</v>
+      </c>
+      <c r="B115" s="113" t="s">
         <v>600</v>
       </c>
-      <c r="B115" s="113" t="s">
-        <v>601</v>
-      </c>
       <c r="C115" s="113" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D115" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="90">
       <c r="A116" s="113" t="s">
+        <v>602</v>
+      </c>
+      <c r="B116" s="113" t="s">
         <v>603</v>
       </c>
-      <c r="B116" s="113" t="s">
-        <v>604</v>
-      </c>
       <c r="C116" s="113" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D116" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="105">
       <c r="A117" s="113" t="s">
+        <v>605</v>
+      </c>
+      <c r="B117" s="113" t="s">
         <v>606</v>
       </c>
-      <c r="B117" s="113" t="s">
-        <v>607</v>
-      </c>
       <c r="C117" s="113" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D117" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="120">
       <c r="A118" s="113" t="s">
+        <v>608</v>
+      </c>
+      <c r="B118" s="113" t="s">
         <v>609</v>
       </c>
-      <c r="B118" s="113" t="s">
+      <c r="C118" s="113" t="s">
+        <v>607</v>
+      </c>
+      <c r="D118" s="113" t="s">
         <v>610</v>
-      </c>
-      <c r="C118" s="113" t="s">
-        <v>608</v>
-      </c>
-      <c r="D118" s="113" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="105">
       <c r="A119" s="113" t="s">
+        <v>612</v>
+      </c>
+      <c r="B119" s="113" t="s">
         <v>613</v>
       </c>
-      <c r="B119" s="113" t="s">
+      <c r="C119" s="113" t="s">
+        <v>611</v>
+      </c>
+      <c r="D119" s="113" t="s">
         <v>614</v>
-      </c>
-      <c r="C119" s="113" t="s">
-        <v>612</v>
-      </c>
-      <c r="D119" s="113" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="75">
       <c r="A120" s="113" t="s">
+        <v>616</v>
+      </c>
+      <c r="B120" s="113" t="s">
         <v>617</v>
       </c>
-      <c r="B120" s="113" t="s">
+      <c r="C120" s="113" t="s">
+        <v>615</v>
+      </c>
+      <c r="D120" s="113" t="s">
         <v>618</v>
-      </c>
-      <c r="C120" s="113" t="s">
-        <v>616</v>
-      </c>
-      <c r="D120" s="113" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="30">
       <c r="A121" s="113" t="s">
+        <v>620</v>
+      </c>
+      <c r="B121" s="113" t="s">
         <v>621</v>
       </c>
-      <c r="B121" s="113" t="s">
+      <c r="C121" s="113" t="s">
+        <v>619</v>
+      </c>
+      <c r="D121" s="113" t="s">
         <v>622</v>
-      </c>
-      <c r="C121" s="113" t="s">
-        <v>620</v>
-      </c>
-      <c r="D121" s="113" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="30">
       <c r="A122" s="113" t="s">
+        <v>624</v>
+      </c>
+      <c r="B122" s="113" t="s">
         <v>625</v>
       </c>
-      <c r="B122" s="113" t="s">
-        <v>626</v>
-      </c>
       <c r="C122" s="113" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D122" s="113" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="90">
       <c r="A123" s="113" t="s">
+        <v>627</v>
+      </c>
+      <c r="B123" s="113" t="s">
         <v>628</v>
       </c>
-      <c r="B123" s="113" t="s">
-        <v>629</v>
-      </c>
       <c r="C123" s="113" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D123" s="113" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="105">
       <c r="A124" s="113" t="s">
+        <v>630</v>
+      </c>
+      <c r="B124" s="113" t="s">
         <v>631</v>
       </c>
-      <c r="B124" s="113" t="s">
-        <v>632</v>
-      </c>
       <c r="C124" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D124" s="113" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="90">
       <c r="A125" s="113" t="s">
+        <v>633</v>
+      </c>
+      <c r="B125" s="113" t="s">
         <v>634</v>
       </c>
-      <c r="B125" s="113" t="s">
-        <v>635</v>
-      </c>
       <c r="C125" s="113" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D125" s="113" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="60">
       <c r="A126" s="113" t="s">
+        <v>636</v>
+      </c>
+      <c r="B126" s="113" t="s">
         <v>637</v>
       </c>
-      <c r="B126" s="113" t="s">
-        <v>638</v>
-      </c>
       <c r="C126" s="113" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D126" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="60">
       <c r="A127" s="113" t="s">
+        <v>639</v>
+      </c>
+      <c r="B127" s="113" t="s">
         <v>640</v>
       </c>
-      <c r="B127" s="113" t="s">
-        <v>641</v>
-      </c>
       <c r="C127" s="113" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D127" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="60">
       <c r="A128" s="113" t="s">
+        <v>642</v>
+      </c>
+      <c r="B128" s="113" t="s">
         <v>643</v>
       </c>
-      <c r="B128" s="113" t="s">
-        <v>644</v>
-      </c>
       <c r="C128" s="113" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D128" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="60">
       <c r="A129" s="113" t="s">
+        <v>645</v>
+      </c>
+      <c r="B129" s="113" t="s">
         <v>646</v>
       </c>
-      <c r="B129" s="113" t="s">
-        <v>647</v>
-      </c>
       <c r="C129" s="113" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D129" s="113" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="120">
       <c r="A130" s="113" t="s">
+        <v>648</v>
+      </c>
+      <c r="B130" s="113" t="s">
         <v>649</v>
       </c>
-      <c r="B130" s="113" t="s">
+      <c r="C130" s="113" t="s">
+        <v>647</v>
+      </c>
+      <c r="D130" s="113" t="s">
         <v>650</v>
-      </c>
-      <c r="C130" s="113" t="s">
-        <v>648</v>
-      </c>
-      <c r="D130" s="113" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="90">
       <c r="A131" s="113" t="s">
+        <v>652</v>
+      </c>
+      <c r="B131" s="113" t="s">
         <v>653</v>
       </c>
-      <c r="B131" s="113" t="s">
+      <c r="C131" s="113" t="s">
+        <v>651</v>
+      </c>
+      <c r="D131" s="113" t="s">
         <v>654</v>
-      </c>
-      <c r="C131" s="113" t="s">
-        <v>652</v>
-      </c>
-      <c r="D131" s="113" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="75">
       <c r="A132" s="113" t="s">
+        <v>656</v>
+      </c>
+      <c r="B132" s="113" t="s">
         <v>657</v>
       </c>
-      <c r="B132" s="113" t="s">
+      <c r="C132" s="113" t="s">
+        <v>655</v>
+      </c>
+      <c r="D132" s="113" t="s">
         <v>658</v>
-      </c>
-      <c r="C132" s="113" t="s">
-        <v>656</v>
-      </c>
-      <c r="D132" s="113" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="75">
       <c r="A133" s="113" t="s">
+        <v>660</v>
+      </c>
+      <c r="B133" s="113" t="s">
         <v>661</v>
       </c>
-      <c r="B133" s="113" t="s">
-        <v>662</v>
-      </c>
       <c r="C133" s="113" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D133" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="75">
       <c r="A134" s="113" t="s">
+        <v>663</v>
+      </c>
+      <c r="B134" s="113" t="s">
         <v>664</v>
       </c>
-      <c r="B134" s="113" t="s">
-        <v>665</v>
-      </c>
       <c r="C134" s="113" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D134" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="60">
       <c r="A135" s="113" t="s">
+        <v>666</v>
+      </c>
+      <c r="B135" s="113" t="s">
         <v>667</v>
       </c>
-      <c r="B135" s="113" t="s">
-        <v>668</v>
-      </c>
       <c r="C135" s="113" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D135" s="113" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="60">
       <c r="A136" s="113" t="s">
+        <v>669</v>
+      </c>
+      <c r="B136" s="113" t="s">
         <v>670</v>
       </c>
-      <c r="B136" s="113" t="s">
+      <c r="C136" s="113" t="s">
+        <v>668</v>
+      </c>
+      <c r="D136" s="113" t="s">
         <v>671</v>
-      </c>
-      <c r="C136" s="113" t="s">
-        <v>669</v>
-      </c>
-      <c r="D136" s="113" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="60">
       <c r="A137" s="113" t="s">
+        <v>673</v>
+      </c>
+      <c r="B137" s="113" t="s">
         <v>674</v>
       </c>
-      <c r="B137" s="113" t="s">
-        <v>675</v>
-      </c>
       <c r="C137" s="113" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D137" s="113" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="30">
       <c r="A138" s="113" t="s">
+        <v>676</v>
+      </c>
+      <c r="B138" s="113" t="s">
         <v>677</v>
       </c>
-      <c r="B138" s="113" t="s">
-        <v>678</v>
-      </c>
       <c r="C138" s="113" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D138" s="113" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="45">
       <c r="A139" s="113" t="s">
+        <v>679</v>
+      </c>
+      <c r="B139" s="113" t="s">
         <v>680</v>
       </c>
-      <c r="B139" s="113" t="s">
+      <c r="C139" s="113" t="s">
+        <v>678</v>
+      </c>
+      <c r="D139" s="113" t="s">
         <v>681</v>
-      </c>
-      <c r="C139" s="113" t="s">
-        <v>679</v>
-      </c>
-      <c r="D139" s="113" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="75">
       <c r="A140" s="113" t="s">
+        <v>683</v>
+      </c>
+      <c r="B140" s="113" t="s">
         <v>684</v>
       </c>
-      <c r="B140" s="113" t="s">
+      <c r="C140" s="113" t="s">
+        <v>682</v>
+      </c>
+      <c r="D140" s="113" t="s">
         <v>685</v>
-      </c>
-      <c r="C140" s="113" t="s">
-        <v>683</v>
-      </c>
-      <c r="D140" s="113" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="60">
       <c r="A141" s="113" t="s">
+        <v>687</v>
+      </c>
+      <c r="B141" s="113" t="s">
         <v>688</v>
       </c>
-      <c r="B141" s="113" t="s">
-        <v>689</v>
-      </c>
       <c r="C141" s="113" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D141" s="113" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="45">
       <c r="A142" s="113" t="s">
+        <v>690</v>
+      </c>
+      <c r="B142" s="113" t="s">
         <v>691</v>
       </c>
-      <c r="B142" s="113" t="s">
-        <v>692</v>
-      </c>
       <c r="C142" s="113" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D142" s="113" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="45">
       <c r="A143" s="113" t="s">
+        <v>693</v>
+      </c>
+      <c r="B143" s="113" t="s">
         <v>694</v>
       </c>
-      <c r="B143" s="113" t="s">
-        <v>695</v>
-      </c>
       <c r="C143" s="113" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D143" s="113" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="75">
       <c r="A144" s="113" t="s">
+        <v>696</v>
+      </c>
+      <c r="B144" s="113" t="s">
         <v>697</v>
       </c>
-      <c r="B144" s="113" t="s">
-        <v>698</v>
-      </c>
       <c r="C144" s="113" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D144" s="113" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="30">
       <c r="A145" s="113" t="s">
+        <v>699</v>
+      </c>
+      <c r="B145" s="113" t="s">
         <v>700</v>
       </c>
-      <c r="B145" s="113" t="s">
-        <v>701</v>
-      </c>
       <c r="C145" s="113" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D145" s="113" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="30">
       <c r="A146" s="113" t="s">
+        <v>702</v>
+      </c>
+      <c r="B146" s="113" t="s">
         <v>703</v>
       </c>
-      <c r="B146" s="113" t="s">
-        <v>704</v>
-      </c>
       <c r="C146" s="113" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D146" s="113" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="45">
       <c r="A147" s="113" t="s">
+        <v>705</v>
+      </c>
+      <c r="B147" s="113" t="s">
         <v>706</v>
       </c>
-      <c r="B147" s="113" t="s">
-        <v>707</v>
-      </c>
       <c r="C147" s="113" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D147" s="113" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="45">
       <c r="A148" s="113" t="s">
+        <v>708</v>
+      </c>
+      <c r="B148" s="113" t="s">
         <v>709</v>
       </c>
-      <c r="B148" s="113" t="s">
-        <v>710</v>
-      </c>
       <c r="C148" s="113" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D148" s="113" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="75">
       <c r="A149" s="113" t="s">
+        <v>711</v>
+      </c>
+      <c r="B149" s="113" t="s">
         <v>712</v>
       </c>
-      <c r="B149" s="113" t="s">
-        <v>713</v>
-      </c>
       <c r="C149" s="113" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D149" s="113" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="75">
       <c r="A150" s="113" t="s">
+        <v>714</v>
+      </c>
+      <c r="B150" s="113" t="s">
         <v>715</v>
       </c>
-      <c r="B150" s="113" t="s">
-        <v>716</v>
-      </c>
       <c r="C150" s="113" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D150" s="113" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="75">
       <c r="A151" s="113" t="s">
+        <v>717</v>
+      </c>
+      <c r="B151" s="113" t="s">
         <v>718</v>
       </c>
-      <c r="B151" s="113" t="s">
-        <v>719</v>
-      </c>
       <c r="C151" s="113" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D151" s="113" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="45">
       <c r="A152" s="113" t="s">
+        <v>720</v>
+      </c>
+      <c r="B152" s="113" t="s">
         <v>721</v>
       </c>
-      <c r="B152" s="113" t="s">
-        <v>722</v>
-      </c>
       <c r="C152" s="113" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D152" s="113" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="60">
       <c r="A153" s="113" t="s">
+        <v>723</v>
+      </c>
+      <c r="B153" s="113" t="s">
         <v>724</v>
       </c>
-      <c r="B153" s="113" t="s">
-        <v>725</v>
-      </c>
       <c r="C153" s="113" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D153" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="30">
       <c r="A154" s="113" t="s">
+        <v>726</v>
+      </c>
+      <c r="B154" s="113" t="s">
         <v>727</v>
       </c>
-      <c r="B154" s="113" t="s">
-        <v>728</v>
-      </c>
       <c r="C154" s="113" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D154" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="30">
       <c r="A155" s="113" t="s">
+        <v>729</v>
+      </c>
+      <c r="B155" s="113" t="s">
         <v>730</v>
       </c>
-      <c r="B155" s="113" t="s">
-        <v>731</v>
-      </c>
       <c r="C155" s="113" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D155" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="180">
       <c r="A156" s="113" t="s">
+        <v>732</v>
+      </c>
+      <c r="B156" s="113" t="s">
         <v>733</v>
       </c>
-      <c r="B156" s="113" t="s">
-        <v>734</v>
-      </c>
       <c r="C156" s="113" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D156" s="113" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="45">
       <c r="A157" s="113" t="s">
+        <v>735</v>
+      </c>
+      <c r="B157" s="113" t="s">
         <v>736</v>
       </c>
-      <c r="B157" s="113" t="s">
-        <v>737</v>
-      </c>
       <c r="C157" s="113" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D157" s="113" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="45">
       <c r="A158" s="113" t="s">
+        <v>738</v>
+      </c>
+      <c r="B158" s="113" t="s">
         <v>739</v>
       </c>
-      <c r="B158" s="113" t="s">
+      <c r="C158" s="113" t="s">
+        <v>737</v>
+      </c>
+      <c r="D158" s="113" t="s">
         <v>740</v>
-      </c>
-      <c r="C158" s="113" t="s">
-        <v>738</v>
-      </c>
-      <c r="D158" s="113" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="60">
       <c r="A159" s="113" t="s">
+        <v>742</v>
+      </c>
+      <c r="B159" s="113" t="s">
         <v>743</v>
       </c>
-      <c r="B159" s="113" t="s">
-        <v>744</v>
-      </c>
       <c r="C159" s="113" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D159" s="113" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="60">
       <c r="A160" s="113" t="s">
+        <v>745</v>
+      </c>
+      <c r="B160" s="113" t="s">
         <v>746</v>
       </c>
-      <c r="B160" s="113" t="s">
+      <c r="C160" s="113" t="s">
+        <v>744</v>
+      </c>
+      <c r="D160" s="113" t="s">
         <v>747</v>
-      </c>
-      <c r="C160" s="113" t="s">
-        <v>745</v>
-      </c>
-      <c r="D160" s="113" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="45">
       <c r="A161" s="113" t="s">
+        <v>749</v>
+      </c>
+      <c r="B161" s="113" t="s">
         <v>750</v>
       </c>
-      <c r="B161" s="113" t="s">
-        <v>751</v>
-      </c>
       <c r="C161" s="113" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D161" s="113" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="45">
       <c r="A162" s="113" t="s">
+        <v>752</v>
+      </c>
+      <c r="B162" s="113" t="s">
         <v>753</v>
       </c>
-      <c r="B162" s="113" t="s">
-        <v>754</v>
-      </c>
       <c r="C162" s="113" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D162" s="113" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="75">
       <c r="A163" s="113" t="s">
+        <v>755</v>
+      </c>
+      <c r="B163" s="113" t="s">
         <v>756</v>
       </c>
-      <c r="B163" s="113" t="s">
+      <c r="C163" s="113" t="s">
+        <v>754</v>
+      </c>
+      <c r="D163" s="113" t="s">
         <v>757</v>
-      </c>
-      <c r="C163" s="113" t="s">
-        <v>755</v>
-      </c>
-      <c r="D163" s="113" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="60">
       <c r="A164" s="113" t="s">
+        <v>759</v>
+      </c>
+      <c r="B164" s="113" t="s">
         <v>760</v>
       </c>
-      <c r="B164" s="113" t="s">
-        <v>761</v>
-      </c>
       <c r="C164" s="113" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D164" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="120">
       <c r="A165" s="113" t="s">
+        <v>762</v>
+      </c>
+      <c r="B165" s="113" t="s">
         <v>763</v>
       </c>
-      <c r="B165" s="113" t="s">
+      <c r="C165" s="113" t="s">
+        <v>761</v>
+      </c>
+      <c r="D165" s="113" t="s">
         <v>764</v>
-      </c>
-      <c r="C165" s="113" t="s">
-        <v>762</v>
-      </c>
-      <c r="D165" s="113" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="45">
       <c r="A166" s="113" t="s">
+        <v>766</v>
+      </c>
+      <c r="B166" s="113" t="s">
         <v>767</v>
       </c>
-      <c r="B166" s="113" t="s">
-        <v>768</v>
-      </c>
       <c r="C166" s="113" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D166" s="113" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="30">
       <c r="A167" s="113" t="s">
+        <v>769</v>
+      </c>
+      <c r="B167" s="113" t="s">
         <v>770</v>
       </c>
-      <c r="B167" s="113" t="s">
-        <v>771</v>
-      </c>
       <c r="C167" s="113" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D167" s="113" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="30">
       <c r="A168" s="113" t="s">
+        <v>772</v>
+      </c>
+      <c r="B168" s="113" t="s">
         <v>773</v>
       </c>
-      <c r="B168" s="113" t="s">
-        <v>774</v>
-      </c>
       <c r="C168" s="113" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D168" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="45">
       <c r="A169" s="113" t="s">
+        <v>775</v>
+      </c>
+      <c r="B169" s="113" t="s">
         <v>776</v>
       </c>
-      <c r="B169" s="113" t="s">
-        <v>777</v>
-      </c>
       <c r="C169" s="113" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D169" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="30">
       <c r="A170" s="113" t="s">
+        <v>778</v>
+      </c>
+      <c r="B170" s="113" t="s">
         <v>779</v>
       </c>
-      <c r="B170" s="113" t="s">
-        <v>780</v>
-      </c>
       <c r="C170" s="113" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D170" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="90">
       <c r="A171" s="113" t="s">
+        <v>781</v>
+      </c>
+      <c r="B171" s="113" t="s">
         <v>782</v>
       </c>
-      <c r="B171" s="113" t="s">
+      <c r="C171" s="113" t="s">
+        <v>780</v>
+      </c>
+      <c r="D171" s="113" t="s">
         <v>783</v>
-      </c>
-      <c r="C171" s="113" t="s">
-        <v>781</v>
-      </c>
-      <c r="D171" s="113" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="90">
       <c r="A172" s="113" t="s">
+        <v>785</v>
+      </c>
+      <c r="B172" s="113" t="s">
         <v>786</v>
       </c>
-      <c r="B172" s="113" t="s">
+      <c r="C172" s="113" t="s">
+        <v>784</v>
+      </c>
+      <c r="D172" s="113" t="s">
         <v>787</v>
-      </c>
-      <c r="C172" s="113" t="s">
-        <v>785</v>
-      </c>
-      <c r="D172" s="113" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="60">
       <c r="A173" s="113" t="s">
+        <v>789</v>
+      </c>
+      <c r="B173" s="113" t="s">
         <v>790</v>
       </c>
-      <c r="B173" s="113" t="s">
+      <c r="C173" s="113" t="s">
+        <v>788</v>
+      </c>
+      <c r="D173" s="113" t="s">
         <v>791</v>
-      </c>
-      <c r="C173" s="113" t="s">
-        <v>789</v>
-      </c>
-      <c r="D173" s="113" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="45">
       <c r="A174" s="113" t="s">
+        <v>793</v>
+      </c>
+      <c r="B174" s="113" t="s">
         <v>794</v>
       </c>
-      <c r="B174" s="113" t="s">
-        <v>795</v>
-      </c>
       <c r="C174" s="113" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D174" s="113" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="60">
       <c r="A175" s="113" t="s">
+        <v>796</v>
+      </c>
+      <c r="B175" s="113" t="s">
         <v>797</v>
       </c>
-      <c r="B175" s="113" t="s">
+      <c r="C175" s="113" t="s">
+        <v>795</v>
+      </c>
+      <c r="D175" s="113" t="s">
         <v>798</v>
-      </c>
-      <c r="C175" s="113" t="s">
-        <v>796</v>
-      </c>
-      <c r="D175" s="113" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="60">
       <c r="A176" s="113" t="s">
+        <v>800</v>
+      </c>
+      <c r="B176" s="113" t="s">
         <v>801</v>
       </c>
-      <c r="B176" s="113" t="s">
-        <v>802</v>
-      </c>
       <c r="C176" s="113" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D176" s="113" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="60">
       <c r="A177" s="113" t="s">
+        <v>803</v>
+      </c>
+      <c r="B177" s="113" t="s">
         <v>804</v>
       </c>
-      <c r="B177" s="113" t="s">
-        <v>805</v>
-      </c>
       <c r="C177" s="113" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D177" s="113" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="60">
       <c r="A178" s="113" t="s">
+        <v>806</v>
+      </c>
+      <c r="B178" s="113" t="s">
         <v>807</v>
       </c>
-      <c r="B178" s="113" t="s">
+      <c r="C178" s="113" t="s">
+        <v>805</v>
+      </c>
+      <c r="D178" s="113" t="s">
         <v>808</v>
-      </c>
-      <c r="C178" s="113" t="s">
-        <v>806</v>
-      </c>
-      <c r="D178" s="113" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="45">
       <c r="A179" s="113" t="s">
+        <v>810</v>
+      </c>
+      <c r="B179" s="113" t="s">
         <v>811</v>
       </c>
-      <c r="B179" s="113" t="s">
+      <c r="C179" s="113" t="s">
+        <v>809</v>
+      </c>
+      <c r="D179" s="113" t="s">
         <v>812</v>
-      </c>
-      <c r="C179" s="113" t="s">
-        <v>810</v>
-      </c>
-      <c r="D179" s="113" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="45">
       <c r="A180" s="113" t="s">
+        <v>814</v>
+      </c>
+      <c r="B180" s="113" t="s">
         <v>815</v>
       </c>
-      <c r="B180" s="113" t="s">
-        <v>816</v>
-      </c>
       <c r="C180" s="113" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D180" s="113" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="30">
       <c r="A181" s="113" t="s">
+        <v>817</v>
+      </c>
+      <c r="B181" s="113" t="s">
         <v>818</v>
       </c>
-      <c r="B181" s="113" t="s">
-        <v>819</v>
-      </c>
       <c r="C181" s="113" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D181" s="113" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="45">
       <c r="A182" s="113" t="s">
+        <v>820</v>
+      </c>
+      <c r="B182" s="113" t="s">
         <v>821</v>
       </c>
-      <c r="B182" s="113" t="s">
-        <v>822</v>
-      </c>
       <c r="C182" s="113" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D182" s="113" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="75">
       <c r="A183" s="113" t="s">
+        <v>823</v>
+      </c>
+      <c r="B183" s="113" t="s">
         <v>824</v>
       </c>
-      <c r="B183" s="113" t="s">
-        <v>825</v>
-      </c>
       <c r="C183" s="113" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D183" s="113" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="60">
       <c r="A184" s="113" t="s">
+        <v>826</v>
+      </c>
+      <c r="B184" s="113" t="s">
         <v>827</v>
       </c>
-      <c r="B184" s="113" t="s">
+      <c r="C184" s="113" t="s">
+        <v>825</v>
+      </c>
+      <c r="D184" s="113" t="s">
         <v>828</v>
-      </c>
-      <c r="C184" s="113" t="s">
-        <v>826</v>
-      </c>
-      <c r="D184" s="113" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="75">
       <c r="A185" s="113" t="s">
+        <v>830</v>
+      </c>
+      <c r="B185" s="113" t="s">
         <v>831</v>
       </c>
-      <c r="B185" s="113" t="s">
-        <v>832</v>
-      </c>
       <c r="C185" s="113" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D185" s="113" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="150">
       <c r="A186" s="113" t="s">
+        <v>833</v>
+      </c>
+      <c r="B186" s="113" t="s">
         <v>834</v>
       </c>
-      <c r="B186" s="113" t="s">
-        <v>835</v>
-      </c>
       <c r="C186" s="113" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D186" s="113" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="30">
       <c r="A187" s="113" t="s">
+        <v>836</v>
+      </c>
+      <c r="B187" s="113" t="s">
         <v>837</v>
       </c>
-      <c r="B187" s="113" t="s">
-        <v>838</v>
-      </c>
       <c r="C187" s="113" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D187" s="113" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="90">
       <c r="A188" s="113" t="s">
+        <v>839</v>
+      </c>
+      <c r="B188" s="113" t="s">
         <v>840</v>
       </c>
-      <c r="B188" s="113" t="s">
-        <v>841</v>
-      </c>
       <c r="C188" s="113" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D188" s="113" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="105">
       <c r="A189" s="113" t="s">
+        <v>842</v>
+      </c>
+      <c r="B189" s="113" t="s">
         <v>843</v>
       </c>
-      <c r="B189" s="113" t="s">
-        <v>844</v>
-      </c>
       <c r="C189" s="113" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D189" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="60">
       <c r="A190" s="113" t="s">
+        <v>845</v>
+      </c>
+      <c r="B190" s="113" t="s">
         <v>846</v>
       </c>
-      <c r="B190" s="113" t="s">
-        <v>847</v>
-      </c>
       <c r="C190" s="113" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D190" s="113" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="45">
       <c r="A191" s="113" t="s">
+        <v>848</v>
+      </c>
+      <c r="B191" s="113" t="s">
         <v>849</v>
       </c>
-      <c r="B191" s="113" t="s">
-        <v>850</v>
-      </c>
       <c r="C191" s="113" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D191" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="45">
       <c r="A192" s="113" t="s">
+        <v>851</v>
+      </c>
+      <c r="B192" s="113" t="s">
         <v>852</v>
       </c>
-      <c r="B192" s="113" t="s">
-        <v>853</v>
-      </c>
       <c r="C192" s="113" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D192" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="45">
       <c r="A193" s="113" t="s">
+        <v>854</v>
+      </c>
+      <c r="B193" s="113" t="s">
         <v>855</v>
       </c>
-      <c r="B193" s="113" t="s">
-        <v>856</v>
-      </c>
       <c r="C193" s="113" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D193" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="45">
       <c r="A194" s="113" t="s">
+        <v>857</v>
+      </c>
+      <c r="B194" s="113" t="s">
         <v>858</v>
       </c>
-      <c r="B194" s="113" t="s">
-        <v>859</v>
-      </c>
       <c r="C194" s="113" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D194" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="75">
       <c r="A195" s="113" t="s">
+        <v>860</v>
+      </c>
+      <c r="B195" s="113" t="s">
         <v>861</v>
       </c>
-      <c r="B195" s="113" t="s">
-        <v>862</v>
-      </c>
       <c r="C195" s="113" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D195" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="30">
       <c r="A196" s="113" t="s">
+        <v>863</v>
+      </c>
+      <c r="B196" s="113" t="s">
         <v>864</v>
       </c>
-      <c r="B196" s="113" t="s">
-        <v>865</v>
-      </c>
       <c r="C196" s="113" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D196" s="113" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="30">
       <c r="A197" s="113" t="s">
+        <v>866</v>
+      </c>
+      <c r="B197" s="113" t="s">
         <v>867</v>
       </c>
-      <c r="B197" s="113" t="s">
-        <v>868</v>
-      </c>
       <c r="C197" s="113" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D197" s="113" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="90">
       <c r="A198" s="113" t="s">
+        <v>869</v>
+      </c>
+      <c r="B198" s="113" t="s">
         <v>870</v>
       </c>
-      <c r="B198" s="113" t="s">
+      <c r="C198" s="113" t="s">
+        <v>868</v>
+      </c>
+      <c r="D198" s="113" t="s">
         <v>871</v>
-      </c>
-      <c r="C198" s="113" t="s">
-        <v>869</v>
-      </c>
-      <c r="D198" s="113" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="60">
       <c r="A199" s="113" t="s">
+        <v>873</v>
+      </c>
+      <c r="B199" s="113" t="s">
         <v>874</v>
       </c>
-      <c r="B199" s="113" t="s">
-        <v>875</v>
-      </c>
       <c r="C199" s="113" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D199" s="113" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="90">
       <c r="A200" s="113" t="s">
+        <v>876</v>
+      </c>
+      <c r="B200" s="113" t="s">
         <v>877</v>
       </c>
-      <c r="B200" s="113" t="s">
+      <c r="C200" s="113" t="s">
+        <v>875</v>
+      </c>
+      <c r="D200" s="113" t="s">
         <v>878</v>
-      </c>
-      <c r="C200" s="113" t="s">
-        <v>876</v>
-      </c>
-      <c r="D200" s="113" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="45">
       <c r="A201" s="113" t="s">
+        <v>880</v>
+      </c>
+      <c r="B201" s="113" t="s">
         <v>881</v>
       </c>
-      <c r="B201" s="113" t="s">
-        <v>882</v>
-      </c>
       <c r="C201" s="113" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D201" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="60">
       <c r="A202" s="113" t="s">
+        <v>883</v>
+      </c>
+      <c r="B202" s="113" t="s">
         <v>884</v>
       </c>
-      <c r="B202" s="113" t="s">
-        <v>885</v>
-      </c>
       <c r="C202" s="113" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D202" s="113" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="75">
       <c r="A203" s="113" t="s">
+        <v>886</v>
+      </c>
+      <c r="B203" s="113" t="s">
         <v>887</v>
       </c>
-      <c r="B203" s="113" t="s">
-        <v>888</v>
-      </c>
       <c r="C203" s="113" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D203" s="113" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="45">
       <c r="A204" s="113" t="s">
+        <v>889</v>
+      </c>
+      <c r="B204" s="113" t="s">
         <v>890</v>
       </c>
-      <c r="B204" s="113" t="s">
-        <v>891</v>
-      </c>
       <c r="C204" s="113" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D204" s="113" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="45">
       <c r="A205" s="113" t="s">
+        <v>892</v>
+      </c>
+      <c r="B205" s="113" t="s">
         <v>893</v>
       </c>
-      <c r="B205" s="113" t="s">
-        <v>894</v>
-      </c>
       <c r="C205" s="113" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D205" s="113" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="75">
       <c r="A206" s="113" t="s">
+        <v>895</v>
+      </c>
+      <c r="B206" s="113" t="s">
         <v>896</v>
       </c>
-      <c r="B206" s="113" t="s">
-        <v>897</v>
-      </c>
       <c r="C206" s="113" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D206" s="113" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="45">
       <c r="A207" s="113" t="s">
+        <v>898</v>
+      </c>
+      <c r="B207" s="113" t="s">
         <v>899</v>
       </c>
-      <c r="B207" s="113" t="s">
-        <v>900</v>
-      </c>
       <c r="C207" s="113" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D207" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="75">
       <c r="A208" s="113" t="s">
+        <v>901</v>
+      </c>
+      <c r="B208" s="113" t="s">
         <v>902</v>
       </c>
-      <c r="B208" s="113" t="s">
-        <v>903</v>
-      </c>
       <c r="C208" s="113" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D208" s="113" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="90">
       <c r="A209" s="113" t="s">
+        <v>904</v>
+      </c>
+      <c r="B209" s="113" t="s">
         <v>905</v>
       </c>
-      <c r="B209" s="113" t="s">
-        <v>906</v>
-      </c>
       <c r="C209" s="113" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D209" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="30">
       <c r="A210" s="113" t="s">
+        <v>907</v>
+      </c>
+      <c r="B210" s="113" t="s">
         <v>908</v>
       </c>
-      <c r="B210" s="113" t="s">
-        <v>909</v>
-      </c>
       <c r="C210" s="113" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D210" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="30">
       <c r="A211" s="113" t="s">
+        <v>910</v>
+      </c>
+      <c r="B211" s="113" t="s">
         <v>911</v>
       </c>
-      <c r="B211" s="113" t="s">
-        <v>912</v>
-      </c>
       <c r="C211" s="113" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D211" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="30">
       <c r="A212" s="113" t="s">
+        <v>913</v>
+      </c>
+      <c r="B212" s="113" t="s">
         <v>914</v>
       </c>
-      <c r="B212" s="113" t="s">
-        <v>915</v>
-      </c>
       <c r="C212" s="113" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D212" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="30">
       <c r="A213" s="113" t="s">
+        <v>916</v>
+      </c>
+      <c r="B213" s="113" t="s">
         <v>917</v>
       </c>
-      <c r="B213" s="113" t="s">
-        <v>918</v>
-      </c>
       <c r="C213" s="113" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D213" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="30">
       <c r="A214" s="113" t="s">
+        <v>919</v>
+      </c>
+      <c r="B214" s="113" t="s">
         <v>920</v>
       </c>
-      <c r="B214" s="113" t="s">
-        <v>921</v>
-      </c>
       <c r="C214" s="113" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D214" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="30">
       <c r="A215" s="113" t="s">
+        <v>922</v>
+      </c>
+      <c r="B215" s="113" t="s">
         <v>923</v>
       </c>
-      <c r="B215" s="113" t="s">
-        <v>924</v>
-      </c>
       <c r="C215" s="113" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D215" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="30">
       <c r="A216" s="113" t="s">
+        <v>925</v>
+      </c>
+      <c r="B216" s="113" t="s">
         <v>926</v>
       </c>
-      <c r="B216" s="113" t="s">
-        <v>927</v>
-      </c>
       <c r="C216" s="113" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D216" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="30">
       <c r="A217" s="113" t="s">
+        <v>928</v>
+      </c>
+      <c r="B217" s="113" t="s">
         <v>929</v>
       </c>
-      <c r="B217" s="113" t="s">
-        <v>930</v>
-      </c>
       <c r="C217" s="113" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D217" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="30">
       <c r="A218" s="113" t="s">
+        <v>931</v>
+      </c>
+      <c r="B218" s="113" t="s">
         <v>932</v>
       </c>
-      <c r="B218" s="113" t="s">
-        <v>933</v>
-      </c>
       <c r="C218" s="113" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D218" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="45">
       <c r="A219" s="113" t="s">
+        <v>934</v>
+      </c>
+      <c r="B219" s="113" t="s">
         <v>935</v>
       </c>
-      <c r="B219" s="113" t="s">
-        <v>936</v>
-      </c>
       <c r="C219" s="113" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D219" s="113" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="30">
       <c r="A220" s="113" t="s">
+        <v>937</v>
+      </c>
+      <c r="B220" s="113" t="s">
         <v>938</v>
       </c>
-      <c r="B220" s="113" t="s">
-        <v>939</v>
-      </c>
       <c r="C220" s="113" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D220" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="30">
       <c r="A221" s="113" t="s">
+        <v>940</v>
+      </c>
+      <c r="B221" s="113" t="s">
         <v>941</v>
       </c>
-      <c r="B221" s="113" t="s">
-        <v>942</v>
-      </c>
       <c r="C221" s="113" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D221" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="30">
       <c r="A222" s="113" t="s">
+        <v>943</v>
+      </c>
+      <c r="B222" s="113" t="s">
         <v>944</v>
       </c>
-      <c r="B222" s="113" t="s">
+      <c r="C222" s="113" t="s">
+        <v>942</v>
+      </c>
+      <c r="D222" s="113" t="s">
         <v>945</v>
-      </c>
-      <c r="C222" s="113" t="s">
-        <v>943</v>
-      </c>
-      <c r="D222" s="113" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="90">
       <c r="A223" s="113" t="s">
+        <v>947</v>
+      </c>
+      <c r="B223" s="113" t="s">
         <v>948</v>
       </c>
-      <c r="B223" s="113" t="s">
-        <v>949</v>
-      </c>
       <c r="C223" s="113" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D223" s="113" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="30">
       <c r="A224" s="113" t="s">
+        <v>950</v>
+      </c>
+      <c r="B224" s="113" t="s">
         <v>951</v>
       </c>
-      <c r="B224" s="113" t="s">
-        <v>952</v>
-      </c>
       <c r="C224" s="113" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D224" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="135">
       <c r="A225" s="113" t="s">
+        <v>953</v>
+      </c>
+      <c r="B225" s="113" t="s">
         <v>954</v>
       </c>
-      <c r="B225" s="113" t="s">
-        <v>955</v>
-      </c>
       <c r="C225" s="113" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D225" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="75">
       <c r="A226" s="113" t="s">
+        <v>956</v>
+      </c>
+      <c r="B226" s="113" t="s">
         <v>957</v>
       </c>
-      <c r="B226" s="113" t="s">
+      <c r="C226" s="113" t="s">
+        <v>955</v>
+      </c>
+      <c r="D226" s="113" t="s">
         <v>958</v>
-      </c>
-      <c r="C226" s="113" t="s">
-        <v>956</v>
-      </c>
-      <c r="D226" s="113" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="30">
       <c r="A227" s="113" t="s">
+        <v>960</v>
+      </c>
+      <c r="B227" s="113" t="s">
         <v>961</v>
       </c>
-      <c r="B227" s="113" t="s">
-        <v>962</v>
-      </c>
       <c r="C227" s="113" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D227" s="113" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="30">
       <c r="A228" s="113" t="s">
+        <v>963</v>
+      </c>
+      <c r="B228" s="113" t="s">
         <v>964</v>
       </c>
-      <c r="B228" s="113" t="s">
-        <v>965</v>
-      </c>
       <c r="C228" s="113" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D228" s="113" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="90">
       <c r="A229" s="113" t="s">
+        <v>966</v>
+      </c>
+      <c r="B229" s="113" t="s">
         <v>967</v>
       </c>
-      <c r="B229" s="113" t="s">
+      <c r="C229" s="113" t="s">
+        <v>965</v>
+      </c>
+      <c r="D229" s="113" t="s">
         <v>968</v>
-      </c>
-      <c r="C229" s="113" t="s">
-        <v>966</v>
-      </c>
-      <c r="D229" s="113" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="230" spans="1:4" ht="75">
       <c r="A230" s="113" t="s">
+        <v>970</v>
+      </c>
+      <c r="B230" s="113" t="s">
         <v>971</v>
       </c>
-      <c r="B230" s="113" t="s">
+      <c r="C230" s="113" t="s">
+        <v>969</v>
+      </c>
+      <c r="D230" s="113" t="s">
         <v>972</v>
-      </c>
-      <c r="C230" s="113" t="s">
-        <v>970</v>
-      </c>
-      <c r="D230" s="113" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="75">
       <c r="A231" s="113" t="s">
+        <v>974</v>
+      </c>
+      <c r="B231" s="113" t="s">
         <v>975</v>
       </c>
-      <c r="B231" s="113" t="s">
-        <v>976</v>
-      </c>
       <c r="C231" s="113" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="D231" s="113" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="75">
       <c r="A232" s="113" t="s">
+        <v>977</v>
+      </c>
+      <c r="B232" s="113" t="s">
         <v>978</v>
       </c>
-      <c r="B232" s="113" t="s">
+      <c r="C232" s="113" t="s">
+        <v>976</v>
+      </c>
+      <c r="D232" s="113" t="s">
         <v>979</v>
-      </c>
-      <c r="C232" s="113" t="s">
-        <v>977</v>
-      </c>
-      <c r="D232" s="113" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="75">
       <c r="A233" s="113" t="s">
+        <v>981</v>
+      </c>
+      <c r="B233" s="113" t="s">
         <v>982</v>
       </c>
-      <c r="B233" s="113" t="s">
-        <v>983</v>
-      </c>
       <c r="C233" s="113" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="D233" s="113" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="165">
       <c r="A234" s="113" t="s">
+        <v>984</v>
+      </c>
+      <c r="B234" s="113" t="s">
         <v>985</v>
       </c>
-      <c r="B234" s="113" t="s">
-        <v>986</v>
-      </c>
       <c r="C234" s="113" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="D234" s="113" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="75">
       <c r="A235" s="113" t="s">
+        <v>987</v>
+      </c>
+      <c r="B235" s="113" t="s">
         <v>988</v>
       </c>
-      <c r="B235" s="113" t="s">
-        <v>989</v>
-      </c>
       <c r="C235" s="113" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D235" s="113" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="75">
       <c r="A236" s="113" t="s">
+        <v>990</v>
+      </c>
+      <c r="B236" s="113" t="s">
         <v>991</v>
       </c>
-      <c r="B236" s="113" t="s">
-        <v>992</v>
-      </c>
       <c r="C236" s="113" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="D236" s="113" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="30">
       <c r="A237" s="113" t="s">
+        <v>993</v>
+      </c>
+      <c r="B237" s="113" t="s">
         <v>994</v>
       </c>
-      <c r="B237" s="113" t="s">
+      <c r="C237" s="113" t="s">
+        <v>992</v>
+      </c>
+      <c r="D237" s="113" t="s">
         <v>995</v>
-      </c>
-      <c r="C237" s="113" t="s">
-        <v>993</v>
-      </c>
-      <c r="D237" s="113" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="30">
       <c r="A238" s="113" t="s">
+        <v>997</v>
+      </c>
+      <c r="B238" s="113" t="s">
         <v>998</v>
       </c>
-      <c r="B238" s="113" t="s">
-        <v>999</v>
-      </c>
       <c r="C238" s="113" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D238" s="113" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="30">
       <c r="A239" s="113" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B239" s="113" t="s">
         <v>1001</v>
       </c>
-      <c r="B239" s="113" t="s">
-        <v>1002</v>
-      </c>
       <c r="C239" s="113" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D239" s="113" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="30">
       <c r="A240" s="113" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B240" s="113" t="s">
         <v>1004</v>
       </c>
-      <c r="B240" s="113" t="s">
-        <v>1005</v>
-      </c>
       <c r="C240" s="113" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D240" s="113" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="30">
       <c r="A241" s="113" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B241" s="113" t="s">
         <v>1007</v>
       </c>
-      <c r="B241" s="113" t="s">
-        <v>1008</v>
-      </c>
       <c r="C241" s="113" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D241" s="113" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="242" spans="1:4" ht="30">
       <c r="A242" s="113" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B242" s="113" t="s">
         <v>1010</v>
       </c>
-      <c r="B242" s="113" t="s">
-        <v>1011</v>
-      </c>
       <c r="C242" s="113" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D242" s="113" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="243" spans="1:4" ht="60">
       <c r="A243" s="113" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B243" s="113" t="s">
         <v>1013</v>
       </c>
-      <c r="B243" s="113" t="s">
+      <c r="C243" s="113" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D243" s="113" t="s">
         <v>1014</v>
-      </c>
-      <c r="C243" s="113" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D243" s="113" t="s">
-        <v>1015</v>
       </c>
     </row>
     <row r="244" spans="1:4" ht="45">
       <c r="A244" s="113" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B244" s="113" t="s">
         <v>1017</v>
       </c>
-      <c r="B244" s="113" t="s">
+      <c r="C244" s="113" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D244" s="113" t="s">
         <v>1018</v>
-      </c>
-      <c r="C244" s="113" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D244" s="113" t="s">
-        <v>1019</v>
       </c>
     </row>
     <row r="245" spans="1:4" ht="90">
       <c r="A245" s="113" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B245" s="113" t="s">
         <v>1021</v>
       </c>
-      <c r="B245" s="113" t="s">
+      <c r="C245" s="113" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D245" s="113" t="s">
         <v>1022</v>
-      </c>
-      <c r="C245" s="113" t="s">
-        <v>1020</v>
-      </c>
-      <c r="D245" s="113" t="s">
-        <v>1023</v>
       </c>
     </row>
     <row r="246" spans="1:4" ht="45">
       <c r="A246" s="113" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B246" s="113" t="s">
         <v>1025</v>
       </c>
-      <c r="B246" s="113" t="s">
-        <v>1026</v>
-      </c>
       <c r="C246" s="113" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D246" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="247" spans="1:4" ht="30">
       <c r="A247" s="113" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B247" s="113" t="s">
         <v>1028</v>
       </c>
-      <c r="B247" s="113" t="s">
-        <v>1029</v>
-      </c>
       <c r="C247" s="113" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D247" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="120">
       <c r="A248" s="113" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B248" s="113" t="s">
         <v>1031</v>
       </c>
-      <c r="B248" s="113" t="s">
-        <v>1032</v>
-      </c>
       <c r="C248" s="113" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D248" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="30">
       <c r="A249" s="113" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B249" s="113" t="s">
         <v>1034</v>
       </c>
-      <c r="B249" s="113" t="s">
-        <v>1035</v>
-      </c>
       <c r="C249" s="113" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D249" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="250" spans="1:4" ht="75">
       <c r="A250" s="113" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B250" s="113" t="s">
         <v>1037</v>
       </c>
-      <c r="B250" s="113" t="s">
+      <c r="C250" s="113" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D250" s="113" t="s">
         <v>1038</v>
-      </c>
-      <c r="C250" s="113" t="s">
-        <v>1036</v>
-      </c>
-      <c r="D250" s="113" t="s">
-        <v>1039</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="45">
       <c r="A251" s="113" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B251" s="113" t="s">
         <v>1041</v>
       </c>
-      <c r="B251" s="113" t="s">
-        <v>1042</v>
-      </c>
       <c r="C251" s="113" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D251" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="252" spans="1:4" ht="60">
       <c r="A252" s="113" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B252" s="113" t="s">
         <v>1044</v>
       </c>
-      <c r="B252" s="113" t="s">
-        <v>1045</v>
-      </c>
       <c r="C252" s="113" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D252" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="45">
       <c r="A253" s="113" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B253" s="113" t="s">
         <v>1047</v>
       </c>
-      <c r="B253" s="113" t="s">
-        <v>1048</v>
-      </c>
       <c r="C253" s="113" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D253" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="254" spans="1:4" ht="90">
       <c r="A254" s="113" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B254" s="113" t="s">
         <v>1050</v>
       </c>
-      <c r="B254" s="113" t="s">
-        <v>1051</v>
-      </c>
       <c r="C254" s="113" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D254" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="255" spans="1:4" ht="165">
       <c r="A255" s="113" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B255" s="113" t="s">
         <v>1053</v>
       </c>
-      <c r="B255" s="113" t="s">
-        <v>1054</v>
-      </c>
       <c r="C255" s="113" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D255" s="113" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="256" spans="1:4" ht="60">
       <c r="A256" s="113" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B256" s="113" t="s">
         <v>1056</v>
       </c>
-      <c r="B256" s="113" t="s">
-        <v>1057</v>
-      </c>
       <c r="C256" s="113" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D256" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="257" spans="1:4" ht="45">
       <c r="A257" s="113" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B257" s="113" t="s">
         <v>1059</v>
       </c>
-      <c r="B257" s="113" t="s">
-        <v>1060</v>
-      </c>
       <c r="C257" s="113" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D257" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="30">
       <c r="A258" s="113" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B258" s="113" t="s">
         <v>1062</v>
       </c>
-      <c r="B258" s="113" t="s">
-        <v>1063</v>
-      </c>
       <c r="C258" s="113" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="D258" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="105">
       <c r="A259" s="113" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B259" s="113" t="s">
         <v>1065</v>
       </c>
-      <c r="B259" s="113" t="s">
-        <v>1066</v>
-      </c>
       <c r="C259" s="113" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="D259" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="260" spans="1:4" ht="105">
       <c r="A260" s="113" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B260" s="113" t="s">
         <v>1068</v>
       </c>
-      <c r="B260" s="113" t="s">
+      <c r="C260" s="113" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D260" s="113" t="s">
         <v>1069</v>
-      </c>
-      <c r="C260" s="113" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D260" s="113" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="261" spans="1:4" ht="45">
       <c r="A261" s="113" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B261" s="113" t="s">
         <v>1072</v>
       </c>
-      <c r="B261" s="113" t="s">
-        <v>1073</v>
-      </c>
       <c r="C261" s="113" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="D261" s="113" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="75">
       <c r="A262" s="113" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B262" s="113" t="s">
         <v>1075</v>
       </c>
-      <c r="B262" s="113" t="s">
+      <c r="C262" s="113" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D262" s="113" t="s">
         <v>1076</v>
-      </c>
-      <c r="C262" s="113" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D262" s="113" t="s">
-        <v>1077</v>
       </c>
     </row>
     <row r="263" spans="1:4" ht="30">
       <c r="A263" s="113" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B263" s="113" t="s">
         <v>1079</v>
       </c>
-      <c r="B263" s="113" t="s">
-        <v>1080</v>
-      </c>
       <c r="C263" s="113" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D263" s="113" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="264" spans="1:4" ht="30">
       <c r="A264" s="113" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B264" s="113" t="s">
         <v>1082</v>
       </c>
-      <c r="B264" s="113" t="s">
+      <c r="C264" s="113" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D264" s="113" t="s">
         <v>1083</v>
-      </c>
-      <c r="C264" s="113" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D264" s="113" t="s">
-        <v>1084</v>
       </c>
     </row>
     <row r="265" spans="1:4" ht="45">
       <c r="A265" s="113" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B265" s="113" t="s">
         <v>1086</v>
       </c>
-      <c r="B265" s="113" t="s">
-        <v>1087</v>
-      </c>
       <c r="C265" s="113" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D265" s="113" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="266" spans="1:4" ht="60">
       <c r="A266" s="113" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B266" s="113" t="s">
         <v>1089</v>
       </c>
-      <c r="B266" s="113" t="s">
-        <v>1090</v>
-      </c>
       <c r="C266" s="113" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="D266" s="113" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="267" spans="1:4" ht="45">
       <c r="A267" s="113" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B267" s="113" t="s">
         <v>1092</v>
       </c>
-      <c r="B267" s="113" t="s">
-        <v>1093</v>
-      </c>
       <c r="C267" s="113" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
   </sheetData>
@@ -13081,74 +13078,74 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18" thickBot="1">
       <c r="A1" s="101" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="101" t="s">
         <v>179</v>
-      </c>
-      <c r="B1" s="101" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="31.5" thickTop="1" thickBot="1">
       <c r="A2" s="102" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="103" t="s">
         <v>181</v>
-      </c>
-      <c r="B2" s="103" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="26.25" thickBot="1">
       <c r="A3" s="102" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" s="103" t="s">
         <v>183</v>
-      </c>
-      <c r="B3" s="103" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1">
       <c r="A4" s="102" t="s">
+        <v>184</v>
+      </c>
+      <c r="B4" s="103" t="s">
         <v>185</v>
-      </c>
-      <c r="B4" s="103" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="39" thickBot="1">
       <c r="A5" s="102" t="s">
+        <v>186</v>
+      </c>
+      <c r="B5" s="103" t="s">
         <v>187</v>
-      </c>
-      <c r="B5" s="103" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1">
       <c r="A6" s="102" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" s="103" t="s">
         <v>189</v>
-      </c>
-      <c r="B6" s="103" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30.75" thickBot="1">
       <c r="A7" s="102" t="s">
+        <v>190</v>
+      </c>
+      <c r="B7" s="103" t="s">
         <v>191</v>
-      </c>
-      <c r="B7" s="103" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
       <c r="A8" s="102" t="s">
+        <v>192</v>
+      </c>
+      <c r="B8" s="103" t="s">
         <v>193</v>
-      </c>
-      <c r="B8" s="103" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="93" t="s">
+        <v>194</v>
+      </c>
+      <c r="B11" s="104" t="s">
         <v>195</v>
-      </c>
-      <c r="B11" s="104" t="s">
-        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -13187,456 +13184,456 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="169" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+    </row>
+    <row r="2" spans="1:9" ht="18.75">
+      <c r="A2" s="172"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="196" t="s">
         <v>1147</v>
       </c>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178"/>
-      <c r="D1" s="178"/>
-      <c r="E1" s="178"/>
-      <c r="F1" s="178"/>
-      <c r="G1" s="178"/>
-      <c r="H1" s="178"/>
-      <c r="I1" s="178"/>
-    </row>
-    <row r="2" spans="1:9" ht="18.75">
-      <c r="A2" s="187"/>
-      <c r="B2" s="178"/>
-      <c r="C2" s="178"/>
-      <c r="D2" s="197"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
-      <c r="G2" s="178"/>
-      <c r="H2" s="178"/>
-      <c r="I2" s="178"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="176" t="s">
+      <c r="B3" s="196"/>
+      <c r="C3" s="196"/>
+      <c r="D3" s="196"/>
+      <c r="E3" s="196"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+    </row>
+    <row r="4" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A4" s="172"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="182"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="163"/>
+      <c r="I4" s="163"/>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A5" s="200" t="s">
         <v>1148</v>
       </c>
-      <c r="B3" s="176"/>
-      <c r="C3" s="176"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="176"/>
-      <c r="F3" s="178"/>
-      <c r="G3" s="178"/>
-      <c r="H3" s="178"/>
-      <c r="I3" s="178"/>
-    </row>
-    <row r="4" spans="1:9" ht="19.5" thickBot="1">
-      <c r="A4" s="187"/>
-      <c r="B4" s="178"/>
-      <c r="C4" s="178"/>
-      <c r="D4" s="197"/>
-      <c r="E4" s="178"/>
-      <c r="F4" s="178"/>
-      <c r="G4" s="178"/>
-      <c r="H4" s="178"/>
-      <c r="I4" s="178"/>
-    </row>
-    <row r="5" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A5" s="173" t="s">
+      <c r="B5" s="201"/>
+      <c r="C5" s="201"/>
+      <c r="D5" s="201"/>
+      <c r="E5" s="201"/>
+      <c r="F5" s="201"/>
+      <c r="G5" s="202"/>
+      <c r="H5" s="163"/>
+      <c r="I5" s="163"/>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A6" s="163"/>
+      <c r="B6" s="163"/>
+      <c r="C6" s="163"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="163"/>
+      <c r="H6" s="163"/>
+      <c r="I6" s="163"/>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A7" s="197" t="s">
         <v>1149</v>
       </c>
-      <c r="B5" s="172"/>
-      <c r="C5" s="172"/>
-      <c r="D5" s="172"/>
-      <c r="E5" s="172"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="171"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
-    </row>
-    <row r="6" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A7" s="175" t="s">
+      <c r="B7" s="198"/>
+      <c r="C7" s="198"/>
+      <c r="D7" s="199"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="163"/>
+      <c r="I7" s="163"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickTop="1">
+      <c r="A8" s="163"/>
+      <c r="B8" s="163"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="163"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="163"/>
+      <c r="H8" s="163"/>
+      <c r="I8" s="163"/>
+    </row>
+    <row r="9" spans="1:9" ht="37.5">
+      <c r="A9" s="172" t="s">
         <v>1150</v>
       </c>
-      <c r="B7" s="170"/>
-      <c r="C7" s="170"/>
-      <c r="D7" s="174"/>
-      <c r="E7" s="178"/>
-      <c r="F7" s="178"/>
-      <c r="G7" s="178"/>
-      <c r="H7" s="178"/>
-      <c r="I7" s="178"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" thickTop="1">
-      <c r="A8" s="178"/>
-      <c r="B8" s="178"/>
-      <c r="C8" s="178"/>
-      <c r="D8" s="178"/>
-      <c r="E8" s="178"/>
-      <c r="F8" s="178"/>
-      <c r="G8" s="178"/>
-      <c r="H8" s="178"/>
-      <c r="I8" s="178"/>
-    </row>
-    <row r="9" spans="1:9" ht="37.5">
-      <c r="A9" s="187" t="s">
+      <c r="B9" s="163"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="182"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="163"/>
+      <c r="H9" s="163"/>
+      <c r="I9" s="163"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A10" s="195"/>
+      <c r="B10" s="195"/>
+      <c r="C10" s="195"/>
+      <c r="D10" s="195"/>
+      <c r="E10" s="166"/>
+      <c r="F10" s="166"/>
+      <c r="G10" s="163"/>
+      <c r="H10" s="163"/>
+      <c r="I10" s="163"/>
+    </row>
+    <row r="11" spans="1:9" ht="32.25" thickBot="1">
+      <c r="A11" s="181" t="s">
         <v>1151</v>
       </c>
-      <c r="B9" s="178"/>
-      <c r="C9" s="178"/>
-      <c r="D9" s="197"/>
-      <c r="E9" s="178"/>
-      <c r="F9" s="178"/>
-      <c r="G9" s="178"/>
-      <c r="H9" s="178"/>
-      <c r="I9" s="178"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A10" s="177"/>
-      <c r="B10" s="177"/>
-      <c r="C10" s="177"/>
-      <c r="D10" s="177"/>
-      <c r="E10" s="181"/>
-      <c r="F10" s="181"/>
-      <c r="G10" s="178"/>
-      <c r="H10" s="178"/>
-      <c r="I10" s="178"/>
-    </row>
-    <row r="11" spans="1:9" ht="32.25" thickBot="1">
-      <c r="A11" s="196" t="s">
+      <c r="B11" s="181" t="s">
         <v>1152</v>
       </c>
-      <c r="B11" s="196" t="s">
+      <c r="C11" s="181" t="s">
         <v>1153</v>
       </c>
-      <c r="C11" s="196" t="s">
+      <c r="D11" s="181" t="s">
+        <v>137</v>
+      </c>
+      <c r="E11" s="181" t="s">
         <v>1154</v>
       </c>
-      <c r="D11" s="196" t="s">
-        <v>138</v>
-      </c>
-      <c r="E11" s="196" t="s">
+      <c r="F11" s="184" t="s">
+        <v>139</v>
+      </c>
+      <c r="G11" s="181" t="s">
         <v>1155</v>
       </c>
-      <c r="F11" s="199" t="s">
-        <v>140</v>
-      </c>
-      <c r="G11" s="196" t="s">
+      <c r="H11" s="181" t="s">
         <v>1156</v>
       </c>
-      <c r="H11" s="196" t="s">
+      <c r="I11" s="184" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="180"/>
+      <c r="B12" s="180"/>
+      <c r="C12" s="171"/>
+      <c r="D12" s="180"/>
+      <c r="E12" s="180"/>
+      <c r="F12" s="179"/>
+      <c r="G12" s="180"/>
+      <c r="H12" s="180"/>
+      <c r="I12" s="179"/>
+    </row>
+    <row r="13" spans="1:9" ht="45">
+      <c r="A13" s="180"/>
+      <c r="B13" s="180"/>
+      <c r="C13" s="180"/>
+      <c r="D13" s="177" t="s">
         <v>1157</v>
       </c>
-      <c r="I11" s="199" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="195"/>
-      <c r="B12" s="195"/>
-      <c r="C12" s="186"/>
-      <c r="D12" s="195"/>
-      <c r="E12" s="195"/>
-      <c r="F12" s="194"/>
-      <c r="G12" s="195"/>
-      <c r="H12" s="195"/>
-      <c r="I12" s="194"/>
-    </row>
-    <row r="13" spans="1:9" ht="45">
-      <c r="A13" s="195"/>
-      <c r="B13" s="195"/>
-      <c r="C13" s="195"/>
-      <c r="D13" s="192" t="s">
+      <c r="E13" s="177" t="s">
         <v>1158</v>
       </c>
-      <c r="E13" s="192" t="s">
+      <c r="F13" s="176">
+        <v>40766</v>
+      </c>
+      <c r="G13" s="175" t="s">
         <v>1159</v>
       </c>
-      <c r="F13" s="191">
-        <v>40766</v>
-      </c>
-      <c r="G13" s="190" t="s">
+      <c r="H13" s="177" t="s">
         <v>1160</v>
       </c>
-      <c r="H13" s="192" t="s">
+      <c r="I13" s="167">
+        <v>40770</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="45">
+      <c r="A14" s="180"/>
+      <c r="B14" s="178"/>
+      <c r="C14" s="178"/>
+      <c r="D14" s="177" t="s">
         <v>1161</v>
       </c>
-      <c r="I13" s="182">
-        <v>40770</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="60">
-      <c r="A14" s="195"/>
-      <c r="B14" s="193"/>
-      <c r="C14" s="193"/>
-      <c r="D14" s="192" t="s">
+      <c r="E14" s="177"/>
+      <c r="F14" s="174"/>
+      <c r="G14" s="177"/>
+      <c r="H14" s="177"/>
+      <c r="I14" s="167"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="180"/>
+      <c r="B15" s="178"/>
+      <c r="C15" s="178"/>
+      <c r="D15" s="178"/>
+      <c r="E15" s="180"/>
+      <c r="F15" s="179"/>
+      <c r="G15" s="180"/>
+      <c r="H15" s="180"/>
+      <c r="I15" s="179"/>
+    </row>
+    <row r="16" spans="1:9" ht="90">
+      <c r="A16" s="180"/>
+      <c r="B16" s="178"/>
+      <c r="C16" s="178"/>
+      <c r="D16" s="185" t="s">
         <v>1162</v>
       </c>
-      <c r="E14" s="192"/>
-      <c r="F14" s="189"/>
-      <c r="G14" s="192"/>
-      <c r="H14" s="192"/>
-      <c r="I14" s="182"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="195"/>
-      <c r="B15" s="193"/>
-      <c r="C15" s="193"/>
-      <c r="D15" s="193"/>
-      <c r="E15" s="195"/>
-      <c r="F15" s="194"/>
-      <c r="G15" s="195"/>
-      <c r="H15" s="195"/>
-      <c r="I15" s="194"/>
-    </row>
-    <row r="16" spans="1:9" ht="105">
-      <c r="A16" s="195"/>
-      <c r="B16" s="193"/>
-      <c r="C16" s="193"/>
-      <c r="D16" s="200" t="s">
+      <c r="E16" s="180"/>
+      <c r="F16" s="179"/>
+      <c r="G16" s="180"/>
+      <c r="H16" s="180"/>
+      <c r="I16" s="179"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="180"/>
+      <c r="B17" s="178"/>
+      <c r="C17" s="178"/>
+      <c r="D17" s="178"/>
+      <c r="E17" s="180"/>
+      <c r="F17" s="179"/>
+      <c r="G17" s="180"/>
+      <c r="H17" s="180"/>
+      <c r="I17" s="179"/>
+      <c r="J17" s="163"/>
+      <c r="K17" s="163"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="180"/>
+      <c r="B18" s="178"/>
+      <c r="C18" s="178"/>
+      <c r="D18" s="178"/>
+      <c r="E18" s="180"/>
+      <c r="F18" s="179"/>
+      <c r="G18" s="180"/>
+      <c r="H18" s="180"/>
+      <c r="I18" s="179"/>
+      <c r="J18" s="163"/>
+      <c r="K18" s="187"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="180"/>
+      <c r="B19" s="178"/>
+      <c r="C19" s="178"/>
+      <c r="D19" s="186"/>
+      <c r="E19" s="180"/>
+      <c r="F19" s="173"/>
+      <c r="G19" s="180"/>
+      <c r="H19" s="180"/>
+      <c r="I19" s="179"/>
+      <c r="J19" s="163"/>
+      <c r="K19" s="163"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="168"/>
+      <c r="B20" s="178"/>
+      <c r="C20" s="178"/>
+      <c r="D20" s="178"/>
+      <c r="E20" s="180"/>
+      <c r="F20" s="173"/>
+      <c r="G20" s="168"/>
+      <c r="H20" s="180"/>
+      <c r="I20" s="179"/>
+      <c r="J20" s="163"/>
+      <c r="K20" s="163"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="180"/>
+      <c r="B21" s="178"/>
+      <c r="C21" s="178"/>
+      <c r="D21" s="186"/>
+      <c r="E21" s="180"/>
+      <c r="F21" s="173"/>
+      <c r="G21" s="180"/>
+      <c r="H21" s="180"/>
+      <c r="I21" s="179"/>
+      <c r="J21" s="163"/>
+      <c r="K21" s="163"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="180"/>
+      <c r="B22" s="178"/>
+      <c r="C22" s="178"/>
+      <c r="D22" s="178"/>
+      <c r="E22" s="180"/>
+      <c r="F22" s="179"/>
+      <c r="G22" s="180"/>
+      <c r="H22" s="180"/>
+      <c r="I22" s="179"/>
+      <c r="J22" s="163"/>
+      <c r="K22" s="163"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="180"/>
+      <c r="B23" s="178"/>
+      <c r="C23" s="178"/>
+      <c r="D23" s="178"/>
+      <c r="E23" s="180"/>
+      <c r="F23" s="173"/>
+      <c r="G23" s="180"/>
+      <c r="H23" s="180"/>
+      <c r="I23" s="179"/>
+      <c r="J23" s="163"/>
+      <c r="K23" s="163"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="180"/>
+      <c r="B24" s="178"/>
+      <c r="C24" s="178"/>
+      <c r="D24" s="178"/>
+      <c r="E24" s="180"/>
+      <c r="F24" s="179"/>
+      <c r="G24" s="180"/>
+      <c r="H24" s="180"/>
+      <c r="I24" s="179"/>
+      <c r="J24" s="163"/>
+      <c r="K24" s="163"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="180"/>
+      <c r="B25" s="178"/>
+      <c r="C25" s="178"/>
+      <c r="D25" s="178"/>
+      <c r="E25" s="180"/>
+      <c r="F25" s="179"/>
+      <c r="G25" s="180"/>
+      <c r="H25" s="180"/>
+      <c r="I25" s="179"/>
+      <c r="J25" s="163"/>
+      <c r="K25" s="163"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="180"/>
+      <c r="B26" s="178"/>
+      <c r="C26" s="178"/>
+      <c r="D26" s="178"/>
+      <c r="E26" s="180"/>
+      <c r="F26" s="179"/>
+      <c r="G26" s="180"/>
+      <c r="H26" s="180"/>
+      <c r="I26" s="179"/>
+      <c r="J26" s="163"/>
+      <c r="K26" s="163"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="180"/>
+      <c r="B27" s="178"/>
+      <c r="C27" s="178"/>
+      <c r="D27" s="178"/>
+      <c r="E27" s="180"/>
+      <c r="F27" s="179"/>
+      <c r="G27" s="180"/>
+      <c r="H27" s="180"/>
+      <c r="I27" s="179"/>
+      <c r="J27" s="163"/>
+      <c r="K27" s="163"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="183"/>
+      <c r="B28" s="183"/>
+      <c r="C28" s="183"/>
+      <c r="D28" s="183"/>
+      <c r="E28" s="183"/>
+      <c r="F28" s="170"/>
+      <c r="G28" s="183"/>
+      <c r="H28" s="183"/>
+      <c r="I28" s="170"/>
+      <c r="J28" s="163"/>
+      <c r="K28" s="163"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="163"/>
+      <c r="B29" s="163"/>
+      <c r="C29" s="163"/>
+      <c r="D29" s="163"/>
+      <c r="E29" s="163"/>
+      <c r="F29" s="163"/>
+      <c r="G29" s="163"/>
+      <c r="H29" s="163"/>
+      <c r="I29" s="163"/>
+      <c r="J29" s="163"/>
+      <c r="K29" s="163"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="163"/>
+      <c r="B30" s="163"/>
+      <c r="C30" s="163"/>
+      <c r="D30" s="163"/>
+      <c r="E30" s="163"/>
+      <c r="F30" s="163"/>
+      <c r="G30" s="163"/>
+      <c r="H30" s="163"/>
+      <c r="I30" s="163"/>
+      <c r="J30" s="163"/>
+      <c r="K30" s="163"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="163"/>
+      <c r="B31" s="163"/>
+      <c r="C31" s="163"/>
+      <c r="D31" s="163"/>
+      <c r="E31" s="163"/>
+      <c r="F31" s="163"/>
+      <c r="G31" s="163"/>
+      <c r="H31" s="163"/>
+      <c r="I31" s="163"/>
+      <c r="J31" s="163"/>
+      <c r="K31" s="163"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="163"/>
+      <c r="B32" s="163"/>
+      <c r="C32" s="163"/>
+      <c r="D32" s="163"/>
+      <c r="E32" s="163"/>
+      <c r="F32" s="163"/>
+      <c r="G32" s="163"/>
+      <c r="H32" s="163"/>
+      <c r="I32" s="163"/>
+      <c r="J32" s="163"/>
+      <c r="K32" s="163"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="163"/>
+      <c r="B33" s="163"/>
+      <c r="C33" s="163"/>
+      <c r="D33" s="163"/>
+      <c r="E33" s="163"/>
+      <c r="F33" s="163"/>
+      <c r="G33" s="163"/>
+      <c r="H33" s="163"/>
+      <c r="I33" s="163"/>
+    </row>
+    <row r="34" spans="1:9" ht="18.75">
+      <c r="A34" s="172" t="s">
         <v>1163</v>
       </c>
-      <c r="E16" s="195"/>
-      <c r="F16" s="194"/>
-      <c r="G16" s="195"/>
-      <c r="H16" s="195"/>
-      <c r="I16" s="194"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="195"/>
-      <c r="B17" s="193"/>
-      <c r="C17" s="193"/>
-      <c r="D17" s="193"/>
-      <c r="E17" s="195"/>
-      <c r="F17" s="194"/>
-      <c r="G17" s="195"/>
-      <c r="H17" s="195"/>
-      <c r="I17" s="194"/>
-      <c r="J17" s="178"/>
-      <c r="K17" s="178"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="195"/>
-      <c r="B18" s="193"/>
-      <c r="C18" s="193"/>
-      <c r="D18" s="193"/>
-      <c r="E18" s="195"/>
-      <c r="F18" s="194"/>
-      <c r="G18" s="195"/>
-      <c r="H18" s="195"/>
-      <c r="I18" s="194"/>
-      <c r="J18" s="178"/>
-      <c r="K18" s="202"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="195"/>
-      <c r="B19" s="193"/>
-      <c r="C19" s="193"/>
-      <c r="D19" s="201"/>
-      <c r="E19" s="195"/>
-      <c r="F19" s="188"/>
-      <c r="G19" s="195"/>
-      <c r="H19" s="195"/>
-      <c r="I19" s="194"/>
-      <c r="J19" s="178"/>
-      <c r="K19" s="178"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="183"/>
-      <c r="B20" s="193"/>
-      <c r="C20" s="193"/>
-      <c r="D20" s="193"/>
-      <c r="E20" s="195"/>
-      <c r="F20" s="188"/>
-      <c r="G20" s="183"/>
-      <c r="H20" s="195"/>
-      <c r="I20" s="194"/>
-      <c r="J20" s="178"/>
-      <c r="K20" s="178"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="195"/>
-      <c r="B21" s="193"/>
-      <c r="C21" s="193"/>
-      <c r="D21" s="201"/>
-      <c r="E21" s="195"/>
-      <c r="F21" s="188"/>
-      <c r="G21" s="195"/>
-      <c r="H21" s="195"/>
-      <c r="I21" s="194"/>
-      <c r="J21" s="178"/>
-      <c r="K21" s="178"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="195"/>
-      <c r="B22" s="193"/>
-      <c r="C22" s="193"/>
-      <c r="D22" s="193"/>
-      <c r="E22" s="195"/>
-      <c r="F22" s="194"/>
-      <c r="G22" s="195"/>
-      <c r="H22" s="195"/>
-      <c r="I22" s="194"/>
-      <c r="J22" s="178"/>
-      <c r="K22" s="178"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="195"/>
-      <c r="B23" s="193"/>
-      <c r="C23" s="193"/>
-      <c r="D23" s="193"/>
-      <c r="E23" s="195"/>
-      <c r="F23" s="188"/>
-      <c r="G23" s="195"/>
-      <c r="H23" s="195"/>
-      <c r="I23" s="194"/>
-      <c r="J23" s="178"/>
-      <c r="K23" s="178"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="195"/>
-      <c r="B24" s="193"/>
-      <c r="C24" s="193"/>
-      <c r="D24" s="193"/>
-      <c r="E24" s="195"/>
-      <c r="F24" s="194"/>
-      <c r="G24" s="195"/>
-      <c r="H24" s="195"/>
-      <c r="I24" s="194"/>
-      <c r="J24" s="178"/>
-      <c r="K24" s="178"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="195"/>
-      <c r="B25" s="193"/>
-      <c r="C25" s="193"/>
-      <c r="D25" s="193"/>
-      <c r="E25" s="195"/>
-      <c r="F25" s="194"/>
-      <c r="G25" s="195"/>
-      <c r="H25" s="195"/>
-      <c r="I25" s="194"/>
-      <c r="J25" s="178"/>
-      <c r="K25" s="178"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="195"/>
-      <c r="B26" s="193"/>
-      <c r="C26" s="193"/>
-      <c r="D26" s="193"/>
-      <c r="E26" s="195"/>
-      <c r="F26" s="194"/>
-      <c r="G26" s="195"/>
-      <c r="H26" s="195"/>
-      <c r="I26" s="194"/>
-      <c r="J26" s="178"/>
-      <c r="K26" s="178"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="195"/>
-      <c r="B27" s="193"/>
-      <c r="C27" s="193"/>
-      <c r="D27" s="193"/>
-      <c r="E27" s="195"/>
-      <c r="F27" s="194"/>
-      <c r="G27" s="195"/>
-      <c r="H27" s="195"/>
-      <c r="I27" s="194"/>
-      <c r="J27" s="178"/>
-      <c r="K27" s="178"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="198"/>
-      <c r="B28" s="198"/>
-      <c r="C28" s="198"/>
-      <c r="D28" s="198"/>
-      <c r="E28" s="198"/>
-      <c r="F28" s="185"/>
-      <c r="G28" s="198"/>
-      <c r="H28" s="198"/>
-      <c r="I28" s="185"/>
-      <c r="J28" s="178"/>
-      <c r="K28" s="178"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="178"/>
-      <c r="B29" s="178"/>
-      <c r="C29" s="178"/>
-      <c r="D29" s="178"/>
-      <c r="E29" s="178"/>
-      <c r="F29" s="178"/>
-      <c r="G29" s="178"/>
-      <c r="H29" s="178"/>
-      <c r="I29" s="178"/>
-      <c r="J29" s="178"/>
-      <c r="K29" s="178"/>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="178"/>
-      <c r="B30" s="178"/>
-      <c r="C30" s="178"/>
-      <c r="D30" s="178"/>
-      <c r="E30" s="178"/>
-      <c r="F30" s="178"/>
-      <c r="G30" s="178"/>
-      <c r="H30" s="178"/>
-      <c r="I30" s="178"/>
-      <c r="J30" s="178"/>
-      <c r="K30" s="178"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="178"/>
-      <c r="B31" s="178"/>
-      <c r="C31" s="178"/>
-      <c r="D31" s="178"/>
-      <c r="E31" s="178"/>
-      <c r="F31" s="178"/>
-      <c r="G31" s="178"/>
-      <c r="H31" s="178"/>
-      <c r="I31" s="178"/>
-      <c r="J31" s="178"/>
-      <c r="K31" s="178"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="178"/>
-      <c r="B32" s="178"/>
-      <c r="C32" s="178"/>
-      <c r="D32" s="178"/>
-      <c r="E32" s="178"/>
-      <c r="F32" s="178"/>
-      <c r="G32" s="178"/>
-      <c r="H32" s="178"/>
-      <c r="I32" s="178"/>
-      <c r="J32" s="178"/>
-      <c r="K32" s="178"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="178"/>
-      <c r="B33" s="178"/>
-      <c r="C33" s="178"/>
-      <c r="D33" s="178"/>
-      <c r="E33" s="178"/>
-      <c r="F33" s="178"/>
-      <c r="G33" s="178"/>
-      <c r="H33" s="178"/>
-      <c r="I33" s="178"/>
-    </row>
-    <row r="34" spans="1:9" ht="18.75">
-      <c r="A34" s="187" t="s">
-        <v>1164</v>
-      </c>
-      <c r="B34" s="178"/>
-      <c r="C34" s="178"/>
-      <c r="D34" s="178"/>
-      <c r="E34" s="178"/>
-      <c r="F34" s="178"/>
-      <c r="G34" s="178"/>
-      <c r="H34" s="178"/>
-      <c r="I34" s="178"/>
+      <c r="B34" s="163"/>
+      <c r="C34" s="163"/>
+      <c r="D34" s="163"/>
+      <c r="E34" s="163"/>
+      <c r="F34" s="163"/>
+      <c r="G34" s="163"/>
+      <c r="H34" s="163"/>
+      <c r="I34" s="163"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/RadiogenicHeatProduction.xlsx
+++ b/RadiogenicHeatProduction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1095" yWindow="75" windowWidth="16410" windowHeight="6750" activeTab="4"/>
+    <workbookView xWindow="1095" yWindow="75" windowWidth="16410" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="1166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="1167">
   <si>
     <t>unknown</t>
   </si>
@@ -3761,6 +3761,9 @@
   <si>
     <t>Esty Pape</t>
   </si>
+  <si>
+    <t>Copyright © Arizona Geological Survey, 2012</t>
+  </si>
 </sst>
 </file>
 
@@ -3772,7 +3775,7 @@
     <numFmt numFmtId="166" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="167" formatCode="mm\-dd\-yy\Thh:mm"/>
   </numFmts>
-  <fonts count="55">
+  <fonts count="55" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4094,11 +4097,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF4374B7"/>
-      <name val="Inherit"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -4137,6 +4135,12 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F497D"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -5121,8 +5125,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5132,7 +5136,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -5583,10 +5587,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="47" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="50" borderId="0" xfId="58" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="50" borderId="14" xfId="81" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -5600,59 +5600,47 @@
     <xf numFmtId="0" fontId="0" fillId="50" borderId="14" xfId="81" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="48" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="53" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="49" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="47" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="47" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="53" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="48" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="48" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="49" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="48" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -5660,7 +5648,19 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -5672,11 +5672,11 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="57" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="47" fillId="57" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -5707,7 +5707,7 @@
     <xf numFmtId="0" fontId="0" fillId="44" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -5732,6 +5732,10 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="56" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="59" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="61" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="187">
@@ -5952,20 +5956,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>922021</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>922020</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Creative Commons License">
+        <xdr:cNvPr id="3" name="Picture 2" descr="Creative Commons License">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
@@ -5987,8 +5991,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1851661" y="6995160"/>
-          <a:ext cx="922020" cy="278130"/>
+          <a:off x="542925" y="7639050"/>
+          <a:ext cx="922020" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6001,6 +6005,76 @@
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="Creative Commons License">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="542925" y="7639050"/>
+          <a:ext cx="1000125" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -6367,11 +6441,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="22" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.140625" style="59" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" style="58" customWidth="1"/>
@@ -6631,7 +6705,7 @@
     <col min="16132" max="16384" width="22" style="59"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="18.75">
+    <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="60" t="s">
         <v>131</v>
       </c>
@@ -6639,7 +6713,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="60" t="s">
         <v>132</v>
       </c>
@@ -6647,7 +6721,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="120">
+    <row r="4" spans="2:5" ht="120" x14ac:dyDescent="0.25">
       <c r="B4" s="60" t="s">
         <v>133</v>
       </c>
@@ -6655,7 +6729,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="60" t="s">
         <v>134</v>
       </c>
@@ -6663,15 +6737,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="161" t="s">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="159" t="s">
         <v>1144</v>
       </c>
-      <c r="C6" s="162" t="s">
+      <c r="C6" s="160" t="s">
         <v>1145</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="20.25" thickBot="1">
+    <row r="8" spans="2:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="65" t="s">
         <v>135</v>
       </c>
@@ -6679,7 +6753,7 @@
       <c r="D8" s="66"/>
       <c r="E8" s="66"/>
     </row>
-    <row r="9" spans="2:5" ht="15.75" thickTop="1">
+    <row r="9" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B9" s="67" t="s">
         <v>136</v>
       </c>
@@ -6693,7 +6767,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="30">
+    <row r="10" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="94" t="s">
         <v>147</v>
       </c>
@@ -6707,7 +6781,7 @@
         <v>41183</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="75">
+    <row r="11" spans="2:5" ht="75" x14ac:dyDescent="0.25">
       <c r="B11" s="94" t="s">
         <v>147</v>
       </c>
@@ -6721,52 +6795,52 @@
         <v>41184</v>
       </c>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="70"/>
-      <c r="C12" s="164" t="s">
+      <c r="C12" s="162" t="s">
         <v>1164</v>
       </c>
-      <c r="D12" s="165" t="s">
+      <c r="D12" s="163" t="s">
         <v>1165</v>
       </c>
       <c r="E12" s="71">
         <v>41219</v>
       </c>
     </row>
-    <row r="13" spans="2:5">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="72"/>
       <c r="C13" s="73"/>
       <c r="D13" s="74"/>
       <c r="E13" s="75"/>
     </row>
-    <row r="14" spans="2:5">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="72"/>
       <c r="C14" s="73"/>
       <c r="D14" s="74"/>
       <c r="E14" s="75"/>
     </row>
-    <row r="15" spans="2:5">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="72"/>
       <c r="C15" s="76"/>
       <c r="D15" s="77"/>
       <c r="E15" s="78"/>
     </row>
-    <row r="16" spans="2:5">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="72"/>
       <c r="C16" s="73"/>
       <c r="D16" s="74"/>
       <c r="E16" s="75"/>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="72"/>
       <c r="C17" s="73"/>
       <c r="D17" s="74"/>
       <c r="E17" s="75"/>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E18" s="81"/>
     </row>
-    <row r="19" spans="2:5" ht="20.25" thickBot="1">
+    <row r="19" spans="2:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="155" t="s">
         <v>140</v>
       </c>
@@ -6774,7 +6848,7 @@
       <c r="D19" s="80"/>
       <c r="E19" s="85"/>
     </row>
-    <row r="20" spans="2:5" ht="16.5" thickTop="1" thickBot="1">
+    <row r="20" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="82" t="s">
         <v>141</v>
       </c>
@@ -6786,77 +6860,78 @@
       </c>
       <c r="E20" s="88"/>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="86"/>
       <c r="C21" s="76"/>
       <c r="D21" s="87"/>
       <c r="E21" s="90"/>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="89"/>
       <c r="C22" s="76"/>
       <c r="D22" s="87"/>
       <c r="E22" s="90"/>
     </row>
-    <row r="23" spans="2:5">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="89"/>
       <c r="C23" s="76"/>
       <c r="D23" s="87"/>
       <c r="E23" s="90"/>
     </row>
-    <row r="24" spans="2:5">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="89"/>
       <c r="C24" s="76"/>
       <c r="D24" s="87"/>
       <c r="E24" s="90"/>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="89"/>
       <c r="C25" s="76"/>
       <c r="D25" s="87"/>
       <c r="E25" s="90"/>
     </row>
-    <row r="26" spans="2:5">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="89"/>
       <c r="C26" s="76"/>
       <c r="D26" s="87"/>
     </row>
-    <row r="28" spans="2:5">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="158"/>
-      <c r="C28" s="159"/>
+      <c r="C28" s="201" t="s">
+        <v>1143</v>
+      </c>
       <c r="D28" s="156"/>
       <c r="E28" s="158"/>
     </row>
-    <row r="29" spans="2:5">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="158"/>
-      <c r="C29" s="158"/>
+      <c r="C29" s="202" t="s">
+        <v>1166</v>
+      </c>
       <c r="D29" s="158"/>
       <c r="E29" s="158"/>
     </row>
-    <row r="30" spans="2:5">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="157"/>
-      <c r="C30" s="160" t="s">
-        <v>1143</v>
-      </c>
+      <c r="C30" s="156"/>
       <c r="D30" s="156"/>
       <c r="E30" s="156"/>
     </row>
-    <row r="31" spans="2:5">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="157"/>
       <c r="C31" s="156"/>
       <c r="D31" s="156"/>
       <c r="E31" s="156"/>
     </row>
-    <row r="32" spans="2:5">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="157"/>
-      <c r="C32" s="156"/>
       <c r="D32" s="156"/>
       <c r="E32" s="156"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C30" r:id="rId1" display="http://creativecommons.org/licenses/by/3.0/"/>
-    <hyperlink ref="C6" r:id="rId2"/>
+    <hyperlink ref="C6" r:id="rId1"/>
+    <hyperlink ref="C28" r:id="rId2" display="http://creativecommons.org/licenses/by/3.0/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>
@@ -6871,7 +6946,7 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="55"/>
     <col min="2" max="2" width="17.28515625" style="55" customWidth="1"/>
@@ -6881,16 +6956,16 @@
     <col min="6" max="16384" width="8.85546875" style="55"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="69.75" customHeight="1">
-      <c r="A2" s="188" t="s">
+    <row r="2" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="186" t="s">
         <v>171</v>
       </c>
-      <c r="B2" s="189"/>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-    </row>
-    <row r="3" spans="1:6" ht="14.45" customHeight="1">
+      <c r="B2" s="187"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+    </row>
+    <row r="3" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
       <c r="B3" s="93"/>
       <c r="C3" s="93"/>
@@ -6898,61 +6973,61 @@
       <c r="E3" s="93"/>
       <c r="F3" s="93"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="92"/>
       <c r="B5" s="91" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="20.25" thickBot="1">
-      <c r="A7" s="190" t="s">
+    <row r="7" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="188" t="s">
         <v>144</v>
       </c>
-      <c r="B7" s="190"/>
-      <c r="C7" s="190"/>
-      <c r="D7" s="190"/>
-      <c r="E7" s="190"/>
-      <c r="F7" s="190"/>
-    </row>
-    <row r="8" spans="1:6" ht="33" customHeight="1" thickTop="1">
-      <c r="A8" s="188" t="s">
+      <c r="B7" s="188"/>
+      <c r="C7" s="188"/>
+      <c r="D7" s="188"/>
+      <c r="E7" s="188"/>
+      <c r="F7" s="188"/>
+    </row>
+    <row r="8" spans="1:6" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="186" t="s">
         <v>143</v>
       </c>
-      <c r="B8" s="188"/>
-      <c r="C8" s="188"/>
-      <c r="D8" s="188"/>
-      <c r="E8" s="188"/>
-      <c r="F8" s="188"/>
-    </row>
-    <row r="9" spans="1:6" ht="43.9" customHeight="1">
-      <c r="A9" s="188" t="s">
+      <c r="B8" s="186"/>
+      <c r="C8" s="186"/>
+      <c r="D8" s="186"/>
+      <c r="E8" s="186"/>
+      <c r="F8" s="186"/>
+    </row>
+    <row r="9" spans="1:6" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="186" t="s">
         <v>169</v>
       </c>
-      <c r="B9" s="188"/>
-      <c r="C9" s="188"/>
-      <c r="D9" s="188"/>
-      <c r="E9" s="188"/>
-      <c r="F9" s="188"/>
-    </row>
-    <row r="10" spans="1:6" ht="33" customHeight="1">
-      <c r="A10" s="188" t="s">
+      <c r="B9" s="186"/>
+      <c r="C9" s="186"/>
+      <c r="D9" s="186"/>
+      <c r="E9" s="186"/>
+      <c r="F9" s="186"/>
+    </row>
+    <row r="10" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="186" t="s">
         <v>170</v>
       </c>
-      <c r="B10" s="189"/>
-      <c r="C10" s="189"/>
-      <c r="D10" s="189"/>
-      <c r="E10" s="189"/>
-      <c r="F10" s="189"/>
-    </row>
-    <row r="11" spans="1:6" ht="35.450000000000003" customHeight="1">
-      <c r="A11" s="188" t="s">
+      <c r="B10" s="187"/>
+      <c r="C10" s="187"/>
+      <c r="D10" s="187"/>
+      <c r="E10" s="187"/>
+      <c r="F10" s="187"/>
+    </row>
+    <row r="11" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="186" t="s">
         <v>142</v>
       </c>
-      <c r="B11" s="189"/>
-      <c r="C11" s="189"/>
-      <c r="D11" s="189"/>
-      <c r="E11" s="189"/>
-      <c r="F11" s="189"/>
+      <c r="B11" s="187"/>
+      <c r="C11" s="187"/>
+      <c r="D11" s="187"/>
+      <c r="E11" s="187"/>
+      <c r="F11" s="187"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6975,7 +7050,7 @@
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.7109375" style="93" customWidth="1"/>
     <col min="2" max="2" width="44.5703125" style="93" customWidth="1"/>
@@ -6983,7 +7058,7 @@
     <col min="7" max="16384" width="9.140625" style="93"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.25" customHeight="1" thickBot="1">
+    <row r="1" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="96" t="s">
         <v>149</v>
       </c>
@@ -6993,7 +7068,7 @@
       <c r="E1" s="96"/>
       <c r="F1" s="96"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" thickTop="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="97" t="s">
         <v>150</v>
       </c>
@@ -7003,7 +7078,7 @@
       <c r="E2" s="98"/>
       <c r="F2" s="98"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="99"/>
@@ -7011,92 +7086,92 @@
       <c r="E3" s="99"/>
       <c r="F3" s="99"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="93" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="93" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="93" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="93" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="93" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="93" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="93" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="93" t="s">
         <v>168</v>
       </c>
@@ -7114,7 +7189,7 @@
       <selection activeCell="AI2" sqref="AI2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
@@ -7164,7 +7239,7 @@
     <col min="46" max="46" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="139" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="1" spans="1:46" s="139" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="121" t="s">
         <v>76</v>
       </c>
@@ -7319,11 +7394,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A43" sqref="A43:XFD43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.5703125" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
@@ -7334,33 +7409,33 @@
     <col min="7" max="7" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="23.25">
-      <c r="A1" s="191" t="s">
+    <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="189" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="191"/>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="191"/>
-      <c r="F1" s="191"/>
-      <c r="G1" s="191"/>
-      <c r="H1" s="191"/>
+      <c r="B1" s="189"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="189"/>
+      <c r="F1" s="189"/>
+      <c r="G1" s="189"/>
+      <c r="H1" s="189"/>
       <c r="I1" s="27"/>
     </row>
-    <row r="2" spans="1:9" ht="58.9" customHeight="1">
-      <c r="A2" s="192" t="s">
+    <row r="2" spans="1:9" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="190" t="s">
         <v>1114</v>
       </c>
-      <c r="B2" s="192"/>
-      <c r="C2" s="192"/>
-      <c r="D2" s="192"/>
-      <c r="E2" s="192"/>
+      <c r="B2" s="190"/>
+      <c r="C2" s="190"/>
+      <c r="D2" s="190"/>
+      <c r="E2" s="190"/>
       <c r="F2" s="100"/>
       <c r="G2" s="100"/>
       <c r="H2" s="51"/>
       <c r="I2" s="26"/>
     </row>
-    <row r="3" spans="1:9" ht="33.75" thickBot="1">
+    <row r="3" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="54" t="s">
         <v>70</v>
       </c>
@@ -7383,7 +7458,7 @@
       <c r="H3" s="53"/>
       <c r="I3" s="27"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickTop="1">
+    <row r="4" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
         <v>76</v>
       </c>
@@ -7404,7 +7479,7 @@
       <c r="H4" s="52"/>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="25.5">
+    <row r="5" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>80</v>
       </c>
@@ -7425,7 +7500,7 @@
       <c r="H5" s="52"/>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="38.25">
+    <row r="6" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>1099</v>
       </c>
@@ -7446,7 +7521,7 @@
       <c r="H6" s="52"/>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="102">
+    <row r="7" spans="1:9" ht="102" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>1100</v>
       </c>
@@ -7467,7 +7542,7 @@
       <c r="H7" s="48"/>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="51">
+    <row r="8" spans="1:9" ht="51" x14ac:dyDescent="0.25">
       <c r="A8" s="115" t="s">
         <v>214</v>
       </c>
@@ -7488,7 +7563,7 @@
       <c r="H8" s="52"/>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="25.5">
+    <row r="9" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="115" t="s">
         <v>215</v>
       </c>
@@ -7509,7 +7584,7 @@
       <c r="H9" s="52"/>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" s="110" customFormat="1" ht="38.25">
+    <row r="10" spans="1:9" s="110" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A10" s="116" t="s">
         <v>1095</v>
       </c>
@@ -7527,7 +7602,7 @@
       </c>
       <c r="F10" s="109"/>
     </row>
-    <row r="11" spans="1:9" s="110" customFormat="1" ht="38.25">
+    <row r="11" spans="1:9" s="110" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A11" s="116" t="s">
         <v>216</v>
       </c>
@@ -7545,7 +7620,7 @@
       </c>
       <c r="F11" s="109"/>
     </row>
-    <row r="12" spans="1:9" ht="76.5">
+    <row r="12" spans="1:9" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A12" s="106" t="s">
         <v>174</v>
       </c>
@@ -7566,7 +7641,7 @@
       <c r="H12" s="52"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="38.25">
+    <row r="13" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A13" s="106" t="s">
         <v>175</v>
       </c>
@@ -7587,7 +7662,7 @@
       <c r="H13" s="52"/>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="105" t="s">
         <v>95</v>
       </c>
@@ -7608,7 +7683,7 @@
       <c r="H14" s="19"/>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="51">
+    <row r="15" spans="1:9" ht="51" x14ac:dyDescent="0.25">
       <c r="A15" s="107" t="s">
         <v>87</v>
       </c>
@@ -7629,7 +7704,7 @@
       <c r="H15" s="19"/>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" s="55" customFormat="1" ht="25.5">
+    <row r="16" spans="1:9" s="55" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" s="108" t="s">
         <v>130</v>
       </c>
@@ -7649,7 +7724,7 @@
       <c r="H16" s="52"/>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9" ht="25.5">
+    <row r="17" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="106" t="s">
         <v>89</v>
       </c>
@@ -7670,7 +7745,7 @@
       <c r="H17" s="52"/>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" ht="25.5">
+    <row r="18" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A18" s="106" t="s">
         <v>90</v>
       </c>
@@ -7691,7 +7766,7 @@
       <c r="H18" s="52"/>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:9" s="110" customFormat="1" ht="25.5">
+    <row r="19" spans="1:9" s="110" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="106" t="s">
         <v>1106</v>
       </c>
@@ -7709,7 +7784,7 @@
       </c>
       <c r="F19" s="109"/>
     </row>
-    <row r="20" spans="1:9" s="13" customFormat="1" ht="28.5">
+    <row r="20" spans="1:9" s="13" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A20" s="106" t="s">
         <v>124</v>
       </c>
@@ -7729,7 +7804,7 @@
       <c r="H20" s="52"/>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" s="13" customFormat="1" ht="25.5">
+    <row r="21" spans="1:9" s="13" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21" s="108" t="s">
         <v>125</v>
       </c>
@@ -7749,7 +7824,7 @@
       <c r="H21" s="52"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9" s="13" customFormat="1">
+    <row r="22" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="108" t="s">
         <v>126</v>
       </c>
@@ -7769,7 +7844,7 @@
       <c r="H22" s="52"/>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" s="13" customFormat="1">
+    <row r="23" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="108" t="s">
         <v>127</v>
       </c>
@@ -7789,7 +7864,7 @@
       <c r="H23" s="52"/>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="38.25">
+    <row r="24" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A24" s="107" t="s">
         <v>110</v>
       </c>
@@ -7810,7 +7885,7 @@
       <c r="H24" s="52"/>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="51">
+    <row r="25" spans="1:9" ht="51" x14ac:dyDescent="0.25">
       <c r="A25" s="107" t="s">
         <v>111</v>
       </c>
@@ -7831,7 +7906,7 @@
       <c r="H25" s="52"/>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="89.25">
+    <row r="26" spans="1:9" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A26" s="107" t="s">
         <v>92</v>
       </c>
@@ -7852,7 +7927,7 @@
       <c r="H26" s="19"/>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" ht="38.25">
+    <row r="27" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A27" s="107" t="s">
         <v>93</v>
       </c>
@@ -7873,7 +7948,7 @@
       <c r="H27" s="19"/>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" s="55" customFormat="1" ht="38.25">
+    <row r="28" spans="1:9" s="55" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A28" s="107" t="s">
         <v>197</v>
       </c>
@@ -7893,7 +7968,7 @@
       <c r="H28" s="19"/>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="25.5">
+    <row r="29" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A29" s="106" t="s">
         <v>198</v>
       </c>
@@ -7914,7 +7989,7 @@
       <c r="H29" s="48"/>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" ht="25.5">
+    <row r="30" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A30" s="40" t="s">
         <v>98</v>
       </c>
@@ -7935,7 +8010,7 @@
       <c r="H30" s="19"/>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="51">
+    <row r="31" spans="1:9" ht="51" x14ac:dyDescent="0.25">
       <c r="A31" s="41" t="s">
         <v>201</v>
       </c>
@@ -7956,7 +8031,7 @@
       <c r="H31" s="52"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="41" t="s">
         <v>202</v>
       </c>
@@ -7977,7 +8052,7 @@
       <c r="H32" s="52"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:12" s="13" customFormat="1" ht="38.25">
+    <row r="33" spans="1:12" s="13" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A33" s="41" t="s">
         <v>203</v>
       </c>
@@ -7997,7 +8072,7 @@
       <c r="H33" s="52"/>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:12" ht="25.5">
+    <row r="34" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A34" s="42" t="s">
         <v>207</v>
       </c>
@@ -8018,7 +8093,7 @@
       <c r="H34" s="19"/>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:12" ht="38.25">
+    <row r="35" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A35" s="42" t="s">
         <v>99</v>
       </c>
@@ -8039,7 +8114,7 @@
       <c r="H35" s="19"/>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:12" ht="25.5">
+    <row r="36" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A36" s="45" t="s">
         <v>100</v>
       </c>
@@ -8060,7 +8135,7 @@
       <c r="H36" s="52"/>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:12" s="55" customFormat="1" ht="25.5">
+    <row r="37" spans="1:12" s="55" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A37" s="50" t="s">
         <v>1112</v>
       </c>
@@ -8080,7 +8155,7 @@
       <c r="H37" s="52"/>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:12" ht="76.5">
+    <row r="38" spans="1:12" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A38" s="47" t="s">
         <v>68</v>
       </c>
@@ -8101,7 +8176,7 @@
       <c r="H38" s="52"/>
       <c r="I38" s="23"/>
     </row>
-    <row r="39" spans="1:12" ht="127.5">
+    <row r="39" spans="1:12" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A39" s="47" t="s">
         <v>102</v>
       </c>
@@ -8125,7 +8200,7 @@
       <c r="K39" s="13"/>
       <c r="L39" s="13"/>
     </row>
-    <row r="40" spans="1:12" ht="25.5">
+    <row r="40" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A40" s="47" t="s">
         <v>115</v>
       </c>
@@ -8149,7 +8224,7 @@
       <c r="K40" s="13"/>
       <c r="L40" s="13"/>
     </row>
-    <row r="41" spans="1:12" ht="25.5">
+    <row r="41" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A41" s="45" t="s">
         <v>1098</v>
       </c>
@@ -8173,7 +8248,7 @@
       <c r="K41" s="13"/>
       <c r="L41" s="13"/>
     </row>
-    <row r="42" spans="1:12" s="13" customFormat="1">
+    <row r="42" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="45" t="s">
         <v>120</v>
       </c>
@@ -8190,7 +8265,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="43" spans="1:12" s="13" customFormat="1">
+    <row r="43" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="45" t="s">
         <v>121</v>
       </c>
@@ -8207,7 +8282,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="44" spans="1:12" s="13" customFormat="1" ht="25.5">
+    <row r="44" spans="1:12" s="13" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A44" s="45" t="s">
         <v>122</v>
       </c>
@@ -8224,7 +8299,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="27">
+    <row r="45" spans="1:12" ht="27" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
         <v>210</v>
       </c>
@@ -8248,7 +8323,7 @@
       <c r="K45" s="13"/>
       <c r="L45" s="13"/>
     </row>
-    <row r="46" spans="1:12" s="13" customFormat="1" ht="65.25">
+    <row r="46" spans="1:12" s="13" customFormat="1" ht="65.25" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
         <v>118</v>
       </c>
@@ -8268,7 +8343,7 @@
       <c r="H46" s="19"/>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:12" ht="38.25">
+    <row r="47" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A47" s="34" t="s">
         <v>103</v>
       </c>
@@ -8289,7 +8364,7 @@
       <c r="H47" s="52"/>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:12" ht="26.25" thickBot="1">
+    <row r="48" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="46" t="s">
         <v>105</v>
       </c>
@@ -8313,7 +8388,7 @@
       <c r="K48" s="25"/>
       <c r="L48" s="25"/>
     </row>
-    <row r="49" spans="1:12" ht="51">
+    <row r="49" spans="1:12" ht="51" x14ac:dyDescent="0.25">
       <c r="A49" s="120" t="s">
         <v>108</v>
       </c>
@@ -8361,7 +8436,7 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.28515625" customWidth="1"/>
@@ -8372,10 +8447,10 @@
     <col min="7" max="7" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C1" s="140"/>
     </row>
-    <row r="2" spans="1:4" s="3" customFormat="1">
+    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="141" t="s">
         <v>68</v>
       </c>
@@ -8383,7 +8458,7 @@
       <c r="C2" s="143"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" s="3" customFormat="1">
+    <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="142" t="s">
         <v>1</v>
       </c>
@@ -8391,7 +8466,7 @@
       <c r="C3" s="144"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" s="3" customFormat="1">
+    <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="142" t="s">
         <v>2</v>
       </c>
@@ -8399,7 +8474,7 @@
       <c r="C4" s="143"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" s="3" customFormat="1">
+    <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="142" t="s">
         <v>3</v>
       </c>
@@ -8407,7 +8482,7 @@
       <c r="C5" s="143"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" s="3" customFormat="1">
+    <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="142" t="s">
         <v>4</v>
       </c>
@@ -8415,29 +8490,29 @@
       <c r="C6" s="143"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" s="3" customFormat="1">
+    <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="142" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="193" t="s">
+      <c r="B7" s="191" t="s">
         <v>114</v>
       </c>
       <c r="C7" s="145"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="194"/>
+      <c r="B8" s="192"/>
       <c r="C8" s="145"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" s="1" customFormat="1"/>
-    <row r="10" spans="1:4" s="1" customFormat="1">
+    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10"/>
     </row>
-    <row r="11" spans="1:4" s="110" customFormat="1" ht="20.25" thickBot="1">
+    <row r="11" spans="1:4" s="110" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="150" t="s">
         <v>1115</v>
       </c>
@@ -8445,118 +8520,118 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="110" customFormat="1" ht="15.75" thickTop="1">
+    <row r="12" spans="1:4" s="110" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="147" t="s">
         <v>1117</v>
       </c>
       <c r="B12" s="148"/>
     </row>
-    <row r="13" spans="1:4" s="110" customFormat="1">
+    <row r="13" spans="1:4" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="147" t="s">
         <v>1118</v>
       </c>
       <c r="B13" s="148"/>
     </row>
-    <row r="14" spans="1:4" s="110" customFormat="1">
+    <row r="14" spans="1:4" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="147" t="s">
         <v>1119</v>
       </c>
       <c r="B14" s="148"/>
     </row>
-    <row r="15" spans="1:4" s="110" customFormat="1">
+    <row r="15" spans="1:4" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="147" t="s">
         <v>1120</v>
       </c>
       <c r="B15" s="148"/>
     </row>
-    <row r="16" spans="1:4" s="110" customFormat="1">
+    <row r="16" spans="1:4" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="147" t="s">
         <v>1121</v>
       </c>
       <c r="B16" s="148"/>
     </row>
-    <row r="17" spans="1:3" s="110" customFormat="1">
+    <row r="17" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="147" t="s">
         <v>1122</v>
       </c>
       <c r="B17" s="148"/>
     </row>
-    <row r="18" spans="1:3" s="110" customFormat="1">
+    <row r="18" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="147" t="s">
         <v>1123</v>
       </c>
       <c r="B18" s="148"/>
     </row>
-    <row r="19" spans="1:3" s="110" customFormat="1">
+    <row r="19" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="147" t="s">
         <v>1124</v>
       </c>
       <c r="B19" s="148"/>
     </row>
-    <row r="20" spans="1:3" s="110" customFormat="1">
+    <row r="20" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="147" t="s">
         <v>1125</v>
       </c>
       <c r="B20" s="148"/>
       <c r="C20" s="55"/>
     </row>
-    <row r="21" spans="1:3" s="110" customFormat="1">
+    <row r="21" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="147" t="s">
         <v>1126</v>
       </c>
       <c r="B21" s="148"/>
       <c r="C21" s="55"/>
     </row>
-    <row r="22" spans="1:3" s="110" customFormat="1">
+    <row r="22" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="147" t="s">
         <v>1127</v>
       </c>
       <c r="B22" s="148"/>
       <c r="C22" s="55"/>
     </row>
-    <row r="23" spans="1:3" s="110" customFormat="1">
+    <row r="23" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="147" t="s">
         <v>1128</v>
       </c>
       <c r="B23" s="148"/>
       <c r="C23" s="55"/>
     </row>
-    <row r="24" spans="1:3" s="110" customFormat="1">
+    <row r="24" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="147" t="s">
         <v>1129</v>
       </c>
       <c r="B24" s="148"/>
       <c r="C24" s="55"/>
     </row>
-    <row r="25" spans="1:3" s="110" customFormat="1">
+    <row r="25" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="147" t="s">
         <v>1130</v>
       </c>
       <c r="B25" s="148"/>
       <c r="C25" s="55"/>
     </row>
-    <row r="26" spans="1:3" s="110" customFormat="1">
+    <row r="26" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="147" t="s">
         <v>1131</v>
       </c>
       <c r="B26" s="148"/>
       <c r="C26" s="55"/>
     </row>
-    <row r="27" spans="1:3" s="110" customFormat="1">
+    <row r="27" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="147" t="s">
         <v>1132</v>
       </c>
       <c r="B27" s="148"/>
       <c r="C27" s="55"/>
     </row>
-    <row r="28" spans="1:3" s="110" customFormat="1">
+    <row r="28" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="147" t="s">
         <v>1133</v>
       </c>
       <c r="B28" s="148"/>
       <c r="C28" s="55"/>
     </row>
-    <row r="29" spans="1:3" s="1" customFormat="1">
+    <row r="29" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="149" t="s">
         <v>6</v>
       </c>
@@ -8564,24 +8639,24 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="1" customFormat="1">
+    <row r="30" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="143"/>
       <c r="B30"/>
     </row>
-    <row r="31" spans="1:3" s="1" customFormat="1"/>
-    <row r="32" spans="1:3">
+    <row r="31" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B32" s="5"/>
     </row>
-    <row r="33" spans="1:5" s="2" customFormat="1">
+    <row r="33" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B33" s="6"/>
     </row>
-    <row r="34" spans="1:5" s="2" customFormat="1">
+    <row r="34" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>9</v>
       </c>
@@ -8590,7 +8665,7 @@
       <c r="D34" s="140"/>
       <c r="E34" s="140"/>
     </row>
-    <row r="35" spans="1:5" s="2" customFormat="1">
+    <row r="35" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>10</v>
       </c>
@@ -8599,7 +8674,7 @@
       <c r="D35" s="140"/>
       <c r="E35" s="140"/>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1">
+    <row r="36" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>11</v>
       </c>
@@ -8608,7 +8683,7 @@
       <c r="D36" s="140"/>
       <c r="E36" s="140"/>
     </row>
-    <row r="37" spans="1:5" s="2" customFormat="1">
+    <row r="37" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>12</v>
       </c>
@@ -8617,7 +8692,7 @@
       <c r="D37" s="140"/>
       <c r="E37" s="140"/>
     </row>
-    <row r="38" spans="1:5" s="2" customFormat="1">
+    <row r="38" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>13</v>
       </c>
@@ -8626,7 +8701,7 @@
       <c r="D38" s="140"/>
       <c r="E38" s="140"/>
     </row>
-    <row r="39" spans="1:5" s="2" customFormat="1">
+    <row r="39" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>14</v>
       </c>
@@ -8635,7 +8710,7 @@
       <c r="D39" s="140"/>
       <c r="E39" s="140"/>
     </row>
-    <row r="40" spans="1:5" s="2" customFormat="1">
+    <row r="40" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>15</v>
       </c>
@@ -8644,7 +8719,7 @@
       <c r="D40" s="140"/>
       <c r="E40" s="140"/>
     </row>
-    <row r="41" spans="1:5" s="2" customFormat="1">
+    <row r="41" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>16</v>
       </c>
@@ -8653,7 +8728,7 @@
       <c r="D41" s="140"/>
       <c r="E41" s="140"/>
     </row>
-    <row r="42" spans="1:5" s="2" customFormat="1">
+    <row r="42" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>17</v>
       </c>
@@ -8662,7 +8737,7 @@
       <c r="D42" s="140"/>
       <c r="E42" s="140"/>
     </row>
-    <row r="43" spans="1:5" s="2" customFormat="1">
+    <row r="43" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>18</v>
       </c>
@@ -8671,7 +8746,7 @@
       <c r="D43" s="140"/>
       <c r="E43" s="140"/>
     </row>
-    <row r="44" spans="1:5" s="2" customFormat="1">
+    <row r="44" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>19</v>
       </c>
@@ -8680,7 +8755,7 @@
       <c r="D44" s="140"/>
       <c r="E44" s="140"/>
     </row>
-    <row r="45" spans="1:5" s="2" customFormat="1">
+    <row r="45" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>20</v>
       </c>
@@ -8689,7 +8764,7 @@
       <c r="D45" s="140"/>
       <c r="E45" s="140"/>
     </row>
-    <row r="46" spans="1:5" s="2" customFormat="1">
+    <row r="46" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>21</v>
       </c>
@@ -8698,7 +8773,7 @@
       <c r="D46" s="140"/>
       <c r="E46" s="140"/>
     </row>
-    <row r="47" spans="1:5" s="2" customFormat="1">
+    <row r="47" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>22</v>
       </c>
@@ -8707,7 +8782,7 @@
       <c r="D47" s="140"/>
       <c r="E47" s="140"/>
     </row>
-    <row r="48" spans="1:5" s="2" customFormat="1">
+    <row r="48" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>23</v>
       </c>
@@ -8716,7 +8791,7 @@
       <c r="D48" s="140"/>
       <c r="E48" s="140"/>
     </row>
-    <row r="49" spans="1:5" s="2" customFormat="1">
+    <row r="49" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>24</v>
       </c>
@@ -8725,7 +8800,7 @@
       <c r="D49" s="140"/>
       <c r="E49" s="140"/>
     </row>
-    <row r="50" spans="1:5" s="2" customFormat="1">
+    <row r="50" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>25</v>
       </c>
@@ -8734,7 +8809,7 @@
       <c r="D50" s="140"/>
       <c r="E50" s="140"/>
     </row>
-    <row r="51" spans="1:5" s="2" customFormat="1">
+    <row r="51" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>26</v>
       </c>
@@ -8743,7 +8818,7 @@
       <c r="D51" s="140"/>
       <c r="E51" s="140"/>
     </row>
-    <row r="52" spans="1:5" s="2" customFormat="1">
+    <row r="52" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>27</v>
       </c>
@@ -8752,7 +8827,7 @@
       <c r="D52" s="140"/>
       <c r="E52" s="140"/>
     </row>
-    <row r="53" spans="1:5" s="2" customFormat="1">
+    <row r="53" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>28</v>
       </c>
@@ -8761,7 +8836,7 @@
       <c r="D53" s="140"/>
       <c r="E53" s="140"/>
     </row>
-    <row r="54" spans="1:5" s="2" customFormat="1">
+    <row r="54" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>29</v>
       </c>
@@ -8770,7 +8845,7 @@
       <c r="D54" s="140"/>
       <c r="E54" s="140"/>
     </row>
-    <row r="55" spans="1:5" s="2" customFormat="1">
+    <row r="55" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>30</v>
       </c>
@@ -8779,7 +8854,7 @@
       <c r="D55" s="140"/>
       <c r="E55" s="140"/>
     </row>
-    <row r="56" spans="1:5" s="2" customFormat="1">
+    <row r="56" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>31</v>
       </c>
@@ -8788,7 +8863,7 @@
       <c r="D56" s="140"/>
       <c r="E56" s="140"/>
     </row>
-    <row r="57" spans="1:5" s="2" customFormat="1">
+    <row r="57" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>32</v>
       </c>
@@ -8797,7 +8872,7 @@
       <c r="D57" s="140"/>
       <c r="E57" s="140"/>
     </row>
-    <row r="58" spans="1:5" s="2" customFormat="1">
+    <row r="58" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>33</v>
       </c>
@@ -8806,7 +8881,7 @@
       <c r="D58" s="140"/>
       <c r="E58" s="140"/>
     </row>
-    <row r="59" spans="1:5" s="2" customFormat="1">
+    <row r="59" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>34</v>
       </c>
@@ -8815,7 +8890,7 @@
       <c r="D59" s="140"/>
       <c r="E59" s="140"/>
     </row>
-    <row r="60" spans="1:5" s="2" customFormat="1">
+    <row r="60" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>35</v>
       </c>
@@ -8824,7 +8899,7 @@
       <c r="D60" s="140"/>
       <c r="E60" s="140"/>
     </row>
-    <row r="61" spans="1:5" s="2" customFormat="1">
+    <row r="61" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>36</v>
       </c>
@@ -8833,7 +8908,7 @@
       <c r="D61" s="140"/>
       <c r="E61" s="140"/>
     </row>
-    <row r="62" spans="1:5" s="2" customFormat="1">
+    <row r="62" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>37</v>
       </c>
@@ -8842,7 +8917,7 @@
       <c r="D62" s="140"/>
       <c r="E62" s="140"/>
     </row>
-    <row r="63" spans="1:5" s="2" customFormat="1">
+    <row r="63" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>38</v>
       </c>
@@ -8851,7 +8926,7 @@
       <c r="D63" s="140"/>
       <c r="E63" s="140"/>
     </row>
-    <row r="64" spans="1:5" s="2" customFormat="1">
+    <row r="64" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>39</v>
       </c>
@@ -8860,7 +8935,7 @@
       <c r="D64" s="140"/>
       <c r="E64" s="140"/>
     </row>
-    <row r="65" spans="1:5" s="2" customFormat="1">
+    <row r="65" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>40</v>
       </c>
@@ -8869,7 +8944,7 @@
       <c r="D65" s="140"/>
       <c r="E65" s="140"/>
     </row>
-    <row r="66" spans="1:5" s="2" customFormat="1">
+    <row r="66" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>41</v>
       </c>
@@ -8878,7 +8953,7 @@
       <c r="D66" s="140"/>
       <c r="E66" s="140"/>
     </row>
-    <row r="67" spans="1:5" s="2" customFormat="1">
+    <row r="67" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>42</v>
       </c>
@@ -8887,7 +8962,7 @@
       <c r="D67" s="140"/>
       <c r="E67" s="140"/>
     </row>
-    <row r="68" spans="1:5" s="2" customFormat="1">
+    <row r="68" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>43</v>
       </c>
@@ -8896,7 +8971,7 @@
       <c r="D68" s="140"/>
       <c r="E68" s="140"/>
     </row>
-    <row r="69" spans="1:5" s="2" customFormat="1">
+    <row r="69" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>44</v>
       </c>
@@ -8905,7 +8980,7 @@
       <c r="D69" s="140"/>
       <c r="E69" s="140"/>
     </row>
-    <row r="70" spans="1:5" s="2" customFormat="1">
+    <row r="70" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>45</v>
       </c>
@@ -8914,7 +8989,7 @@
       <c r="D70" s="140"/>
       <c r="E70" s="140"/>
     </row>
-    <row r="71" spans="1:5" s="2" customFormat="1">
+    <row r="71" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>46</v>
       </c>
@@ -8923,7 +8998,7 @@
       <c r="D71" s="140"/>
       <c r="E71" s="140"/>
     </row>
-    <row r="72" spans="1:5" s="2" customFormat="1">
+    <row r="72" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>47</v>
       </c>
@@ -8932,7 +9007,7 @@
       <c r="D72" s="140"/>
       <c r="E72" s="140"/>
     </row>
-    <row r="73" spans="1:5" s="2" customFormat="1">
+    <row r="73" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>48</v>
       </c>
@@ -8941,7 +9016,7 @@
       <c r="D73" s="140"/>
       <c r="E73" s="140"/>
     </row>
-    <row r="74" spans="1:5" s="2" customFormat="1">
+    <row r="74" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>49</v>
       </c>
@@ -8950,7 +9025,7 @@
       <c r="D74" s="140"/>
       <c r="E74" s="140"/>
     </row>
-    <row r="75" spans="1:5" s="2" customFormat="1">
+    <row r="75" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>50</v>
       </c>
@@ -8959,7 +9034,7 @@
       <c r="D75" s="140"/>
       <c r="E75" s="140"/>
     </row>
-    <row r="76" spans="1:5" s="2" customFormat="1">
+    <row r="76" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>51</v>
       </c>
@@ -8968,7 +9043,7 @@
       <c r="D76" s="140"/>
       <c r="E76" s="140"/>
     </row>
-    <row r="77" spans="1:5" s="2" customFormat="1">
+    <row r="77" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>52</v>
       </c>
@@ -8977,7 +9052,7 @@
       <c r="D77" s="140"/>
       <c r="E77" s="140"/>
     </row>
-    <row r="78" spans="1:5" s="2" customFormat="1">
+    <row r="78" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>53</v>
       </c>
@@ -8986,7 +9061,7 @@
       <c r="D78" s="140"/>
       <c r="E78" s="140"/>
     </row>
-    <row r="79" spans="1:5" s="2" customFormat="1">
+    <row r="79" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>54</v>
       </c>
@@ -8995,7 +9070,7 @@
       <c r="D79" s="140"/>
       <c r="E79" s="140"/>
     </row>
-    <row r="80" spans="1:5" s="2" customFormat="1">
+    <row r="80" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>55</v>
       </c>
@@ -9004,7 +9079,7 @@
       <c r="D80" s="140"/>
       <c r="E80" s="140"/>
     </row>
-    <row r="81" spans="1:5" s="2" customFormat="1">
+    <row r="81" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>56</v>
       </c>
@@ -9013,7 +9088,7 @@
       <c r="D81" s="140"/>
       <c r="E81" s="140"/>
     </row>
-    <row r="82" spans="1:5" s="2" customFormat="1">
+    <row r="82" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>57</v>
       </c>
@@ -9022,7 +9097,7 @@
       <c r="D82" s="140"/>
       <c r="E82" s="140"/>
     </row>
-    <row r="83" spans="1:5" s="2" customFormat="1">
+    <row r="83" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>58</v>
       </c>
@@ -9031,7 +9106,7 @@
       <c r="D83" s="140"/>
       <c r="E83" s="140"/>
     </row>
-    <row r="84" spans="1:5" s="2" customFormat="1">
+    <row r="84" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>59</v>
       </c>
@@ -9040,7 +9115,7 @@
       <c r="D84" s="140"/>
       <c r="E84" s="140"/>
     </row>
-    <row r="85" spans="1:5" s="2" customFormat="1">
+    <row r="85" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>60</v>
       </c>
@@ -9049,7 +9124,7 @@
       <c r="D85" s="140"/>
       <c r="E85" s="140"/>
     </row>
-    <row r="86" spans="1:5" s="2" customFormat="1">
+    <row r="86" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>61</v>
       </c>
@@ -9058,7 +9133,7 @@
       <c r="D86" s="140"/>
       <c r="E86" s="140"/>
     </row>
-    <row r="87" spans="1:5" s="2" customFormat="1">
+    <row r="87" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>62</v>
       </c>
@@ -9067,7 +9142,7 @@
       <c r="D87" s="140"/>
       <c r="E87" s="140"/>
     </row>
-    <row r="88" spans="1:5" s="2" customFormat="1">
+    <row r="88" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>63</v>
       </c>
@@ -9076,15 +9151,15 @@
       <c r="D88" s="140"/>
       <c r="E88" s="140"/>
     </row>
-    <row r="89" spans="1:5" s="2" customFormat="1"/>
-    <row r="90" spans="1:5" s="2" customFormat="1"/>
-    <row r="91" spans="1:5" s="2" customFormat="1">
+    <row r="89" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
         <v>64</v>
       </c>
       <c r="B91" s="7"/>
     </row>
-    <row r="92" spans="1:5" s="2" customFormat="1">
+    <row r="92" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
         <v>65</v>
       </c>
@@ -9092,7 +9167,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="93" spans="1:5" s="2" customFormat="1">
+    <row r="93" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="10">
         <v>4326</v>
       </c>
@@ -9100,8 +9175,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="94" spans="1:5" s="2" customFormat="1"/>
-    <row r="95" spans="1:5" s="2" customFormat="1"/>
+    <row r="94" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B7:B8"/>
@@ -9122,7 +9197,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" style="113" customWidth="1"/>
     <col min="2" max="2" width="59.28515625" style="113" customWidth="1"/>
@@ -9131,7 +9206,7 @@
     <col min="5" max="16384" width="8.85546875" style="112"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="111" t="s">
         <v>66</v>
       </c>
@@ -9145,7 +9220,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="113" t="s">
         <v>219</v>
       </c>
@@ -9159,7 +9234,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="113" t="s">
         <v>223</v>
       </c>
@@ -9173,7 +9248,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="105">
+    <row r="4" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="113" t="s">
         <v>226</v>
       </c>
@@ -9187,7 +9262,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30">
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="113" t="s">
         <v>230</v>
       </c>
@@ -9201,7 +9276,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="113" t="s">
         <v>234</v>
       </c>
@@ -9215,7 +9290,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30">
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="113" t="s">
         <v>237</v>
       </c>
@@ -9229,7 +9304,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30">
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="113" t="s">
         <v>240</v>
       </c>
@@ -9243,7 +9318,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="45">
+    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="113" t="s">
         <v>243</v>
       </c>
@@ -9257,7 +9332,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30">
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="113" t="s">
         <v>246</v>
       </c>
@@ -9271,7 +9346,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="120">
+    <row r="11" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="113" t="s">
         <v>249</v>
       </c>
@@ -9285,7 +9360,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="210">
+    <row r="12" spans="1:4" ht="210" x14ac:dyDescent="0.25">
       <c r="A12" s="113" t="s">
         <v>253</v>
       </c>
@@ -9299,7 +9374,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="30">
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="113" t="s">
         <v>256</v>
       </c>
@@ -9313,7 +9388,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="90">
+    <row r="14" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="113" t="s">
         <v>259</v>
       </c>
@@ -9327,7 +9402,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="105">
+    <row r="15" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" s="113" t="s">
         <v>263</v>
       </c>
@@ -9341,7 +9416,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="30">
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="113" t="s">
         <v>267</v>
       </c>
@@ -9355,7 +9430,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="45">
+    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="113" t="s">
         <v>271</v>
       </c>
@@ -9369,7 +9444,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30">
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="113" t="s">
         <v>274</v>
       </c>
@@ -9383,7 +9458,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="60">
+    <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="113" t="s">
         <v>277</v>
       </c>
@@ -9397,7 +9472,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="60">
+    <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="113" t="s">
         <v>281</v>
       </c>
@@ -9411,7 +9486,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="30">
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="113" t="s">
         <v>285</v>
       </c>
@@ -9425,7 +9500,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="45">
+    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="113" t="s">
         <v>289</v>
       </c>
@@ -9439,7 +9514,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="45">
+    <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="113" t="s">
         <v>292</v>
       </c>
@@ -9453,7 +9528,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="210">
+    <row r="24" spans="1:4" ht="210" x14ac:dyDescent="0.25">
       <c r="A24" s="113" t="s">
         <v>295</v>
       </c>
@@ -9467,7 +9542,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="45">
+    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="113" t="s">
         <v>298</v>
       </c>
@@ -9481,7 +9556,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="60">
+    <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="113" t="s">
         <v>301</v>
       </c>
@@ -9495,7 +9570,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="30">
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="113" t="s">
         <v>304</v>
       </c>
@@ -9509,7 +9584,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="30">
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="113" t="s">
         <v>307</v>
       </c>
@@ -9523,7 +9598,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="90">
+    <row r="29" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A29" s="113" t="s">
         <v>310</v>
       </c>
@@ -9537,7 +9612,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="60">
+    <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="113" t="s">
         <v>314</v>
       </c>
@@ -9551,7 +9626,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="60">
+    <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="113" t="s">
         <v>318</v>
       </c>
@@ -9565,7 +9640,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="135">
+    <row r="32" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A32" s="113" t="s">
         <v>322</v>
       </c>
@@ -9579,7 +9654,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="60">
+    <row r="33" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="113" t="s">
         <v>326</v>
       </c>
@@ -9593,7 +9668,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="30">
+    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="113" t="s">
         <v>329</v>
       </c>
@@ -9607,7 +9682,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="75">
+    <row r="35" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="113" t="s">
         <v>333</v>
       </c>
@@ -9621,7 +9696,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="210">
+    <row r="36" spans="1:4" ht="210" x14ac:dyDescent="0.25">
       <c r="A36" s="113" t="s">
         <v>337</v>
       </c>
@@ -9635,7 +9710,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="60">
+    <row r="37" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="113" t="s">
         <v>340</v>
       </c>
@@ -9649,7 +9724,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="30">
+    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="113" t="s">
         <v>344</v>
       </c>
@@ -9663,7 +9738,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="60">
+    <row r="39" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="113" t="s">
         <v>348</v>
       </c>
@@ -9677,7 +9752,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="45">
+    <row r="40" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="113" t="s">
         <v>351</v>
       </c>
@@ -9691,7 +9766,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="45">
+    <row r="41" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="113" t="s">
         <v>355</v>
       </c>
@@ -9705,7 +9780,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="30">
+    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="113" t="s">
         <v>359</v>
       </c>
@@ -9719,7 +9794,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="30">
+    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="113" t="s">
         <v>362</v>
       </c>
@@ -9733,7 +9808,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="45">
+    <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="113" t="s">
         <v>365</v>
       </c>
@@ -9747,7 +9822,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="45">
+    <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="113" t="s">
         <v>368</v>
       </c>
@@ -9761,7 +9836,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="60">
+    <row r="46" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="113" t="s">
         <v>371</v>
       </c>
@@ -9775,7 +9850,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="60">
+    <row r="47" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="113" t="s">
         <v>374</v>
       </c>
@@ -9789,7 +9864,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="60">
+    <row r="48" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="113" t="s">
         <v>377</v>
       </c>
@@ -9803,7 +9878,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="75">
+    <row r="49" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A49" s="113" t="s">
         <v>380</v>
       </c>
@@ -9817,7 +9892,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="30">
+    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="113" t="s">
         <v>384</v>
       </c>
@@ -9831,7 +9906,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="90">
+    <row r="51" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A51" s="113" t="s">
         <v>387</v>
       </c>
@@ -9845,7 +9920,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="105">
+    <row r="52" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A52" s="113" t="s">
         <v>391</v>
       </c>
@@ -9859,7 +9934,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="60">
+    <row r="53" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="113" t="s">
         <v>395</v>
       </c>
@@ -9873,7 +9948,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="45">
+    <row r="54" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="113" t="s">
         <v>398</v>
       </c>
@@ -9887,7 +9962,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="135">
+    <row r="55" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A55" s="113" t="s">
         <v>401</v>
       </c>
@@ -9901,7 +9976,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="45">
+    <row r="56" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="113" t="s">
         <v>405</v>
       </c>
@@ -9915,7 +9990,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="45">
+    <row r="57" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="113" t="s">
         <v>409</v>
       </c>
@@ -9929,7 +10004,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="75">
+    <row r="58" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A58" s="113" t="s">
         <v>413</v>
       </c>
@@ -9943,7 +10018,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="90">
+    <row r="59" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A59" s="113" t="s">
         <v>417</v>
       </c>
@@ -9957,7 +10032,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="75">
+    <row r="60" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A60" s="113" t="s">
         <v>420</v>
       </c>
@@ -9971,7 +10046,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="30">
+    <row r="61" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="113" t="s">
         <v>423</v>
       </c>
@@ -9985,7 +10060,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="30">
+    <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="113" t="s">
         <v>427</v>
       </c>
@@ -9999,7 +10074,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="105">
+    <row r="63" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A63" s="113" t="s">
         <v>430</v>
       </c>
@@ -10013,7 +10088,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="30">
+    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="113" t="s">
         <v>434</v>
       </c>
@@ -10027,7 +10102,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="105">
+    <row r="65" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A65" s="113" t="s">
         <v>437</v>
       </c>
@@ -10041,7 +10116,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="90">
+    <row r="66" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A66" s="113" t="s">
         <v>440</v>
       </c>
@@ -10055,7 +10130,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="60">
+    <row r="67" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" s="113" t="s">
         <v>443</v>
       </c>
@@ -10069,7 +10144,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="45">
+    <row r="68" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="113" t="s">
         <v>447</v>
       </c>
@@ -10083,7 +10158,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="120">
+    <row r="69" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A69" s="113" t="s">
         <v>450</v>
       </c>
@@ -10097,7 +10172,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="135">
+    <row r="70" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A70" s="113" t="s">
         <v>453</v>
       </c>
@@ -10111,7 +10186,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="120">
+    <row r="71" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A71" s="113" t="s">
         <v>457</v>
       </c>
@@ -10125,7 +10200,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="75">
+    <row r="72" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A72" s="113" t="s">
         <v>460</v>
       </c>
@@ -10139,7 +10214,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="75">
+    <row r="73" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A73" s="113" t="s">
         <v>463</v>
       </c>
@@ -10153,7 +10228,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="120">
+    <row r="74" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A74" s="113" t="s">
         <v>466</v>
       </c>
@@ -10167,7 +10242,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="75">
+    <row r="75" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A75" s="113" t="s">
         <v>469</v>
       </c>
@@ -10181,7 +10256,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="60">
+    <row r="76" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" s="113" t="s">
         <v>473</v>
       </c>
@@ -10195,7 +10270,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="45">
+    <row r="77" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="113" t="s">
         <v>477</v>
       </c>
@@ -10209,7 +10284,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="30">
+    <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="113" t="s">
         <v>480</v>
       </c>
@@ -10223,7 +10298,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="30">
+    <row r="79" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="113" t="s">
         <v>483</v>
       </c>
@@ -10237,7 +10312,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="45">
+    <row r="80" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="113" t="s">
         <v>486</v>
       </c>
@@ -10251,7 +10326,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="75">
+    <row r="81" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A81" s="113" t="s">
         <v>489</v>
       </c>
@@ -10265,7 +10340,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="60">
+    <row r="82" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A82" s="113" t="s">
         <v>493</v>
       </c>
@@ -10279,7 +10354,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="45">
+    <row r="83" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" s="113" t="s">
         <v>497</v>
       </c>
@@ -10293,7 +10368,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="105">
+    <row r="84" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A84" s="113" t="s">
         <v>501</v>
       </c>
@@ -10307,7 +10382,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="30">
+    <row r="85" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="113" t="s">
         <v>505</v>
       </c>
@@ -10321,7 +10396,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="60">
+    <row r="86" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A86" s="113" t="s">
         <v>508</v>
       </c>
@@ -10335,7 +10410,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="90">
+    <row r="87" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A87" s="113" t="s">
         <v>512</v>
       </c>
@@ -10349,7 +10424,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="45">
+    <row r="88" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="113" t="s">
         <v>515</v>
       </c>
@@ -10363,7 +10438,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="45">
+    <row r="89" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="113" t="s">
         <v>518</v>
       </c>
@@ -10377,7 +10452,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="45">
+    <row r="90" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="113" t="s">
         <v>521</v>
       </c>
@@ -10391,7 +10466,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="30">
+    <row r="91" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="113" t="s">
         <v>524</v>
       </c>
@@ -10405,7 +10480,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="30">
+    <row r="92" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="113" t="s">
         <v>527</v>
       </c>
@@ -10419,7 +10494,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="45">
+    <row r="93" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="113" t="s">
         <v>530</v>
       </c>
@@ -10433,7 +10508,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="30">
+    <row r="94" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="113" t="s">
         <v>533</v>
       </c>
@@ -10447,7 +10522,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="30">
+    <row r="95" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="113" t="s">
         <v>536</v>
       </c>
@@ -10461,7 +10536,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="45">
+    <row r="96" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="113" t="s">
         <v>539</v>
       </c>
@@ -10475,7 +10550,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="45">
+    <row r="97" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="113" t="s">
         <v>542</v>
       </c>
@@ -10489,7 +10564,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="30">
+    <row r="98" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="113" t="s">
         <v>545</v>
       </c>
@@ -10503,7 +10578,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="45">
+    <row r="99" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="113" t="s">
         <v>548</v>
       </c>
@@ -10517,7 +10592,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="90">
+    <row r="100" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A100" s="113" t="s">
         <v>551</v>
       </c>
@@ -10531,7 +10606,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="45">
+    <row r="101" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="113" t="s">
         <v>554</v>
       </c>
@@ -10545,7 +10620,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="90">
+    <row r="102" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A102" s="113" t="s">
         <v>557</v>
       </c>
@@ -10559,7 +10634,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="45">
+    <row r="103" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="113" t="s">
         <v>560</v>
       </c>
@@ -10573,7 +10648,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="45">
+    <row r="104" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A104" s="113" t="s">
         <v>563</v>
       </c>
@@ -10587,7 +10662,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="45">
+    <row r="105" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A105" s="113" t="s">
         <v>566</v>
       </c>
@@ -10601,7 +10676,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="30">
+    <row r="106" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="113" t="s">
         <v>569</v>
       </c>
@@ -10615,7 +10690,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="60">
+    <row r="107" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A107" s="113" t="s">
         <v>572</v>
       </c>
@@ -10629,7 +10704,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="30">
+    <row r="108" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="113" t="s">
         <v>575</v>
       </c>
@@ -10643,7 +10718,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="60">
+    <row r="109" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A109" s="113" t="s">
         <v>578</v>
       </c>
@@ -10657,7 +10732,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="45">
+    <row r="110" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A110" s="113" t="s">
         <v>581</v>
       </c>
@@ -10671,7 +10746,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="60">
+    <row r="111" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A111" s="113" t="s">
         <v>584</v>
       </c>
@@ -10685,7 +10760,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="45">
+    <row r="112" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="113" t="s">
         <v>588</v>
       </c>
@@ -10699,7 +10774,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="75">
+    <row r="113" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A113" s="113" t="s">
         <v>592</v>
       </c>
@@ -10713,7 +10788,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="60">
+    <row r="114" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A114" s="113" t="s">
         <v>595</v>
       </c>
@@ -10727,7 +10802,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="45">
+    <row r="115" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A115" s="113" t="s">
         <v>599</v>
       </c>
@@ -10741,7 +10816,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="90">
+    <row r="116" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A116" s="113" t="s">
         <v>602</v>
       </c>
@@ -10755,7 +10830,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="105">
+    <row r="117" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A117" s="113" t="s">
         <v>605</v>
       </c>
@@ -10769,7 +10844,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="120">
+    <row r="118" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A118" s="113" t="s">
         <v>608</v>
       </c>
@@ -10783,7 +10858,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="105">
+    <row r="119" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A119" s="113" t="s">
         <v>612</v>
       </c>
@@ -10797,7 +10872,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="75">
+    <row r="120" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A120" s="113" t="s">
         <v>616</v>
       </c>
@@ -10811,7 +10886,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="30">
+    <row r="121" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="113" t="s">
         <v>620</v>
       </c>
@@ -10825,7 +10900,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="30">
+    <row r="122" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="113" t="s">
         <v>624</v>
       </c>
@@ -10839,7 +10914,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="90">
+    <row r="123" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A123" s="113" t="s">
         <v>627</v>
       </c>
@@ -10853,7 +10928,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="105">
+    <row r="124" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A124" s="113" t="s">
         <v>630</v>
       </c>
@@ -10867,7 +10942,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="90">
+    <row r="125" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A125" s="113" t="s">
         <v>633</v>
       </c>
@@ -10881,7 +10956,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="60">
+    <row r="126" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A126" s="113" t="s">
         <v>636</v>
       </c>
@@ -10895,7 +10970,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="60">
+    <row r="127" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A127" s="113" t="s">
         <v>639</v>
       </c>
@@ -10909,7 +10984,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="60">
+    <row r="128" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A128" s="113" t="s">
         <v>642</v>
       </c>
@@ -10923,7 +10998,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="60">
+    <row r="129" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A129" s="113" t="s">
         <v>645</v>
       </c>
@@ -10937,7 +11012,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="120">
+    <row r="130" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A130" s="113" t="s">
         <v>648</v>
       </c>
@@ -10951,7 +11026,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="90">
+    <row r="131" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A131" s="113" t="s">
         <v>652</v>
       </c>
@@ -10965,7 +11040,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="75">
+    <row r="132" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A132" s="113" t="s">
         <v>656</v>
       </c>
@@ -10979,7 +11054,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="75">
+    <row r="133" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A133" s="113" t="s">
         <v>660</v>
       </c>
@@ -10993,7 +11068,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="75">
+    <row r="134" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A134" s="113" t="s">
         <v>663</v>
       </c>
@@ -11007,7 +11082,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="60">
+    <row r="135" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A135" s="113" t="s">
         <v>666</v>
       </c>
@@ -11021,7 +11096,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="60">
+    <row r="136" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A136" s="113" t="s">
         <v>669</v>
       </c>
@@ -11035,7 +11110,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="60">
+    <row r="137" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A137" s="113" t="s">
         <v>673</v>
       </c>
@@ -11049,7 +11124,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="30">
+    <row r="138" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="113" t="s">
         <v>676</v>
       </c>
@@ -11063,7 +11138,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="45">
+    <row r="139" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A139" s="113" t="s">
         <v>679</v>
       </c>
@@ -11077,7 +11152,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="75">
+    <row r="140" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A140" s="113" t="s">
         <v>683</v>
       </c>
@@ -11091,7 +11166,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="60">
+    <row r="141" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A141" s="113" t="s">
         <v>687</v>
       </c>
@@ -11105,7 +11180,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="45">
+    <row r="142" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A142" s="113" t="s">
         <v>690</v>
       </c>
@@ -11119,7 +11194,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="45">
+    <row r="143" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A143" s="113" t="s">
         <v>693</v>
       </c>
@@ -11133,7 +11208,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="75">
+    <row r="144" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A144" s="113" t="s">
         <v>696</v>
       </c>
@@ -11147,7 +11222,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="30">
+    <row r="145" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="113" t="s">
         <v>699</v>
       </c>
@@ -11161,7 +11236,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="30">
+    <row r="146" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="113" t="s">
         <v>702</v>
       </c>
@@ -11175,7 +11250,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="45">
+    <row r="147" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A147" s="113" t="s">
         <v>705</v>
       </c>
@@ -11189,7 +11264,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="45">
+    <row r="148" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A148" s="113" t="s">
         <v>708</v>
       </c>
@@ -11203,7 +11278,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="75">
+    <row r="149" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A149" s="113" t="s">
         <v>711</v>
       </c>
@@ -11217,7 +11292,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="75">
+    <row r="150" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A150" s="113" t="s">
         <v>714</v>
       </c>
@@ -11231,7 +11306,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="75">
+    <row r="151" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A151" s="113" t="s">
         <v>717</v>
       </c>
@@ -11245,7 +11320,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="45">
+    <row r="152" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" s="113" t="s">
         <v>720</v>
       </c>
@@ -11259,7 +11334,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="60">
+    <row r="153" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A153" s="113" t="s">
         <v>723</v>
       </c>
@@ -11273,7 +11348,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="30">
+    <row r="154" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="113" t="s">
         <v>726</v>
       </c>
@@ -11287,7 +11362,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="30">
+    <row r="155" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="113" t="s">
         <v>729</v>
       </c>
@@ -11301,7 +11376,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="180">
+    <row r="156" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="A156" s="113" t="s">
         <v>732</v>
       </c>
@@ -11315,7 +11390,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="45">
+    <row r="157" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A157" s="113" t="s">
         <v>735</v>
       </c>
@@ -11329,7 +11404,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="45">
+    <row r="158" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A158" s="113" t="s">
         <v>738</v>
       </c>
@@ -11343,7 +11418,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="60">
+    <row r="159" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A159" s="113" t="s">
         <v>742</v>
       </c>
@@ -11357,7 +11432,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="60">
+    <row r="160" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A160" s="113" t="s">
         <v>745</v>
       </c>
@@ -11371,7 +11446,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="45">
+    <row r="161" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A161" s="113" t="s">
         <v>749</v>
       </c>
@@ -11385,7 +11460,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="45">
+    <row r="162" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A162" s="113" t="s">
         <v>752</v>
       </c>
@@ -11399,7 +11474,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="75">
+    <row r="163" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A163" s="113" t="s">
         <v>755</v>
       </c>
@@ -11413,7 +11488,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="60">
+    <row r="164" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A164" s="113" t="s">
         <v>759</v>
       </c>
@@ -11427,7 +11502,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="120">
+    <row r="165" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A165" s="113" t="s">
         <v>762</v>
       </c>
@@ -11441,7 +11516,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="45">
+    <row r="166" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A166" s="113" t="s">
         <v>766</v>
       </c>
@@ -11455,7 +11530,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="30">
+    <row r="167" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="113" t="s">
         <v>769</v>
       </c>
@@ -11469,7 +11544,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="30">
+    <row r="168" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="113" t="s">
         <v>772</v>
       </c>
@@ -11483,7 +11558,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="45">
+    <row r="169" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A169" s="113" t="s">
         <v>775</v>
       </c>
@@ -11497,7 +11572,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="30">
+    <row r="170" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="113" t="s">
         <v>778</v>
       </c>
@@ -11511,7 +11586,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="90">
+    <row r="171" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A171" s="113" t="s">
         <v>781</v>
       </c>
@@ -11525,7 +11600,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="90">
+    <row r="172" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A172" s="113" t="s">
         <v>785</v>
       </c>
@@ -11539,7 +11614,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="60">
+    <row r="173" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A173" s="113" t="s">
         <v>789</v>
       </c>
@@ -11553,7 +11628,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="45">
+    <row r="174" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A174" s="113" t="s">
         <v>793</v>
       </c>
@@ -11567,7 +11642,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="60">
+    <row r="175" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A175" s="113" t="s">
         <v>796</v>
       </c>
@@ -11581,7 +11656,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="60">
+    <row r="176" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A176" s="113" t="s">
         <v>800</v>
       </c>
@@ -11595,7 +11670,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="60">
+    <row r="177" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A177" s="113" t="s">
         <v>803</v>
       </c>
@@ -11609,7 +11684,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="60">
+    <row r="178" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A178" s="113" t="s">
         <v>806</v>
       </c>
@@ -11623,7 +11698,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="45">
+    <row r="179" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A179" s="113" t="s">
         <v>810</v>
       </c>
@@ -11637,7 +11712,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="45">
+    <row r="180" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A180" s="113" t="s">
         <v>814</v>
       </c>
@@ -11651,7 +11726,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="30">
+    <row r="181" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="113" t="s">
         <v>817</v>
       </c>
@@ -11665,7 +11740,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="45">
+    <row r="182" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A182" s="113" t="s">
         <v>820</v>
       </c>
@@ -11679,7 +11754,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="75">
+    <row r="183" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A183" s="113" t="s">
         <v>823</v>
       </c>
@@ -11693,7 +11768,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="60">
+    <row r="184" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A184" s="113" t="s">
         <v>826</v>
       </c>
@@ -11707,7 +11782,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="75">
+    <row r="185" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A185" s="113" t="s">
         <v>830</v>
       </c>
@@ -11721,7 +11796,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="150">
+    <row r="186" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A186" s="113" t="s">
         <v>833</v>
       </c>
@@ -11735,7 +11810,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="30">
+    <row r="187" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" s="113" t="s">
         <v>836</v>
       </c>
@@ -11749,7 +11824,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="90">
+    <row r="188" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A188" s="113" t="s">
         <v>839</v>
       </c>
@@ -11763,7 +11838,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="105">
+    <row r="189" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A189" s="113" t="s">
         <v>842</v>
       </c>
@@ -11777,7 +11852,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="60">
+    <row r="190" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A190" s="113" t="s">
         <v>845</v>
       </c>
@@ -11791,7 +11866,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="45">
+    <row r="191" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A191" s="113" t="s">
         <v>848</v>
       </c>
@@ -11805,7 +11880,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="45">
+    <row r="192" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A192" s="113" t="s">
         <v>851</v>
       </c>
@@ -11819,7 +11894,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="45">
+    <row r="193" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A193" s="113" t="s">
         <v>854</v>
       </c>
@@ -11833,7 +11908,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="45">
+    <row r="194" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A194" s="113" t="s">
         <v>857</v>
       </c>
@@ -11847,7 +11922,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="75">
+    <row r="195" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A195" s="113" t="s">
         <v>860</v>
       </c>
@@ -11861,7 +11936,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="30">
+    <row r="196" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A196" s="113" t="s">
         <v>863</v>
       </c>
@@ -11875,7 +11950,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="30">
+    <row r="197" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" s="113" t="s">
         <v>866</v>
       </c>
@@ -11889,7 +11964,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="90">
+    <row r="198" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A198" s="113" t="s">
         <v>869</v>
       </c>
@@ -11903,7 +11978,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="60">
+    <row r="199" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A199" s="113" t="s">
         <v>873</v>
       </c>
@@ -11917,7 +11992,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="90">
+    <row r="200" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A200" s="113" t="s">
         <v>876</v>
       </c>
@@ -11931,7 +12006,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="45">
+    <row r="201" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A201" s="113" t="s">
         <v>880</v>
       </c>
@@ -11945,7 +12020,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="60">
+    <row r="202" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A202" s="113" t="s">
         <v>883</v>
       </c>
@@ -11959,7 +12034,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="75">
+    <row r="203" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A203" s="113" t="s">
         <v>886</v>
       </c>
@@ -11973,7 +12048,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="45">
+    <row r="204" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A204" s="113" t="s">
         <v>889</v>
       </c>
@@ -11987,7 +12062,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="45">
+    <row r="205" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A205" s="113" t="s">
         <v>892</v>
       </c>
@@ -12001,7 +12076,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="75">
+    <row r="206" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A206" s="113" t="s">
         <v>895</v>
       </c>
@@ -12015,7 +12090,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="45">
+    <row r="207" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A207" s="113" t="s">
         <v>898</v>
       </c>
@@ -12029,7 +12104,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="75">
+    <row r="208" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A208" s="113" t="s">
         <v>901</v>
       </c>
@@ -12043,7 +12118,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="90">
+    <row r="209" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A209" s="113" t="s">
         <v>904</v>
       </c>
@@ -12057,7 +12132,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="30">
+    <row r="210" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="113" t="s">
         <v>907</v>
       </c>
@@ -12071,7 +12146,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="30">
+    <row r="211" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="113" t="s">
         <v>910</v>
       </c>
@@ -12085,7 +12160,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="30">
+    <row r="212" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="113" t="s">
         <v>913</v>
       </c>
@@ -12099,7 +12174,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="30">
+    <row r="213" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="113" t="s">
         <v>916</v>
       </c>
@@ -12113,7 +12188,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="30">
+    <row r="214" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" s="113" t="s">
         <v>919</v>
       </c>
@@ -12127,7 +12202,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="30">
+    <row r="215" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" s="113" t="s">
         <v>922</v>
       </c>
@@ -12141,7 +12216,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="30">
+    <row r="216" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="113" t="s">
         <v>925</v>
       </c>
@@ -12155,7 +12230,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="30">
+    <row r="217" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="113" t="s">
         <v>928</v>
       </c>
@@ -12169,7 +12244,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="30">
+    <row r="218" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="113" t="s">
         <v>931</v>
       </c>
@@ -12183,7 +12258,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="45">
+    <row r="219" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A219" s="113" t="s">
         <v>934</v>
       </c>
@@ -12197,7 +12272,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="30">
+    <row r="220" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" s="113" t="s">
         <v>937</v>
       </c>
@@ -12211,7 +12286,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="30">
+    <row r="221" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="113" t="s">
         <v>940</v>
       </c>
@@ -12225,7 +12300,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="30">
+    <row r="222" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="113" t="s">
         <v>943</v>
       </c>
@@ -12239,7 +12314,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="90">
+    <row r="223" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A223" s="113" t="s">
         <v>947</v>
       </c>
@@ -12253,7 +12328,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="30">
+    <row r="224" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" s="113" t="s">
         <v>950</v>
       </c>
@@ -12267,7 +12342,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="135">
+    <row r="225" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A225" s="113" t="s">
         <v>953</v>
       </c>
@@ -12281,7 +12356,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="75">
+    <row r="226" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A226" s="113" t="s">
         <v>956</v>
       </c>
@@ -12295,7 +12370,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="30">
+    <row r="227" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="113" t="s">
         <v>960</v>
       </c>
@@ -12309,7 +12384,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="30">
+    <row r="228" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="113" t="s">
         <v>963</v>
       </c>
@@ -12323,7 +12398,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="90">
+    <row r="229" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A229" s="113" t="s">
         <v>966</v>
       </c>
@@ -12337,7 +12412,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="75">
+    <row r="230" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A230" s="113" t="s">
         <v>970</v>
       </c>
@@ -12351,7 +12426,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="75">
+    <row r="231" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A231" s="113" t="s">
         <v>974</v>
       </c>
@@ -12365,7 +12440,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="75">
+    <row r="232" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A232" s="113" t="s">
         <v>977</v>
       </c>
@@ -12379,7 +12454,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="75">
+    <row r="233" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A233" s="113" t="s">
         <v>981</v>
       </c>
@@ -12393,7 +12468,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="165">
+    <row r="234" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A234" s="113" t="s">
         <v>984</v>
       </c>
@@ -12407,7 +12482,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="75">
+    <row r="235" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A235" s="113" t="s">
         <v>987</v>
       </c>
@@ -12421,7 +12496,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="75">
+    <row r="236" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A236" s="113" t="s">
         <v>990</v>
       </c>
@@ -12435,7 +12510,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="30">
+    <row r="237" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A237" s="113" t="s">
         <v>993</v>
       </c>
@@ -12449,7 +12524,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="30">
+    <row r="238" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A238" s="113" t="s">
         <v>997</v>
       </c>
@@ -12463,7 +12538,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="30">
+    <row r="239" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A239" s="113" t="s">
         <v>1000</v>
       </c>
@@ -12477,7 +12552,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="30">
+    <row r="240" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A240" s="113" t="s">
         <v>1003</v>
       </c>
@@ -12491,7 +12566,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="30">
+    <row r="241" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A241" s="113" t="s">
         <v>1006</v>
       </c>
@@ -12505,7 +12580,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="30">
+    <row r="242" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A242" s="113" t="s">
         <v>1009</v>
       </c>
@@ -12519,7 +12594,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="60">
+    <row r="243" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A243" s="113" t="s">
         <v>1012</v>
       </c>
@@ -12533,7 +12608,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="45">
+    <row r="244" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A244" s="113" t="s">
         <v>1016</v>
       </c>
@@ -12547,7 +12622,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="90">
+    <row r="245" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A245" s="113" t="s">
         <v>1020</v>
       </c>
@@ -12561,7 +12636,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="45">
+    <row r="246" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A246" s="113" t="s">
         <v>1024</v>
       </c>
@@ -12575,7 +12650,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="30">
+    <row r="247" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A247" s="113" t="s">
         <v>1027</v>
       </c>
@@ -12589,7 +12664,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="120">
+    <row r="248" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A248" s="113" t="s">
         <v>1030</v>
       </c>
@@ -12603,7 +12678,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="30">
+    <row r="249" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A249" s="113" t="s">
         <v>1033</v>
       </c>
@@ -12617,7 +12692,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="75">
+    <row r="250" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A250" s="113" t="s">
         <v>1036</v>
       </c>
@@ -12631,7 +12706,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="45">
+    <row r="251" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A251" s="113" t="s">
         <v>1040</v>
       </c>
@@ -12645,7 +12720,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="60">
+    <row r="252" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A252" s="113" t="s">
         <v>1043</v>
       </c>
@@ -12659,7 +12734,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="45">
+    <row r="253" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A253" s="113" t="s">
         <v>1046</v>
       </c>
@@ -12673,7 +12748,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="90">
+    <row r="254" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A254" s="113" t="s">
         <v>1049</v>
       </c>
@@ -12687,7 +12762,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="165">
+    <row r="255" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A255" s="113" t="s">
         <v>1052</v>
       </c>
@@ -12701,7 +12776,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="60">
+    <row r="256" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A256" s="113" t="s">
         <v>1055</v>
       </c>
@@ -12715,7 +12790,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="45">
+    <row r="257" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A257" s="113" t="s">
         <v>1058</v>
       </c>
@@ -12729,7 +12804,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="30">
+    <row r="258" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A258" s="113" t="s">
         <v>1061</v>
       </c>
@@ -12743,7 +12818,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="105">
+    <row r="259" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A259" s="113" t="s">
         <v>1064</v>
       </c>
@@ -12757,7 +12832,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="105">
+    <row r="260" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A260" s="113" t="s">
         <v>1067</v>
       </c>
@@ -12771,7 +12846,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="45">
+    <row r="261" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A261" s="113" t="s">
         <v>1071</v>
       </c>
@@ -12785,7 +12860,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="75">
+    <row r="262" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A262" s="113" t="s">
         <v>1074</v>
       </c>
@@ -12799,7 +12874,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="30">
+    <row r="263" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A263" s="113" t="s">
         <v>1078</v>
       </c>
@@ -12813,7 +12888,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="30">
+    <row r="264" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A264" s="113" t="s">
         <v>1081</v>
       </c>
@@ -12827,7 +12902,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="45">
+    <row r="265" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A265" s="113" t="s">
         <v>1085</v>
       </c>
@@ -12841,7 +12916,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="60">
+    <row r="266" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A266" s="113" t="s">
         <v>1088</v>
       </c>
@@ -12855,7 +12930,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="45">
+    <row r="267" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A267" s="113" t="s">
         <v>1091</v>
       </c>
@@ -12880,7 +12955,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47" style="93" customWidth="1"/>
     <col min="2" max="2" width="45.85546875" style="93" customWidth="1"/>
@@ -13076,7 +13151,7 @@
     <col min="16131" max="16384" width="8.85546875" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" thickBot="1">
+    <row r="1" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="101" t="s">
         <v>178</v>
       </c>
@@ -13084,7 +13159,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="31.5" thickTop="1" thickBot="1">
+    <row r="2" spans="1:2" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="102" t="s">
         <v>180</v>
       </c>
@@ -13092,7 +13167,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="26.25" thickBot="1">
+    <row r="3" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="102" t="s">
         <v>182</v>
       </c>
@@ -13100,7 +13175,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1">
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="102" t="s">
         <v>184</v>
       </c>
@@ -13108,7 +13183,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="39" thickBot="1">
+    <row r="5" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="102" t="s">
         <v>186</v>
       </c>
@@ -13116,7 +13191,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1">
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="102" t="s">
         <v>188</v>
       </c>
@@ -13124,7 +13199,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30.75" thickBot="1">
+    <row r="7" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="102" t="s">
         <v>190</v>
       </c>
@@ -13132,7 +13207,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30">
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="102" t="s">
         <v>192</v>
       </c>
@@ -13140,7 +13215,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="93" t="s">
         <v>194</v>
       </c>
@@ -13170,7 +13245,7 @@
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
@@ -13183,457 +13258,457 @@
     <col min="9" max="9" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75">
-      <c r="A1" s="169" t="s">
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="167" t="s">
         <v>1146</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-    </row>
-    <row r="2" spans="1:9" ht="18.75">
-      <c r="A2" s="172"/>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="196" t="s">
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+    </row>
+    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="170"/>
+      <c r="B2" s="161"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="194" t="s">
         <v>1147</v>
       </c>
-      <c r="B3" s="196"/>
-      <c r="C3" s="196"/>
-      <c r="D3" s="196"/>
-      <c r="E3" s="196"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-    </row>
-    <row r="4" spans="1:9" ht="19.5" thickBot="1">
-      <c r="A4" s="172"/>
-      <c r="B4" s="163"/>
-      <c r="C4" s="163"/>
-      <c r="D4" s="182"/>
-      <c r="E4" s="163"/>
-      <c r="F4" s="163"/>
-      <c r="G4" s="163"/>
-      <c r="H4" s="163"/>
-      <c r="I4" s="163"/>
-    </row>
-    <row r="5" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A5" s="200" t="s">
+      <c r="B3" s="194"/>
+      <c r="C3" s="194"/>
+      <c r="D3" s="194"/>
+      <c r="E3" s="194"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="161"/>
+      <c r="H3" s="161"/>
+      <c r="I3" s="161"/>
+    </row>
+    <row r="4" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="170"/>
+      <c r="B4" s="161"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="180"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="161"/>
+      <c r="H4" s="161"/>
+      <c r="I4" s="161"/>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="198" t="s">
         <v>1148</v>
       </c>
-      <c r="B5" s="201"/>
-      <c r="C5" s="201"/>
-      <c r="D5" s="201"/>
-      <c r="E5" s="201"/>
-      <c r="F5" s="201"/>
-      <c r="G5" s="202"/>
-      <c r="H5" s="163"/>
-      <c r="I5" s="163"/>
-    </row>
-    <row r="6" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A6" s="163"/>
-      <c r="B6" s="163"/>
-      <c r="C6" s="163"/>
-      <c r="D6" s="163"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="163"/>
-      <c r="H6" s="163"/>
-      <c r="I6" s="163"/>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A7" s="197" t="s">
+      <c r="B5" s="199"/>
+      <c r="C5" s="199"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="199"/>
+      <c r="F5" s="199"/>
+      <c r="G5" s="200"/>
+      <c r="H5" s="161"/>
+      <c r="I5" s="161"/>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="161"/>
+      <c r="B6" s="161"/>
+      <c r="C6" s="161"/>
+      <c r="D6" s="161"/>
+      <c r="E6" s="161"/>
+      <c r="F6" s="161"/>
+      <c r="G6" s="161"/>
+      <c r="H6" s="161"/>
+      <c r="I6" s="161"/>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="195" t="s">
         <v>1149</v>
       </c>
-      <c r="B7" s="198"/>
-      <c r="C7" s="198"/>
-      <c r="D7" s="199"/>
-      <c r="E7" s="163"/>
-      <c r="F7" s="163"/>
-      <c r="G7" s="163"/>
-      <c r="H7" s="163"/>
-      <c r="I7" s="163"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" thickTop="1">
-      <c r="A8" s="163"/>
-      <c r="B8" s="163"/>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="163"/>
-      <c r="H8" s="163"/>
-      <c r="I8" s="163"/>
-    </row>
-    <row r="9" spans="1:9" ht="37.5">
-      <c r="A9" s="172" t="s">
+      <c r="B7" s="196"/>
+      <c r="C7" s="196"/>
+      <c r="D7" s="197"/>
+      <c r="E7" s="161"/>
+      <c r="F7" s="161"/>
+      <c r="G7" s="161"/>
+      <c r="H7" s="161"/>
+      <c r="I7" s="161"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="161"/>
+      <c r="B8" s="161"/>
+      <c r="C8" s="161"/>
+      <c r="D8" s="161"/>
+      <c r="E8" s="161"/>
+      <c r="F8" s="161"/>
+      <c r="G8" s="161"/>
+      <c r="H8" s="161"/>
+      <c r="I8" s="161"/>
+    </row>
+    <row r="9" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="170" t="s">
         <v>1150</v>
       </c>
-      <c r="B9" s="163"/>
-      <c r="C9" s="163"/>
-      <c r="D9" s="182"/>
-      <c r="E9" s="163"/>
-      <c r="F9" s="163"/>
-      <c r="G9" s="163"/>
-      <c r="H9" s="163"/>
-      <c r="I9" s="163"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A10" s="195"/>
-      <c r="B10" s="195"/>
-      <c r="C10" s="195"/>
-      <c r="D10" s="195"/>
-      <c r="E10" s="166"/>
-      <c r="F10" s="166"/>
-      <c r="G10" s="163"/>
-      <c r="H10" s="163"/>
-      <c r="I10" s="163"/>
-    </row>
-    <row r="11" spans="1:9" ht="32.25" thickBot="1">
-      <c r="A11" s="181" t="s">
+      <c r="B9" s="161"/>
+      <c r="C9" s="161"/>
+      <c r="D9" s="180"/>
+      <c r="E9" s="161"/>
+      <c r="F9" s="161"/>
+      <c r="G9" s="161"/>
+      <c r="H9" s="161"/>
+      <c r="I9" s="161"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="193"/>
+      <c r="B10" s="193"/>
+      <c r="C10" s="193"/>
+      <c r="D10" s="193"/>
+      <c r="E10" s="164"/>
+      <c r="F10" s="164"/>
+      <c r="G10" s="161"/>
+      <c r="H10" s="161"/>
+      <c r="I10" s="161"/>
+    </row>
+    <row r="11" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="179" t="s">
         <v>1151</v>
       </c>
-      <c r="B11" s="181" t="s">
+      <c r="B11" s="179" t="s">
         <v>1152</v>
       </c>
-      <c r="C11" s="181" t="s">
+      <c r="C11" s="179" t="s">
         <v>1153</v>
       </c>
-      <c r="D11" s="181" t="s">
+      <c r="D11" s="179" t="s">
         <v>137</v>
       </c>
-      <c r="E11" s="181" t="s">
+      <c r="E11" s="179" t="s">
         <v>1154</v>
       </c>
-      <c r="F11" s="184" t="s">
+      <c r="F11" s="182" t="s">
         <v>139</v>
       </c>
-      <c r="G11" s="181" t="s">
+      <c r="G11" s="179" t="s">
         <v>1155</v>
       </c>
-      <c r="H11" s="181" t="s">
+      <c r="H11" s="179" t="s">
         <v>1156</v>
       </c>
-      <c r="I11" s="184" t="s">
+      <c r="I11" s="182" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="180"/>
-      <c r="B12" s="180"/>
-      <c r="C12" s="171"/>
-      <c r="D12" s="180"/>
-      <c r="E12" s="180"/>
-      <c r="F12" s="179"/>
-      <c r="G12" s="180"/>
-      <c r="H12" s="180"/>
-      <c r="I12" s="179"/>
-    </row>
-    <row r="13" spans="1:9" ht="45">
-      <c r="A13" s="180"/>
-      <c r="B13" s="180"/>
-      <c r="C13" s="180"/>
-      <c r="D13" s="177" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="178"/>
+      <c r="B12" s="178"/>
+      <c r="C12" s="169"/>
+      <c r="D12" s="178"/>
+      <c r="E12" s="178"/>
+      <c r="F12" s="177"/>
+      <c r="G12" s="178"/>
+      <c r="H12" s="178"/>
+      <c r="I12" s="177"/>
+    </row>
+    <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="178"/>
+      <c r="B13" s="178"/>
+      <c r="C13" s="178"/>
+      <c r="D13" s="175" t="s">
         <v>1157</v>
       </c>
-      <c r="E13" s="177" t="s">
+      <c r="E13" s="175" t="s">
         <v>1158</v>
       </c>
-      <c r="F13" s="176">
+      <c r="F13" s="174">
         <v>40766</v>
       </c>
-      <c r="G13" s="175" t="s">
+      <c r="G13" s="173" t="s">
         <v>1159</v>
       </c>
-      <c r="H13" s="177" t="s">
+      <c r="H13" s="175" t="s">
         <v>1160</v>
       </c>
-      <c r="I13" s="167">
+      <c r="I13" s="165">
         <v>40770</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="45">
-      <c r="A14" s="180"/>
-      <c r="B14" s="178"/>
-      <c r="C14" s="178"/>
-      <c r="D14" s="177" t="s">
+    <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="178"/>
+      <c r="B14" s="176"/>
+      <c r="C14" s="176"/>
+      <c r="D14" s="175" t="s">
         <v>1161</v>
       </c>
-      <c r="E14" s="177"/>
-      <c r="F14" s="174"/>
-      <c r="G14" s="177"/>
-      <c r="H14" s="177"/>
-      <c r="I14" s="167"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="180"/>
-      <c r="B15" s="178"/>
-      <c r="C15" s="178"/>
-      <c r="D15" s="178"/>
-      <c r="E15" s="180"/>
-      <c r="F15" s="179"/>
-      <c r="G15" s="180"/>
-      <c r="H15" s="180"/>
-      <c r="I15" s="179"/>
-    </row>
-    <row r="16" spans="1:9" ht="90">
-      <c r="A16" s="180"/>
-      <c r="B16" s="178"/>
-      <c r="C16" s="178"/>
-      <c r="D16" s="185" t="s">
+      <c r="E14" s="175"/>
+      <c r="F14" s="172"/>
+      <c r="G14" s="175"/>
+      <c r="H14" s="175"/>
+      <c r="I14" s="165"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="178"/>
+      <c r="B15" s="176"/>
+      <c r="C15" s="176"/>
+      <c r="D15" s="176"/>
+      <c r="E15" s="178"/>
+      <c r="F15" s="177"/>
+      <c r="G15" s="178"/>
+      <c r="H15" s="178"/>
+      <c r="I15" s="177"/>
+    </row>
+    <row r="16" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" s="178"/>
+      <c r="B16" s="176"/>
+      <c r="C16" s="176"/>
+      <c r="D16" s="183" t="s">
         <v>1162</v>
       </c>
-      <c r="E16" s="180"/>
-      <c r="F16" s="179"/>
-      <c r="G16" s="180"/>
-      <c r="H16" s="180"/>
-      <c r="I16" s="179"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="180"/>
-      <c r="B17" s="178"/>
-      <c r="C17" s="178"/>
-      <c r="D17" s="178"/>
-      <c r="E17" s="180"/>
-      <c r="F17" s="179"/>
-      <c r="G17" s="180"/>
-      <c r="H17" s="180"/>
-      <c r="I17" s="179"/>
-      <c r="J17" s="163"/>
-      <c r="K17" s="163"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="180"/>
-      <c r="B18" s="178"/>
-      <c r="C18" s="178"/>
-      <c r="D18" s="178"/>
-      <c r="E18" s="180"/>
-      <c r="F18" s="179"/>
-      <c r="G18" s="180"/>
-      <c r="H18" s="180"/>
-      <c r="I18" s="179"/>
-      <c r="J18" s="163"/>
-      <c r="K18" s="187"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="180"/>
-      <c r="B19" s="178"/>
-      <c r="C19" s="178"/>
-      <c r="D19" s="186"/>
-      <c r="E19" s="180"/>
-      <c r="F19" s="173"/>
-      <c r="G19" s="180"/>
-      <c r="H19" s="180"/>
-      <c r="I19" s="179"/>
-      <c r="J19" s="163"/>
-      <c r="K19" s="163"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="168"/>
-      <c r="B20" s="178"/>
-      <c r="C20" s="178"/>
-      <c r="D20" s="178"/>
-      <c r="E20" s="180"/>
-      <c r="F20" s="173"/>
-      <c r="G20" s="168"/>
-      <c r="H20" s="180"/>
-      <c r="I20" s="179"/>
-      <c r="J20" s="163"/>
-      <c r="K20" s="163"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="180"/>
-      <c r="B21" s="178"/>
-      <c r="C21" s="178"/>
-      <c r="D21" s="186"/>
-      <c r="E21" s="180"/>
-      <c r="F21" s="173"/>
-      <c r="G21" s="180"/>
-      <c r="H21" s="180"/>
-      <c r="I21" s="179"/>
-      <c r="J21" s="163"/>
-      <c r="K21" s="163"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="180"/>
-      <c r="B22" s="178"/>
-      <c r="C22" s="178"/>
-      <c r="D22" s="178"/>
-      <c r="E22" s="180"/>
-      <c r="F22" s="179"/>
-      <c r="G22" s="180"/>
-      <c r="H22" s="180"/>
-      <c r="I22" s="179"/>
-      <c r="J22" s="163"/>
-      <c r="K22" s="163"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="180"/>
-      <c r="B23" s="178"/>
-      <c r="C23" s="178"/>
-      <c r="D23" s="178"/>
-      <c r="E23" s="180"/>
-      <c r="F23" s="173"/>
-      <c r="G23" s="180"/>
-      <c r="H23" s="180"/>
-      <c r="I23" s="179"/>
-      <c r="J23" s="163"/>
-      <c r="K23" s="163"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="180"/>
-      <c r="B24" s="178"/>
-      <c r="C24" s="178"/>
-      <c r="D24" s="178"/>
-      <c r="E24" s="180"/>
-      <c r="F24" s="179"/>
-      <c r="G24" s="180"/>
-      <c r="H24" s="180"/>
-      <c r="I24" s="179"/>
-      <c r="J24" s="163"/>
-      <c r="K24" s="163"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="180"/>
-      <c r="B25" s="178"/>
-      <c r="C25" s="178"/>
-      <c r="D25" s="178"/>
-      <c r="E25" s="180"/>
-      <c r="F25" s="179"/>
-      <c r="G25" s="180"/>
-      <c r="H25" s="180"/>
-      <c r="I25" s="179"/>
-      <c r="J25" s="163"/>
-      <c r="K25" s="163"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="180"/>
-      <c r="B26" s="178"/>
-      <c r="C26" s="178"/>
-      <c r="D26" s="178"/>
-      <c r="E26" s="180"/>
-      <c r="F26" s="179"/>
-      <c r="G26" s="180"/>
-      <c r="H26" s="180"/>
-      <c r="I26" s="179"/>
-      <c r="J26" s="163"/>
-      <c r="K26" s="163"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="180"/>
-      <c r="B27" s="178"/>
-      <c r="C27" s="178"/>
-      <c r="D27" s="178"/>
-      <c r="E27" s="180"/>
-      <c r="F27" s="179"/>
-      <c r="G27" s="180"/>
-      <c r="H27" s="180"/>
-      <c r="I27" s="179"/>
-      <c r="J27" s="163"/>
-      <c r="K27" s="163"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="183"/>
-      <c r="B28" s="183"/>
-      <c r="C28" s="183"/>
-      <c r="D28" s="183"/>
-      <c r="E28" s="183"/>
-      <c r="F28" s="170"/>
-      <c r="G28" s="183"/>
-      <c r="H28" s="183"/>
-      <c r="I28" s="170"/>
-      <c r="J28" s="163"/>
-      <c r="K28" s="163"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="163"/>
-      <c r="B29" s="163"/>
-      <c r="C29" s="163"/>
-      <c r="D29" s="163"/>
-      <c r="E29" s="163"/>
-      <c r="F29" s="163"/>
-      <c r="G29" s="163"/>
-      <c r="H29" s="163"/>
-      <c r="I29" s="163"/>
-      <c r="J29" s="163"/>
-      <c r="K29" s="163"/>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="163"/>
-      <c r="B30" s="163"/>
-      <c r="C30" s="163"/>
-      <c r="D30" s="163"/>
-      <c r="E30" s="163"/>
-      <c r="F30" s="163"/>
-      <c r="G30" s="163"/>
-      <c r="H30" s="163"/>
-      <c r="I30" s="163"/>
-      <c r="J30" s="163"/>
-      <c r="K30" s="163"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="163"/>
-      <c r="B31" s="163"/>
-      <c r="C31" s="163"/>
-      <c r="D31" s="163"/>
-      <c r="E31" s="163"/>
-      <c r="F31" s="163"/>
-      <c r="G31" s="163"/>
-      <c r="H31" s="163"/>
-      <c r="I31" s="163"/>
-      <c r="J31" s="163"/>
-      <c r="K31" s="163"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="163"/>
-      <c r="B32" s="163"/>
-      <c r="C32" s="163"/>
-      <c r="D32" s="163"/>
-      <c r="E32" s="163"/>
-      <c r="F32" s="163"/>
-      <c r="G32" s="163"/>
-      <c r="H32" s="163"/>
-      <c r="I32" s="163"/>
-      <c r="J32" s="163"/>
-      <c r="K32" s="163"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="163"/>
-      <c r="B33" s="163"/>
-      <c r="C33" s="163"/>
-      <c r="D33" s="163"/>
-      <c r="E33" s="163"/>
-      <c r="F33" s="163"/>
-      <c r="G33" s="163"/>
-      <c r="H33" s="163"/>
-      <c r="I33" s="163"/>
-    </row>
-    <row r="34" spans="1:9" ht="18.75">
-      <c r="A34" s="172" t="s">
+      <c r="E16" s="178"/>
+      <c r="F16" s="177"/>
+      <c r="G16" s="178"/>
+      <c r="H16" s="178"/>
+      <c r="I16" s="177"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="178"/>
+      <c r="B17" s="176"/>
+      <c r="C17" s="176"/>
+      <c r="D17" s="176"/>
+      <c r="E17" s="178"/>
+      <c r="F17" s="177"/>
+      <c r="G17" s="178"/>
+      <c r="H17" s="178"/>
+      <c r="I17" s="177"/>
+      <c r="J17" s="161"/>
+      <c r="K17" s="161"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="178"/>
+      <c r="B18" s="176"/>
+      <c r="C18" s="176"/>
+      <c r="D18" s="176"/>
+      <c r="E18" s="178"/>
+      <c r="F18" s="177"/>
+      <c r="G18" s="178"/>
+      <c r="H18" s="178"/>
+      <c r="I18" s="177"/>
+      <c r="J18" s="161"/>
+      <c r="K18" s="185"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="178"/>
+      <c r="B19" s="176"/>
+      <c r="C19" s="176"/>
+      <c r="D19" s="184"/>
+      <c r="E19" s="178"/>
+      <c r="F19" s="171"/>
+      <c r="G19" s="178"/>
+      <c r="H19" s="178"/>
+      <c r="I19" s="177"/>
+      <c r="J19" s="161"/>
+      <c r="K19" s="161"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="166"/>
+      <c r="B20" s="176"/>
+      <c r="C20" s="176"/>
+      <c r="D20" s="176"/>
+      <c r="E20" s="178"/>
+      <c r="F20" s="171"/>
+      <c r="G20" s="166"/>
+      <c r="H20" s="178"/>
+      <c r="I20" s="177"/>
+      <c r="J20" s="161"/>
+      <c r="K20" s="161"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="178"/>
+      <c r="B21" s="176"/>
+      <c r="C21" s="176"/>
+      <c r="D21" s="184"/>
+      <c r="E21" s="178"/>
+      <c r="F21" s="171"/>
+      <c r="G21" s="178"/>
+      <c r="H21" s="178"/>
+      <c r="I21" s="177"/>
+      <c r="J21" s="161"/>
+      <c r="K21" s="161"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="178"/>
+      <c r="B22" s="176"/>
+      <c r="C22" s="176"/>
+      <c r="D22" s="176"/>
+      <c r="E22" s="178"/>
+      <c r="F22" s="177"/>
+      <c r="G22" s="178"/>
+      <c r="H22" s="178"/>
+      <c r="I22" s="177"/>
+      <c r="J22" s="161"/>
+      <c r="K22" s="161"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="178"/>
+      <c r="B23" s="176"/>
+      <c r="C23" s="176"/>
+      <c r="D23" s="176"/>
+      <c r="E23" s="178"/>
+      <c r="F23" s="171"/>
+      <c r="G23" s="178"/>
+      <c r="H23" s="178"/>
+      <c r="I23" s="177"/>
+      <c r="J23" s="161"/>
+      <c r="K23" s="161"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="178"/>
+      <c r="B24" s="176"/>
+      <c r="C24" s="176"/>
+      <c r="D24" s="176"/>
+      <c r="E24" s="178"/>
+      <c r="F24" s="177"/>
+      <c r="G24" s="178"/>
+      <c r="H24" s="178"/>
+      <c r="I24" s="177"/>
+      <c r="J24" s="161"/>
+      <c r="K24" s="161"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="178"/>
+      <c r="B25" s="176"/>
+      <c r="C25" s="176"/>
+      <c r="D25" s="176"/>
+      <c r="E25" s="178"/>
+      <c r="F25" s="177"/>
+      <c r="G25" s="178"/>
+      <c r="H25" s="178"/>
+      <c r="I25" s="177"/>
+      <c r="J25" s="161"/>
+      <c r="K25" s="161"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="178"/>
+      <c r="B26" s="176"/>
+      <c r="C26" s="176"/>
+      <c r="D26" s="176"/>
+      <c r="E26" s="178"/>
+      <c r="F26" s="177"/>
+      <c r="G26" s="178"/>
+      <c r="H26" s="178"/>
+      <c r="I26" s="177"/>
+      <c r="J26" s="161"/>
+      <c r="K26" s="161"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="178"/>
+      <c r="B27" s="176"/>
+      <c r="C27" s="176"/>
+      <c r="D27" s="176"/>
+      <c r="E27" s="178"/>
+      <c r="F27" s="177"/>
+      <c r="G27" s="178"/>
+      <c r="H27" s="178"/>
+      <c r="I27" s="177"/>
+      <c r="J27" s="161"/>
+      <c r="K27" s="161"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="181"/>
+      <c r="B28" s="181"/>
+      <c r="C28" s="181"/>
+      <c r="D28" s="181"/>
+      <c r="E28" s="181"/>
+      <c r="F28" s="168"/>
+      <c r="G28" s="181"/>
+      <c r="H28" s="181"/>
+      <c r="I28" s="168"/>
+      <c r="J28" s="161"/>
+      <c r="K28" s="161"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="161"/>
+      <c r="B29" s="161"/>
+      <c r="C29" s="161"/>
+      <c r="D29" s="161"/>
+      <c r="E29" s="161"/>
+      <c r="F29" s="161"/>
+      <c r="G29" s="161"/>
+      <c r="H29" s="161"/>
+      <c r="I29" s="161"/>
+      <c r="J29" s="161"/>
+      <c r="K29" s="161"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="161"/>
+      <c r="B30" s="161"/>
+      <c r="C30" s="161"/>
+      <c r="D30" s="161"/>
+      <c r="E30" s="161"/>
+      <c r="F30" s="161"/>
+      <c r="G30" s="161"/>
+      <c r="H30" s="161"/>
+      <c r="I30" s="161"/>
+      <c r="J30" s="161"/>
+      <c r="K30" s="161"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="161"/>
+      <c r="B31" s="161"/>
+      <c r="C31" s="161"/>
+      <c r="D31" s="161"/>
+      <c r="E31" s="161"/>
+      <c r="F31" s="161"/>
+      <c r="G31" s="161"/>
+      <c r="H31" s="161"/>
+      <c r="I31" s="161"/>
+      <c r="J31" s="161"/>
+      <c r="K31" s="161"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="161"/>
+      <c r="B32" s="161"/>
+      <c r="C32" s="161"/>
+      <c r="D32" s="161"/>
+      <c r="E32" s="161"/>
+      <c r="F32" s="161"/>
+      <c r="G32" s="161"/>
+      <c r="H32" s="161"/>
+      <c r="I32" s="161"/>
+      <c r="J32" s="161"/>
+      <c r="K32" s="161"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="161"/>
+      <c r="B33" s="161"/>
+      <c r="C33" s="161"/>
+      <c r="D33" s="161"/>
+      <c r="E33" s="161"/>
+      <c r="F33" s="161"/>
+      <c r="G33" s="161"/>
+      <c r="H33" s="161"/>
+      <c r="I33" s="161"/>
+    </row>
+    <row r="34" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="170" t="s">
         <v>1163</v>
       </c>
-      <c r="B34" s="163"/>
-      <c r="C34" s="163"/>
-      <c r="D34" s="163"/>
-      <c r="E34" s="163"/>
-      <c r="F34" s="163"/>
-      <c r="G34" s="163"/>
-      <c r="H34" s="163"/>
-      <c r="I34" s="163"/>
+      <c r="B34" s="161"/>
+      <c r="C34" s="161"/>
+      <c r="D34" s="161"/>
+      <c r="E34" s="161"/>
+      <c r="F34" s="161"/>
+      <c r="G34" s="161"/>
+      <c r="H34" s="161"/>
+      <c r="I34" s="161"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/RadiogenicHeatProduction.xlsx
+++ b/RadiogenicHeatProduction.xlsx
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="1167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="1169">
   <si>
     <t>unknown</t>
   </si>
@@ -802,9 +802,6 @@
   </si>
   <si>
     <t>OGC name authority registry</t>
-  </si>
-  <si>
-    <t>Confirm Spacial Reference System of Latitude and Longitude provided are WGS1984.  Necessary information for specifying the data used for latitude and longitude. Recommended usage is EPSG code, for which syntax must be "EPSG:NNNN" where NNNN is the EPSG code. If the SRS is unknown (e.g. don't know if its Clark1866 or GRS 80 ellipsoid) use an OGC nil value (see OGC_nilValues tab)</t>
   </si>
   <si>
     <t>ElevationDatum_m</t>
@@ -3764,6 +3761,16 @@
   <si>
     <t>Copyright © Arizona Geological Survey, 2012</t>
   </si>
+  <si>
+    <t>The spatial reference system. An EPSG code should be provided to identify the spatial reference system (SRS) for latitude and longitude.  EPSG:4326 is the identifer for WGS84, and should thus be the text indicated in this field. Spatial reference systems specify a datum, a reference ellipsoid, and a coordinate system.
+EPSG stands for European Petroleum Survey Group. EPSSG codes can be dereferenced by putting the code in this URL (replace 4326) http://spatialreference.org/ref/epsg/4326/</t>
+  </si>
+  <si>
+    <t>Edited SRS description in FieldList tab for clarity (recommended use of EPSG code).</t>
+  </si>
+  <si>
+    <t>Christy Caudill</t>
+  </si>
 </sst>
 </file>
 
@@ -3775,7 +3782,7 @@
     <numFmt numFmtId="166" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="167" formatCode="mm\-dd\-yy\Thh:mm"/>
   </numFmts>
-  <fonts count="55" x14ac:knownFonts="1">
+  <fonts count="57" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4142,6 +4149,16 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="59">
@@ -4975,7 +4992,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="187">
+  <cellStyleXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -5174,8 +5191,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="203">
+  <cellXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -5686,6 +5711,10 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="59" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="61" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5733,12 +5762,23 @@
     <xf numFmtId="0" fontId="19" fillId="56" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="59" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="61" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="187" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="187" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="50" borderId="14" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="50" borderId="14" xfId="187" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="56" fillId="50" borderId="14" xfId="187" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="187">
+  <cellStyles count="195">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent1 2" xfId="42"/>
     <cellStyle name="20% - Accent1 2 2" xfId="88"/>
@@ -5852,22 +5892,30 @@
     <cellStyle name="Normal 11" xfId="143"/>
     <cellStyle name="Normal 11 2" xfId="144"/>
     <cellStyle name="Normal 12" xfId="82"/>
+    <cellStyle name="Normal 12 2" xfId="187"/>
     <cellStyle name="Normal 13" xfId="145"/>
     <cellStyle name="Normal 2" xfId="61"/>
     <cellStyle name="Normal 2 10 2 2 2 2" xfId="146"/>
     <cellStyle name="Normal 2 2" xfId="62"/>
     <cellStyle name="Normal 2 2 2" xfId="80"/>
+    <cellStyle name="Normal 2 2 2 2" xfId="188"/>
     <cellStyle name="Normal 2 2 3" xfId="147"/>
     <cellStyle name="Normal 2 3" xfId="81"/>
+    <cellStyle name="Normal 2 3 2" xfId="189"/>
+    <cellStyle name="Normal 2 4" xfId="190"/>
+    <cellStyle name="Normal 2 5" xfId="191"/>
     <cellStyle name="Normal 2_DataMappingView" xfId="148"/>
     <cellStyle name="Normal 3" xfId="63"/>
     <cellStyle name="Normal 3 2" xfId="79"/>
     <cellStyle name="Normal 3 2 2" xfId="150"/>
+    <cellStyle name="Normal 3 2 2 2" xfId="192"/>
     <cellStyle name="Normal 3 2 3" xfId="151"/>
+    <cellStyle name="Normal 3 2 3 2" xfId="193"/>
     <cellStyle name="Normal 3 2 4" xfId="152"/>
     <cellStyle name="Normal 3 2 5" xfId="149"/>
     <cellStyle name="Normal 3 2_DataMappingView" xfId="153"/>
     <cellStyle name="Normal 3 3" xfId="154"/>
+    <cellStyle name="Normal 3 3 2" xfId="194"/>
     <cellStyle name="Normal 3 4" xfId="155"/>
     <cellStyle name="Normal 3 5" xfId="156"/>
     <cellStyle name="Normal 4" xfId="114"/>
@@ -6442,7 +6490,7 @@
   <dimension ref="B2:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6726,7 +6774,7 @@
         <v>133</v>
       </c>
       <c r="C4" s="63" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
@@ -6739,10 +6787,10 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="159" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C6" s="160" t="s">
         <v>1144</v>
-      </c>
-      <c r="C6" s="160" t="s">
-        <v>1145</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -6772,10 +6820,10 @@
         <v>147</v>
       </c>
       <c r="C10" s="95" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D10" s="95" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E10" s="71">
         <v>41183</v>
@@ -6786,10 +6834,10 @@
         <v>147</v>
       </c>
       <c r="C11" s="95" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="D11" s="154" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E11" s="71">
         <v>41184</v>
@@ -6798,20 +6846,26 @@
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="70"/>
       <c r="C12" s="162" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D12" s="163" t="s">
         <v>1164</v>
-      </c>
-      <c r="D12" s="163" t="s">
-        <v>1165</v>
       </c>
       <c r="E12" s="71">
         <v>41219</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="72"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="75"/>
+      <c r="B13" s="205"/>
+      <c r="C13" s="205" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D13" s="206" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E13" s="207">
+        <v>41442</v>
+      </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="72"/>
@@ -6897,16 +6951,16 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="158"/>
-      <c r="C28" s="201" t="s">
-        <v>1143</v>
+      <c r="C28" s="186" t="s">
+        <v>1142</v>
       </c>
       <c r="D28" s="156"/>
       <c r="E28" s="158"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="158"/>
-      <c r="C29" s="202" t="s">
-        <v>1166</v>
+      <c r="C29" s="187" t="s">
+        <v>1165</v>
       </c>
       <c r="D29" s="158"/>
       <c r="E29" s="158"/>
@@ -6957,13 +7011,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="186" t="s">
+      <c r="A2" s="188" t="s">
         <v>171</v>
       </c>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
+      <c r="B2" s="189"/>
+      <c r="C2" s="189"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="189"/>
     </row>
     <row r="3" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
@@ -6980,54 +7034,54 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="188" t="s">
+      <c r="A7" s="190" t="s">
         <v>144</v>
       </c>
-      <c r="B7" s="188"/>
-      <c r="C7" s="188"/>
-      <c r="D7" s="188"/>
-      <c r="E7" s="188"/>
-      <c r="F7" s="188"/>
+      <c r="B7" s="190"/>
+      <c r="C7" s="190"/>
+      <c r="D7" s="190"/>
+      <c r="E7" s="190"/>
+      <c r="F7" s="190"/>
     </row>
     <row r="8" spans="1:6" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="186" t="s">
+      <c r="A8" s="188" t="s">
         <v>143</v>
       </c>
-      <c r="B8" s="186"/>
-      <c r="C8" s="186"/>
-      <c r="D8" s="186"/>
-      <c r="E8" s="186"/>
-      <c r="F8" s="186"/>
+      <c r="B8" s="188"/>
+      <c r="C8" s="188"/>
+      <c r="D8" s="188"/>
+      <c r="E8" s="188"/>
+      <c r="F8" s="188"/>
     </row>
     <row r="9" spans="1:6" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="186" t="s">
+      <c r="A9" s="188" t="s">
         <v>169</v>
       </c>
-      <c r="B9" s="186"/>
-      <c r="C9" s="186"/>
-      <c r="D9" s="186"/>
-      <c r="E9" s="186"/>
-      <c r="F9" s="186"/>
+      <c r="B9" s="188"/>
+      <c r="C9" s="188"/>
+      <c r="D9" s="188"/>
+      <c r="E9" s="188"/>
+      <c r="F9" s="188"/>
     </row>
     <row r="10" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="186" t="s">
+      <c r="A10" s="188" t="s">
         <v>170</v>
       </c>
-      <c r="B10" s="187"/>
-      <c r="C10" s="187"/>
-      <c r="D10" s="187"/>
-      <c r="E10" s="187"/>
-      <c r="F10" s="187"/>
+      <c r="B10" s="189"/>
+      <c r="C10" s="189"/>
+      <c r="D10" s="189"/>
+      <c r="E10" s="189"/>
+      <c r="F10" s="189"/>
     </row>
     <row r="11" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="186" t="s">
+      <c r="A11" s="188" t="s">
         <v>142</v>
       </c>
-      <c r="B11" s="187"/>
-      <c r="C11" s="187"/>
-      <c r="D11" s="187"/>
-      <c r="E11" s="187"/>
-      <c r="F11" s="187"/>
+      <c r="B11" s="189"/>
+      <c r="C11" s="189"/>
+      <c r="D11" s="189"/>
+      <c r="E11" s="189"/>
+      <c r="F11" s="189"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7247,22 +7301,22 @@
         <v>80</v>
       </c>
       <c r="C1" s="122" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D1" s="122" t="s">
         <v>1099</v>
       </c>
-      <c r="D1" s="122" t="s">
-        <v>1100</v>
-      </c>
       <c r="E1" s="123" t="s">
+        <v>213</v>
+      </c>
+      <c r="F1" s="123" t="s">
         <v>214</v>
       </c>
-      <c r="F1" s="123" t="s">
+      <c r="G1" s="124" t="s">
+        <v>1094</v>
+      </c>
+      <c r="H1" s="124" t="s">
         <v>215</v>
-      </c>
-      <c r="G1" s="124" t="s">
-        <v>1095</v>
-      </c>
-      <c r="H1" s="124" t="s">
-        <v>216</v>
       </c>
       <c r="I1" s="125" t="s">
         <v>174</v>
@@ -7286,7 +7340,7 @@
         <v>90</v>
       </c>
       <c r="P1" s="125" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="Q1" s="125" t="s">
         <v>124</v>
@@ -7313,25 +7367,25 @@
         <v>93</v>
       </c>
       <c r="Y1" s="127" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z1" s="125" t="s">
         <v>197</v>
-      </c>
-      <c r="Z1" s="125" t="s">
-        <v>198</v>
       </c>
       <c r="AA1" s="129" t="s">
         <v>98</v>
       </c>
       <c r="AB1" s="130" t="s">
+        <v>200</v>
+      </c>
+      <c r="AC1" s="130" t="s">
         <v>201</v>
       </c>
-      <c r="AC1" s="130" t="s">
+      <c r="AD1" s="130" t="s">
         <v>202</v>
       </c>
-      <c r="AD1" s="130" t="s">
-        <v>203</v>
-      </c>
       <c r="AE1" s="131" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AF1" s="131" t="s">
         <v>99</v>
@@ -7340,7 +7394,7 @@
         <v>100</v>
       </c>
       <c r="AH1" s="133" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="AI1" s="134" t="s">
         <v>68</v>
@@ -7352,7 +7406,7 @@
         <v>115</v>
       </c>
       <c r="AL1" s="132" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="AM1" s="132" t="s">
         <v>120</v>
@@ -7364,7 +7418,7 @@
         <v>122</v>
       </c>
       <c r="AP1" s="135" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AQ1" s="135" t="s">
         <v>118</v>
@@ -7394,8 +7448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:XFD43"/>
+    <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7410,26 +7464,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="191" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="189"/>
-      <c r="C1" s="189"/>
-      <c r="D1" s="189"/>
-      <c r="E1" s="189"/>
-      <c r="F1" s="189"/>
-      <c r="G1" s="189"/>
-      <c r="H1" s="189"/>
+      <c r="B1" s="191"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
       <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:9" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="190" t="s">
-        <v>1114</v>
-      </c>
-      <c r="B2" s="190"/>
-      <c r="C2" s="190"/>
-      <c r="D2" s="190"/>
-      <c r="E2" s="190"/>
+      <c r="A2" s="192" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B2" s="192"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
       <c r="F2" s="100"/>
       <c r="G2" s="100"/>
       <c r="H2" s="51"/>
@@ -7502,7 +7556,7 @@
     </row>
     <row r="6" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>81</v>
@@ -7523,7 +7577,7 @@
     </row>
     <row r="7" spans="1:9" ht="102" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>77</v>
@@ -7535,7 +7589,7 @@
         <v>83</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F7" s="31"/>
       <c r="G7" s="17"/>
@@ -7544,7 +7598,7 @@
     </row>
     <row r="8" spans="1:9" ht="51" x14ac:dyDescent="0.25">
       <c r="A8" s="115" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>81</v>
@@ -7553,10 +7607,10 @@
         <v>82</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F8" s="36"/>
       <c r="G8" s="13"/>
@@ -7565,7 +7619,7 @@
     </row>
     <row r="9" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="115" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>77</v>
@@ -7577,7 +7631,7 @@
         <v>83</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F9" s="36"/>
       <c r="G9" s="17"/>
@@ -7586,7 +7640,7 @@
     </row>
     <row r="10" spans="1:9" s="110" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A10" s="116" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B10" s="117" t="s">
         <v>81</v>
@@ -7598,13 +7652,13 @@
         <v>83</v>
       </c>
       <c r="E10" s="114" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="F10" s="109"/>
     </row>
     <row r="11" spans="1:9" s="110" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A11" s="116" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B11" s="117" t="s">
         <v>81</v>
@@ -7613,10 +7667,10 @@
         <v>82</v>
       </c>
       <c r="D11" s="119" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E11" s="114" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F11" s="109"/>
     </row>
@@ -7652,10 +7706,10 @@
         <v>82</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F13" s="36"/>
       <c r="G13" s="13"/>
@@ -7735,10 +7789,10 @@
         <v>82</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F17" s="37"/>
       <c r="G17" s="13"/>
@@ -7756,10 +7810,10 @@
         <v>82</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F18" s="37"/>
       <c r="G18" s="13"/>
@@ -7768,7 +7822,7 @@
     </row>
     <row r="19" spans="1:9" s="110" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="106" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B19" s="20" t="s">
         <v>81</v>
@@ -7780,7 +7834,7 @@
         <v>83</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F19" s="109"/>
     </row>
@@ -7798,7 +7852,7 @@
         <v>83</v>
       </c>
       <c r="E20" s="56" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F20" s="37"/>
       <c r="H20" s="52"/>
@@ -7818,7 +7872,7 @@
         <v>83</v>
       </c>
       <c r="E21" s="56" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="F21" s="37"/>
       <c r="H21" s="52"/>
@@ -7906,7 +7960,7 @@
       <c r="H25" s="52"/>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A26" s="107" t="s">
         <v>92</v>
       </c>
@@ -7919,11 +7973,11 @@
       <c r="D26" s="21">
         <v>1</v>
       </c>
-      <c r="E26" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="F26" s="37"/>
-      <c r="G26" s="13"/>
+      <c r="E26" s="204" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F26" s="203"/>
+      <c r="G26" s="203"/>
       <c r="H26" s="19"/>
       <c r="I26" s="17"/>
     </row>
@@ -7950,7 +8004,7 @@
     </row>
     <row r="28" spans="1:9" s="55" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A28" s="107" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B28" s="21" t="s">
         <v>84</v>
@@ -7962,7 +8016,7 @@
         <v>83</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F28" s="37"/>
       <c r="H28" s="19"/>
@@ -7970,7 +8024,7 @@
     </row>
     <row r="29" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A29" s="106" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B29" s="20" t="s">
         <v>84</v>
@@ -7982,7 +8036,7 @@
         <v>83</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F29" s="31"/>
       <c r="G29" s="13"/>
@@ -8012,7 +8066,7 @@
     </row>
     <row r="31" spans="1:9" ht="51" x14ac:dyDescent="0.25">
       <c r="A31" s="41" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B31" s="28" t="s">
         <v>86</v>
@@ -8021,10 +8075,10 @@
         <v>82</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="F31" s="37"/>
       <c r="G31" s="13"/>
@@ -8033,7 +8087,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="41" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B32" s="28" t="s">
         <v>84</v>
@@ -8042,10 +8096,10 @@
         <v>85</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F32" s="36"/>
       <c r="G32" s="13"/>
@@ -8054,7 +8108,7 @@
     </row>
     <row r="33" spans="1:12" s="13" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A33" s="41" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B33" s="28" t="s">
         <v>84</v>
@@ -8066,7 +8120,7 @@
         <v>83</v>
       </c>
       <c r="E33" s="31" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F33" s="36"/>
       <c r="H33" s="52"/>
@@ -8074,7 +8128,7 @@
     </row>
     <row r="34" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A34" s="42" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B34" s="16" t="s">
         <v>84</v>
@@ -8086,7 +8140,7 @@
         <v>83</v>
       </c>
       <c r="E34" s="32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F34" s="38"/>
       <c r="G34" s="13"/>
@@ -8098,7 +8152,7 @@
         <v>99</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C35" s="29" t="s">
         <v>82</v>
@@ -8137,7 +8191,7 @@
     </row>
     <row r="37" spans="1:12" s="55" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A37" s="50" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B37" s="16" t="s">
         <v>77</v>
@@ -8149,7 +8203,7 @@
         <v>83</v>
       </c>
       <c r="E37" s="32" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="F37" s="36"/>
       <c r="H37" s="52"/>
@@ -8166,10 +8220,10 @@
         <v>82</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="F38" s="39"/>
       <c r="G38" s="13"/>
@@ -8190,7 +8244,7 @@
         <v>83</v>
       </c>
       <c r="E39" s="31" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
@@ -8226,19 +8280,19 @@
     </row>
     <row r="41" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A41" s="45" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C41" s="28" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D41" s="21">
         <v>1</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
@@ -8262,7 +8316,7 @@
         <v>1</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="43" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -8279,7 +8333,7 @@
         <v>1</v>
       </c>
       <c r="E43" s="24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="44" spans="1:12" s="13" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
@@ -8296,12 +8350,12 @@
         <v>1</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="27" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B45" s="16" t="s">
         <v>84</v>
@@ -8313,7 +8367,7 @@
         <v>1</v>
       </c>
       <c r="E45" s="32" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="F45" s="31"/>
       <c r="G45" s="13"/>
@@ -8402,7 +8456,7 @@
         <v>1</v>
       </c>
       <c r="E49" s="32" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="F49" s="39"/>
       <c r="G49" s="13"/>
@@ -8494,7 +8548,7 @@
       <c r="A7" s="142" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="191" t="s">
+      <c r="B7" s="193" t="s">
         <v>114</v>
       </c>
       <c r="C7" s="145"/>
@@ -8504,7 +8558,7 @@
       <c r="A8" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="192"/>
+      <c r="B8" s="194"/>
       <c r="C8" s="145"/>
       <c r="D8" s="2"/>
     </row>
@@ -8514,119 +8568,119 @@
     </row>
     <row r="11" spans="1:4" s="110" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="150" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B11" s="146" t="s">
         <v>1115</v>
-      </c>
-      <c r="B11" s="146" t="s">
-        <v>1116</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="110" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="147" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B12" s="148"/>
     </row>
     <row r="13" spans="1:4" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="147" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B13" s="148"/>
     </row>
     <row r="14" spans="1:4" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="147" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B14" s="148"/>
     </row>
     <row r="15" spans="1:4" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="147" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B15" s="148"/>
     </row>
     <row r="16" spans="1:4" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="147" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B16" s="148"/>
     </row>
     <row r="17" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="147" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B17" s="148"/>
     </row>
     <row r="18" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="147" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B18" s="148"/>
     </row>
     <row r="19" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="147" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B19" s="148"/>
     </row>
     <row r="20" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="147" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B20" s="148"/>
       <c r="C20" s="55"/>
     </row>
     <row r="21" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="147" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B21" s="148"/>
       <c r="C21" s="55"/>
     </row>
     <row r="22" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="147" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B22" s="148"/>
       <c r="C22" s="55"/>
     </row>
     <row r="23" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="147" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B23" s="148"/>
       <c r="C23" s="55"/>
     </row>
     <row r="24" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="147" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B24" s="148"/>
       <c r="C24" s="55"/>
     </row>
     <row r="25" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="147" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B25" s="148"/>
       <c r="C25" s="55"/>
     </row>
     <row r="26" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="147" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B26" s="148"/>
       <c r="C26" s="55"/>
     </row>
     <row r="27" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="147" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B27" s="148"/>
       <c r="C27" s="55"/>
     </row>
     <row r="28" spans="1:3" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="147" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B28" s="148"/>
       <c r="C28" s="55"/>
@@ -8636,7 +8690,7 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9222,3723 +9276,3723 @@
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="113" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" s="113" t="s">
         <v>219</v>
       </c>
-      <c r="B2" s="113" t="s">
+      <c r="C2" s="113" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" s="113" t="s">
         <v>220</v>
-      </c>
-      <c r="C2" s="113" t="s">
-        <v>218</v>
-      </c>
-      <c r="D2" s="113" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="113" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" s="113" t="s">
         <v>223</v>
       </c>
-      <c r="B3" s="113" t="s">
-        <v>224</v>
-      </c>
       <c r="C3" s="113" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D3" s="113" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="113" t="s">
+        <v>225</v>
+      </c>
+      <c r="B4" s="113" t="s">
         <v>226</v>
       </c>
-      <c r="B4" s="113" t="s">
+      <c r="C4" s="113" t="s">
+        <v>224</v>
+      </c>
+      <c r="D4" s="113" t="s">
         <v>227</v>
-      </c>
-      <c r="C4" s="113" t="s">
-        <v>225</v>
-      </c>
-      <c r="D4" s="113" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="113" t="s">
+        <v>229</v>
+      </c>
+      <c r="B5" s="113" t="s">
         <v>230</v>
       </c>
-      <c r="B5" s="113" t="s">
+      <c r="C5" s="113" t="s">
+        <v>228</v>
+      </c>
+      <c r="D5" s="113" t="s">
         <v>231</v>
-      </c>
-      <c r="C5" s="113" t="s">
-        <v>229</v>
-      </c>
-      <c r="D5" s="113" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="113" t="s">
+        <v>233</v>
+      </c>
+      <c r="B6" s="113" t="s">
         <v>234</v>
       </c>
-      <c r="B6" s="113" t="s">
-        <v>235</v>
-      </c>
       <c r="C6" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D6" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="113" t="s">
+        <v>236</v>
+      </c>
+      <c r="B7" s="113" t="s">
         <v>237</v>
       </c>
-      <c r="B7" s="113" t="s">
-        <v>238</v>
-      </c>
       <c r="C7" s="113" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D7" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="113" t="s">
+        <v>239</v>
+      </c>
+      <c r="B8" s="113" t="s">
         <v>240</v>
       </c>
-      <c r="B8" s="113" t="s">
-        <v>241</v>
-      </c>
       <c r="C8" s="113" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D8" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="113" t="s">
+        <v>242</v>
+      </c>
+      <c r="B9" s="113" t="s">
         <v>243</v>
       </c>
-      <c r="B9" s="113" t="s">
-        <v>244</v>
-      </c>
       <c r="C9" s="113" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D9" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="113" t="s">
+        <v>245</v>
+      </c>
+      <c r="B10" s="113" t="s">
         <v>246</v>
       </c>
-      <c r="B10" s="113" t="s">
-        <v>247</v>
-      </c>
       <c r="C10" s="113" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D10" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="113" t="s">
+        <v>248</v>
+      </c>
+      <c r="B11" s="113" t="s">
         <v>249</v>
       </c>
-      <c r="B11" s="113" t="s">
+      <c r="C11" s="113" t="s">
+        <v>247</v>
+      </c>
+      <c r="D11" s="113" t="s">
         <v>250</v>
-      </c>
-      <c r="C11" s="113" t="s">
-        <v>248</v>
-      </c>
-      <c r="D11" s="113" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="210" x14ac:dyDescent="0.25">
       <c r="A12" s="113" t="s">
+        <v>252</v>
+      </c>
+      <c r="B12" s="113" t="s">
         <v>253</v>
       </c>
-      <c r="B12" s="113" t="s">
-        <v>254</v>
-      </c>
       <c r="C12" s="113" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D12" s="113" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="113" t="s">
+        <v>255</v>
+      </c>
+      <c r="B13" s="113" t="s">
         <v>256</v>
       </c>
-      <c r="B13" s="113" t="s">
-        <v>257</v>
-      </c>
       <c r="C13" s="113" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D13" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="113" t="s">
+        <v>258</v>
+      </c>
+      <c r="B14" s="113" t="s">
         <v>259</v>
       </c>
-      <c r="B14" s="113" t="s">
+      <c r="C14" s="113" t="s">
+        <v>257</v>
+      </c>
+      <c r="D14" s="113" t="s">
         <v>260</v>
-      </c>
-      <c r="C14" s="113" t="s">
-        <v>258</v>
-      </c>
-      <c r="D14" s="113" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" s="113" t="s">
+        <v>262</v>
+      </c>
+      <c r="B15" s="113" t="s">
         <v>263</v>
       </c>
-      <c r="B15" s="113" t="s">
+      <c r="C15" s="113" t="s">
+        <v>261</v>
+      </c>
+      <c r="D15" s="113" t="s">
         <v>264</v>
-      </c>
-      <c r="C15" s="113" t="s">
-        <v>262</v>
-      </c>
-      <c r="D15" s="113" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="113" t="s">
+        <v>266</v>
+      </c>
+      <c r="B16" s="113" t="s">
         <v>267</v>
       </c>
-      <c r="B16" s="113" t="s">
+      <c r="C16" s="113" t="s">
+        <v>265</v>
+      </c>
+      <c r="D16" s="113" t="s">
         <v>268</v>
-      </c>
-      <c r="C16" s="113" t="s">
-        <v>266</v>
-      </c>
-      <c r="D16" s="113" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="113" t="s">
+        <v>270</v>
+      </c>
+      <c r="B17" s="113" t="s">
         <v>271</v>
       </c>
-      <c r="B17" s="113" t="s">
-        <v>272</v>
-      </c>
       <c r="C17" s="113" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D17" s="113" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="113" t="s">
+        <v>273</v>
+      </c>
+      <c r="B18" s="113" t="s">
         <v>274</v>
       </c>
-      <c r="B18" s="113" t="s">
-        <v>275</v>
-      </c>
       <c r="C18" s="113" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D18" s="113" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="113" t="s">
+        <v>276</v>
+      </c>
+      <c r="B19" s="113" t="s">
         <v>277</v>
       </c>
-      <c r="B19" s="113" t="s">
+      <c r="C19" s="113" t="s">
+        <v>275</v>
+      </c>
+      <c r="D19" s="113" t="s">
         <v>278</v>
-      </c>
-      <c r="C19" s="113" t="s">
-        <v>276</v>
-      </c>
-      <c r="D19" s="113" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="113" t="s">
+        <v>280</v>
+      </c>
+      <c r="B20" s="113" t="s">
         <v>281</v>
       </c>
-      <c r="B20" s="113" t="s">
+      <c r="C20" s="113" t="s">
+        <v>279</v>
+      </c>
+      <c r="D20" s="113" t="s">
         <v>282</v>
-      </c>
-      <c r="C20" s="113" t="s">
-        <v>280</v>
-      </c>
-      <c r="D20" s="113" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="113" t="s">
+        <v>284</v>
+      </c>
+      <c r="B21" s="113" t="s">
         <v>285</v>
       </c>
-      <c r="B21" s="113" t="s">
+      <c r="C21" s="113" t="s">
+        <v>283</v>
+      </c>
+      <c r="D21" s="113" t="s">
         <v>286</v>
-      </c>
-      <c r="C21" s="113" t="s">
-        <v>284</v>
-      </c>
-      <c r="D21" s="113" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="113" t="s">
+        <v>288</v>
+      </c>
+      <c r="B22" s="113" t="s">
         <v>289</v>
       </c>
-      <c r="B22" s="113" t="s">
-        <v>290</v>
-      </c>
       <c r="C22" s="113" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D22" s="113" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="113" t="s">
+        <v>291</v>
+      </c>
+      <c r="B23" s="113" t="s">
         <v>292</v>
       </c>
-      <c r="B23" s="113" t="s">
-        <v>293</v>
-      </c>
       <c r="C23" s="113" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D23" s="113" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="210" x14ac:dyDescent="0.25">
       <c r="A24" s="113" t="s">
+        <v>294</v>
+      </c>
+      <c r="B24" s="113" t="s">
         <v>295</v>
       </c>
-      <c r="B24" s="113" t="s">
-        <v>296</v>
-      </c>
       <c r="C24" s="113" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D24" s="113" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="113" t="s">
+        <v>297</v>
+      </c>
+      <c r="B25" s="113" t="s">
         <v>298</v>
       </c>
-      <c r="B25" s="113" t="s">
-        <v>299</v>
-      </c>
       <c r="C25" s="113" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D25" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="113" t="s">
+        <v>300</v>
+      </c>
+      <c r="B26" s="113" t="s">
         <v>301</v>
       </c>
-      <c r="B26" s="113" t="s">
-        <v>302</v>
-      </c>
       <c r="C26" s="113" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D26" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="113" t="s">
+        <v>303</v>
+      </c>
+      <c r="B27" s="113" t="s">
         <v>304</v>
       </c>
-      <c r="B27" s="113" t="s">
-        <v>305</v>
-      </c>
       <c r="C27" s="113" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D27" s="113" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="113" t="s">
+        <v>306</v>
+      </c>
+      <c r="B28" s="113" t="s">
         <v>307</v>
       </c>
-      <c r="B28" s="113" t="s">
-        <v>308</v>
-      </c>
       <c r="C28" s="113" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D28" s="113" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A29" s="113" t="s">
+        <v>309</v>
+      </c>
+      <c r="B29" s="113" t="s">
         <v>310</v>
       </c>
-      <c r="B29" s="113" t="s">
+      <c r="C29" s="113" t="s">
+        <v>308</v>
+      </c>
+      <c r="D29" s="113" t="s">
         <v>311</v>
-      </c>
-      <c r="C29" s="113" t="s">
-        <v>309</v>
-      </c>
-      <c r="D29" s="113" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="113" t="s">
+        <v>313</v>
+      </c>
+      <c r="B30" s="113" t="s">
         <v>314</v>
       </c>
-      <c r="B30" s="113" t="s">
+      <c r="C30" s="113" t="s">
+        <v>312</v>
+      </c>
+      <c r="D30" s="113" t="s">
         <v>315</v>
-      </c>
-      <c r="C30" s="113" t="s">
-        <v>313</v>
-      </c>
-      <c r="D30" s="113" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="113" t="s">
+        <v>317</v>
+      </c>
+      <c r="B31" s="113" t="s">
         <v>318</v>
       </c>
-      <c r="B31" s="113" t="s">
+      <c r="C31" s="113" t="s">
+        <v>316</v>
+      </c>
+      <c r="D31" s="113" t="s">
         <v>319</v>
-      </c>
-      <c r="C31" s="113" t="s">
-        <v>317</v>
-      </c>
-      <c r="D31" s="113" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A32" s="113" t="s">
+        <v>321</v>
+      </c>
+      <c r="B32" s="113" t="s">
         <v>322</v>
       </c>
-      <c r="B32" s="113" t="s">
+      <c r="C32" s="113" t="s">
+        <v>320</v>
+      </c>
+      <c r="D32" s="113" t="s">
         <v>323</v>
-      </c>
-      <c r="C32" s="113" t="s">
-        <v>321</v>
-      </c>
-      <c r="D32" s="113" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="113" t="s">
+        <v>325</v>
+      </c>
+      <c r="B33" s="113" t="s">
         <v>326</v>
       </c>
-      <c r="B33" s="113" t="s">
-        <v>327</v>
-      </c>
       <c r="C33" s="113" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D33" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="113" t="s">
+        <v>328</v>
+      </c>
+      <c r="B34" s="113" t="s">
         <v>329</v>
       </c>
-      <c r="B34" s="113" t="s">
+      <c r="C34" s="113" t="s">
+        <v>327</v>
+      </c>
+      <c r="D34" s="113" t="s">
         <v>330</v>
-      </c>
-      <c r="C34" s="113" t="s">
-        <v>328</v>
-      </c>
-      <c r="D34" s="113" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="113" t="s">
+        <v>332</v>
+      </c>
+      <c r="B35" s="113" t="s">
         <v>333</v>
       </c>
-      <c r="B35" s="113" t="s">
+      <c r="C35" s="113" t="s">
+        <v>331</v>
+      </c>
+      <c r="D35" s="113" t="s">
         <v>334</v>
-      </c>
-      <c r="C35" s="113" t="s">
-        <v>332</v>
-      </c>
-      <c r="D35" s="113" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="210" x14ac:dyDescent="0.25">
       <c r="A36" s="113" t="s">
+        <v>336</v>
+      </c>
+      <c r="B36" s="113" t="s">
         <v>337</v>
       </c>
-      <c r="B36" s="113" t="s">
-        <v>338</v>
-      </c>
       <c r="C36" s="113" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D36" s="113" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="113" t="s">
+        <v>339</v>
+      </c>
+      <c r="B37" s="113" t="s">
         <v>340</v>
       </c>
-      <c r="B37" s="113" t="s">
+      <c r="C37" s="113" t="s">
+        <v>338</v>
+      </c>
+      <c r="D37" s="113" t="s">
         <v>341</v>
-      </c>
-      <c r="C37" s="113" t="s">
-        <v>339</v>
-      </c>
-      <c r="D37" s="113" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="113" t="s">
+        <v>343</v>
+      </c>
+      <c r="B38" s="113" t="s">
         <v>344</v>
       </c>
-      <c r="B38" s="113" t="s">
+      <c r="C38" s="113" t="s">
+        <v>342</v>
+      </c>
+      <c r="D38" s="113" t="s">
         <v>345</v>
-      </c>
-      <c r="C38" s="113" t="s">
-        <v>343</v>
-      </c>
-      <c r="D38" s="113" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="113" t="s">
+        <v>347</v>
+      </c>
+      <c r="B39" s="113" t="s">
         <v>348</v>
       </c>
-      <c r="B39" s="113" t="s">
-        <v>349</v>
-      </c>
       <c r="C39" s="113" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D39" s="113" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="113" t="s">
+        <v>350</v>
+      </c>
+      <c r="B40" s="113" t="s">
         <v>351</v>
       </c>
-      <c r="B40" s="113" t="s">
+      <c r="C40" s="113" t="s">
+        <v>349</v>
+      </c>
+      <c r="D40" s="113" t="s">
         <v>352</v>
-      </c>
-      <c r="C40" s="113" t="s">
-        <v>350</v>
-      </c>
-      <c r="D40" s="113" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="113" t="s">
+        <v>354</v>
+      </c>
+      <c r="B41" s="113" t="s">
         <v>355</v>
       </c>
-      <c r="B41" s="113" t="s">
+      <c r="C41" s="113" t="s">
+        <v>353</v>
+      </c>
+      <c r="D41" s="113" t="s">
         <v>356</v>
-      </c>
-      <c r="C41" s="113" t="s">
-        <v>354</v>
-      </c>
-      <c r="D41" s="113" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="113" t="s">
+        <v>358</v>
+      </c>
+      <c r="B42" s="113" t="s">
         <v>359</v>
       </c>
-      <c r="B42" s="113" t="s">
-        <v>360</v>
-      </c>
       <c r="C42" s="113" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D42" s="113" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="113" t="s">
+        <v>361</v>
+      </c>
+      <c r="B43" s="113" t="s">
         <v>362</v>
       </c>
-      <c r="B43" s="113" t="s">
-        <v>363</v>
-      </c>
       <c r="C43" s="113" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D43" s="113" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="113" t="s">
+        <v>364</v>
+      </c>
+      <c r="B44" s="113" t="s">
         <v>365</v>
       </c>
-      <c r="B44" s="113" t="s">
-        <v>366</v>
-      </c>
       <c r="C44" s="113" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D44" s="113" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="113" t="s">
+        <v>367</v>
+      </c>
+      <c r="B45" s="113" t="s">
         <v>368</v>
       </c>
-      <c r="B45" s="113" t="s">
-        <v>369</v>
-      </c>
       <c r="C45" s="113" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D45" s="113" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="113" t="s">
+        <v>370</v>
+      </c>
+      <c r="B46" s="113" t="s">
         <v>371</v>
       </c>
-      <c r="B46" s="113" t="s">
-        <v>372</v>
-      </c>
       <c r="C46" s="113" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D46" s="113" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="113" t="s">
+        <v>373</v>
+      </c>
+      <c r="B47" s="113" t="s">
         <v>374</v>
       </c>
-      <c r="B47" s="113" t="s">
-        <v>375</v>
-      </c>
       <c r="C47" s="113" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D47" s="113" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="113" t="s">
+        <v>376</v>
+      </c>
+      <c r="B48" s="113" t="s">
         <v>377</v>
       </c>
-      <c r="B48" s="113" t="s">
-        <v>378</v>
-      </c>
       <c r="C48" s="113" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D48" s="113" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A49" s="113" t="s">
+        <v>379</v>
+      </c>
+      <c r="B49" s="113" t="s">
         <v>380</v>
       </c>
-      <c r="B49" s="113" t="s">
+      <c r="C49" s="113" t="s">
+        <v>378</v>
+      </c>
+      <c r="D49" s="113" t="s">
         <v>381</v>
-      </c>
-      <c r="C49" s="113" t="s">
-        <v>379</v>
-      </c>
-      <c r="D49" s="113" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="113" t="s">
+        <v>383</v>
+      </c>
+      <c r="B50" s="113" t="s">
         <v>384</v>
       </c>
-      <c r="B50" s="113" t="s">
-        <v>385</v>
-      </c>
       <c r="C50" s="113" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D50" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A51" s="113" t="s">
+        <v>386</v>
+      </c>
+      <c r="B51" s="113" t="s">
         <v>387</v>
       </c>
-      <c r="B51" s="113" t="s">
+      <c r="C51" s="113" t="s">
+        <v>385</v>
+      </c>
+      <c r="D51" s="113" t="s">
         <v>388</v>
-      </c>
-      <c r="C51" s="113" t="s">
-        <v>386</v>
-      </c>
-      <c r="D51" s="113" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A52" s="113" t="s">
+        <v>390</v>
+      </c>
+      <c r="B52" s="113" t="s">
         <v>391</v>
       </c>
-      <c r="B52" s="113" t="s">
+      <c r="C52" s="113" t="s">
+        <v>389</v>
+      </c>
+      <c r="D52" s="113" t="s">
         <v>392</v>
-      </c>
-      <c r="C52" s="113" t="s">
-        <v>390</v>
-      </c>
-      <c r="D52" s="113" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="113" t="s">
+        <v>394</v>
+      </c>
+      <c r="B53" s="113" t="s">
         <v>395</v>
       </c>
-      <c r="B53" s="113" t="s">
-        <v>396</v>
-      </c>
       <c r="C53" s="113" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D53" s="113" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="113" t="s">
+        <v>397</v>
+      </c>
+      <c r="B54" s="113" t="s">
         <v>398</v>
       </c>
-      <c r="B54" s="113" t="s">
-        <v>399</v>
-      </c>
       <c r="C54" s="113" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D54" s="113" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A55" s="113" t="s">
+        <v>400</v>
+      </c>
+      <c r="B55" s="113" t="s">
         <v>401</v>
       </c>
-      <c r="B55" s="113" t="s">
+      <c r="C55" s="113" t="s">
+        <v>399</v>
+      </c>
+      <c r="D55" s="113" t="s">
         <v>402</v>
-      </c>
-      <c r="C55" s="113" t="s">
-        <v>400</v>
-      </c>
-      <c r="D55" s="113" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="113" t="s">
+        <v>404</v>
+      </c>
+      <c r="B56" s="113" t="s">
         <v>405</v>
       </c>
-      <c r="B56" s="113" t="s">
+      <c r="C56" s="113" t="s">
+        <v>403</v>
+      </c>
+      <c r="D56" s="113" t="s">
         <v>406</v>
-      </c>
-      <c r="C56" s="113" t="s">
-        <v>404</v>
-      </c>
-      <c r="D56" s="113" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="113" t="s">
+        <v>408</v>
+      </c>
+      <c r="B57" s="113" t="s">
         <v>409</v>
       </c>
-      <c r="B57" s="113" t="s">
+      <c r="C57" s="113" t="s">
+        <v>407</v>
+      </c>
+      <c r="D57" s="113" t="s">
         <v>410</v>
-      </c>
-      <c r="C57" s="113" t="s">
-        <v>408</v>
-      </c>
-      <c r="D57" s="113" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A58" s="113" t="s">
+        <v>412</v>
+      </c>
+      <c r="B58" s="113" t="s">
         <v>413</v>
       </c>
-      <c r="B58" s="113" t="s">
+      <c r="C58" s="113" t="s">
+        <v>411</v>
+      </c>
+      <c r="D58" s="113" t="s">
         <v>414</v>
-      </c>
-      <c r="C58" s="113" t="s">
-        <v>412</v>
-      </c>
-      <c r="D58" s="113" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A59" s="113" t="s">
+        <v>416</v>
+      </c>
+      <c r="B59" s="113" t="s">
         <v>417</v>
       </c>
-      <c r="B59" s="113" t="s">
-        <v>418</v>
-      </c>
       <c r="C59" s="113" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D59" s="113" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A60" s="113" t="s">
+        <v>419</v>
+      </c>
+      <c r="B60" s="113" t="s">
         <v>420</v>
       </c>
-      <c r="B60" s="113" t="s">
-        <v>421</v>
-      </c>
       <c r="C60" s="113" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D60" s="113" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="113" t="s">
+        <v>422</v>
+      </c>
+      <c r="B61" s="113" t="s">
         <v>423</v>
       </c>
-      <c r="B61" s="113" t="s">
+      <c r="C61" s="113" t="s">
+        <v>421</v>
+      </c>
+      <c r="D61" s="113" t="s">
         <v>424</v>
-      </c>
-      <c r="C61" s="113" t="s">
-        <v>422</v>
-      </c>
-      <c r="D61" s="113" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="113" t="s">
+        <v>426</v>
+      </c>
+      <c r="B62" s="113" t="s">
         <v>427</v>
       </c>
-      <c r="B62" s="113" t="s">
-        <v>428</v>
-      </c>
       <c r="C62" s="113" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D62" s="113" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A63" s="113" t="s">
+        <v>429</v>
+      </c>
+      <c r="B63" s="113" t="s">
         <v>430</v>
       </c>
-      <c r="B63" s="113" t="s">
+      <c r="C63" s="113" t="s">
+        <v>428</v>
+      </c>
+      <c r="D63" s="113" t="s">
         <v>431</v>
-      </c>
-      <c r="C63" s="113" t="s">
-        <v>429</v>
-      </c>
-      <c r="D63" s="113" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="113" t="s">
+        <v>433</v>
+      </c>
+      <c r="B64" s="113" t="s">
         <v>434</v>
       </c>
-      <c r="B64" s="113" t="s">
-        <v>435</v>
-      </c>
       <c r="C64" s="113" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D64" s="113" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A65" s="113" t="s">
+        <v>436</v>
+      </c>
+      <c r="B65" s="113" t="s">
         <v>437</v>
       </c>
-      <c r="B65" s="113" t="s">
-        <v>438</v>
-      </c>
       <c r="C65" s="113" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D65" s="113" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A66" s="113" t="s">
+        <v>439</v>
+      </c>
+      <c r="B66" s="113" t="s">
         <v>440</v>
       </c>
-      <c r="B66" s="113" t="s">
-        <v>441</v>
-      </c>
       <c r="C66" s="113" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D66" s="113" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" s="113" t="s">
+        <v>442</v>
+      </c>
+      <c r="B67" s="113" t="s">
         <v>443</v>
       </c>
-      <c r="B67" s="113" t="s">
+      <c r="C67" s="113" t="s">
+        <v>441</v>
+      </c>
+      <c r="D67" s="113" t="s">
         <v>444</v>
-      </c>
-      <c r="C67" s="113" t="s">
-        <v>442</v>
-      </c>
-      <c r="D67" s="113" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="113" t="s">
+        <v>446</v>
+      </c>
+      <c r="B68" s="113" t="s">
         <v>447</v>
       </c>
-      <c r="B68" s="113" t="s">
-        <v>448</v>
-      </c>
       <c r="C68" s="113" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D68" s="113" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A69" s="113" t="s">
+        <v>449</v>
+      </c>
+      <c r="B69" s="113" t="s">
         <v>450</v>
       </c>
-      <c r="B69" s="113" t="s">
-        <v>451</v>
-      </c>
       <c r="C69" s="113" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D69" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A70" s="113" t="s">
+        <v>452</v>
+      </c>
+      <c r="B70" s="113" t="s">
         <v>453</v>
       </c>
-      <c r="B70" s="113" t="s">
+      <c r="C70" s="113" t="s">
+        <v>451</v>
+      </c>
+      <c r="D70" s="113" t="s">
         <v>454</v>
-      </c>
-      <c r="C70" s="113" t="s">
-        <v>452</v>
-      </c>
-      <c r="D70" s="113" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A71" s="113" t="s">
+        <v>456</v>
+      </c>
+      <c r="B71" s="113" t="s">
         <v>457</v>
       </c>
-      <c r="B71" s="113" t="s">
-        <v>458</v>
-      </c>
       <c r="C71" s="113" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D71" s="113" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A72" s="113" t="s">
+        <v>459</v>
+      </c>
+      <c r="B72" s="113" t="s">
         <v>460</v>
       </c>
-      <c r="B72" s="113" t="s">
-        <v>461</v>
-      </c>
       <c r="C72" s="113" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D72" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A73" s="113" t="s">
+        <v>462</v>
+      </c>
+      <c r="B73" s="113" t="s">
         <v>463</v>
       </c>
-      <c r="B73" s="113" t="s">
-        <v>464</v>
-      </c>
       <c r="C73" s="113" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D73" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A74" s="113" t="s">
+        <v>465</v>
+      </c>
+      <c r="B74" s="113" t="s">
         <v>466</v>
       </c>
-      <c r="B74" s="113" t="s">
-        <v>467</v>
-      </c>
       <c r="C74" s="113" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D74" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A75" s="113" t="s">
+        <v>468</v>
+      </c>
+      <c r="B75" s="113" t="s">
         <v>469</v>
       </c>
-      <c r="B75" s="113" t="s">
+      <c r="C75" s="113" t="s">
+        <v>467</v>
+      </c>
+      <c r="D75" s="113" t="s">
         <v>470</v>
-      </c>
-      <c r="C75" s="113" t="s">
-        <v>468</v>
-      </c>
-      <c r="D75" s="113" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" s="113" t="s">
+        <v>472</v>
+      </c>
+      <c r="B76" s="113" t="s">
         <v>473</v>
       </c>
-      <c r="B76" s="113" t="s">
+      <c r="C76" s="113" t="s">
+        <v>471</v>
+      </c>
+      <c r="D76" s="113" t="s">
         <v>474</v>
-      </c>
-      <c r="C76" s="113" t="s">
-        <v>472</v>
-      </c>
-      <c r="D76" s="113" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="113" t="s">
+        <v>476</v>
+      </c>
+      <c r="B77" s="113" t="s">
         <v>477</v>
       </c>
-      <c r="B77" s="113" t="s">
-        <v>478</v>
-      </c>
       <c r="C77" s="113" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D77" s="113" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="113" t="s">
+        <v>479</v>
+      </c>
+      <c r="B78" s="113" t="s">
         <v>480</v>
       </c>
-      <c r="B78" s="113" t="s">
-        <v>481</v>
-      </c>
       <c r="C78" s="113" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D78" s="113" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="113" t="s">
+        <v>482</v>
+      </c>
+      <c r="B79" s="113" t="s">
         <v>483</v>
       </c>
-      <c r="B79" s="113" t="s">
-        <v>484</v>
-      </c>
       <c r="C79" s="113" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D79" s="113" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="113" t="s">
+        <v>485</v>
+      </c>
+      <c r="B80" s="113" t="s">
         <v>486</v>
       </c>
-      <c r="B80" s="113" t="s">
-        <v>487</v>
-      </c>
       <c r="C80" s="113" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D80" s="113" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A81" s="113" t="s">
+        <v>488</v>
+      </c>
+      <c r="B81" s="113" t="s">
         <v>489</v>
       </c>
-      <c r="B81" s="113" t="s">
+      <c r="C81" s="113" t="s">
+        <v>487</v>
+      </c>
+      <c r="D81" s="113" t="s">
         <v>490</v>
-      </c>
-      <c r="C81" s="113" t="s">
-        <v>488</v>
-      </c>
-      <c r="D81" s="113" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A82" s="113" t="s">
+        <v>492</v>
+      </c>
+      <c r="B82" s="113" t="s">
         <v>493</v>
       </c>
-      <c r="B82" s="113" t="s">
+      <c r="C82" s="113" t="s">
+        <v>491</v>
+      </c>
+      <c r="D82" s="113" t="s">
         <v>494</v>
-      </c>
-      <c r="C82" s="113" t="s">
-        <v>492</v>
-      </c>
-      <c r="D82" s="113" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" s="113" t="s">
+        <v>496</v>
+      </c>
+      <c r="B83" s="113" t="s">
         <v>497</v>
       </c>
-      <c r="B83" s="113" t="s">
+      <c r="C83" s="113" t="s">
+        <v>495</v>
+      </c>
+      <c r="D83" s="113" t="s">
         <v>498</v>
-      </c>
-      <c r="C83" s="113" t="s">
-        <v>496</v>
-      </c>
-      <c r="D83" s="113" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A84" s="113" t="s">
+        <v>500</v>
+      </c>
+      <c r="B84" s="113" t="s">
         <v>501</v>
       </c>
-      <c r="B84" s="113" t="s">
+      <c r="C84" s="113" t="s">
+        <v>499</v>
+      </c>
+      <c r="D84" s="113" t="s">
         <v>502</v>
-      </c>
-      <c r="C84" s="113" t="s">
-        <v>500</v>
-      </c>
-      <c r="D84" s="113" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="113" t="s">
+        <v>504</v>
+      </c>
+      <c r="B85" s="113" t="s">
         <v>505</v>
       </c>
-      <c r="B85" s="113" t="s">
-        <v>506</v>
-      </c>
       <c r="C85" s="113" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D85" s="113" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A86" s="113" t="s">
+        <v>507</v>
+      </c>
+      <c r="B86" s="113" t="s">
         <v>508</v>
       </c>
-      <c r="B86" s="113" t="s">
+      <c r="C86" s="113" t="s">
+        <v>506</v>
+      </c>
+      <c r="D86" s="113" t="s">
         <v>509</v>
-      </c>
-      <c r="C86" s="113" t="s">
-        <v>507</v>
-      </c>
-      <c r="D86" s="113" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A87" s="113" t="s">
+        <v>511</v>
+      </c>
+      <c r="B87" s="113" t="s">
         <v>512</v>
       </c>
-      <c r="B87" s="113" t="s">
-        <v>513</v>
-      </c>
       <c r="C87" s="113" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D87" s="113" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="113" t="s">
+        <v>514</v>
+      </c>
+      <c r="B88" s="113" t="s">
         <v>515</v>
       </c>
-      <c r="B88" s="113" t="s">
-        <v>516</v>
-      </c>
       <c r="C88" s="113" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D88" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="113" t="s">
+        <v>517</v>
+      </c>
+      <c r="B89" s="113" t="s">
         <v>518</v>
       </c>
-      <c r="B89" s="113" t="s">
-        <v>519</v>
-      </c>
       <c r="C89" s="113" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D89" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="113" t="s">
+        <v>520</v>
+      </c>
+      <c r="B90" s="113" t="s">
         <v>521</v>
       </c>
-      <c r="B90" s="113" t="s">
-        <v>522</v>
-      </c>
       <c r="C90" s="113" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D90" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="113" t="s">
+        <v>523</v>
+      </c>
+      <c r="B91" s="113" t="s">
         <v>524</v>
       </c>
-      <c r="B91" s="113" t="s">
-        <v>525</v>
-      </c>
       <c r="C91" s="113" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D91" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="113" t="s">
+        <v>526</v>
+      </c>
+      <c r="B92" s="113" t="s">
         <v>527</v>
       </c>
-      <c r="B92" s="113" t="s">
-        <v>528</v>
-      </c>
       <c r="C92" s="113" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D92" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="113" t="s">
+        <v>529</v>
+      </c>
+      <c r="B93" s="113" t="s">
         <v>530</v>
       </c>
-      <c r="B93" s="113" t="s">
-        <v>531</v>
-      </c>
       <c r="C93" s="113" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D93" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="113" t="s">
+        <v>532</v>
+      </c>
+      <c r="B94" s="113" t="s">
         <v>533</v>
       </c>
-      <c r="B94" s="113" t="s">
-        <v>534</v>
-      </c>
       <c r="C94" s="113" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D94" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="113" t="s">
+        <v>535</v>
+      </c>
+      <c r="B95" s="113" t="s">
         <v>536</v>
       </c>
-      <c r="B95" s="113" t="s">
-        <v>537</v>
-      </c>
       <c r="C95" s="113" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D95" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="113" t="s">
+        <v>538</v>
+      </c>
+      <c r="B96" s="113" t="s">
         <v>539</v>
       </c>
-      <c r="B96" s="113" t="s">
-        <v>540</v>
-      </c>
       <c r="C96" s="113" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D96" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="113" t="s">
+        <v>541</v>
+      </c>
+      <c r="B97" s="113" t="s">
         <v>542</v>
       </c>
-      <c r="B97" s="113" t="s">
-        <v>543</v>
-      </c>
       <c r="C97" s="113" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D97" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="113" t="s">
+        <v>544</v>
+      </c>
+      <c r="B98" s="113" t="s">
         <v>545</v>
       </c>
-      <c r="B98" s="113" t="s">
-        <v>546</v>
-      </c>
       <c r="C98" s="113" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D98" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="113" t="s">
+        <v>547</v>
+      </c>
+      <c r="B99" s="113" t="s">
         <v>548</v>
       </c>
-      <c r="B99" s="113" t="s">
-        <v>549</v>
-      </c>
       <c r="C99" s="113" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D99" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A100" s="113" t="s">
+        <v>550</v>
+      </c>
+      <c r="B100" s="113" t="s">
         <v>551</v>
       </c>
-      <c r="B100" s="113" t="s">
-        <v>552</v>
-      </c>
       <c r="C100" s="113" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D100" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="113" t="s">
+        <v>553</v>
+      </c>
+      <c r="B101" s="113" t="s">
         <v>554</v>
       </c>
-      <c r="B101" s="113" t="s">
-        <v>555</v>
-      </c>
       <c r="C101" s="113" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D101" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A102" s="113" t="s">
+        <v>556</v>
+      </c>
+      <c r="B102" s="113" t="s">
         <v>557</v>
       </c>
-      <c r="B102" s="113" t="s">
-        <v>558</v>
-      </c>
       <c r="C102" s="113" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D102" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="113" t="s">
+        <v>559</v>
+      </c>
+      <c r="B103" s="113" t="s">
         <v>560</v>
       </c>
-      <c r="B103" s="113" t="s">
-        <v>561</v>
-      </c>
       <c r="C103" s="113" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D103" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A104" s="113" t="s">
+        <v>562</v>
+      </c>
+      <c r="B104" s="113" t="s">
         <v>563</v>
       </c>
-      <c r="B104" s="113" t="s">
-        <v>564</v>
-      </c>
       <c r="C104" s="113" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D104" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A105" s="113" t="s">
+        <v>565</v>
+      </c>
+      <c r="B105" s="113" t="s">
         <v>566</v>
       </c>
-      <c r="B105" s="113" t="s">
-        <v>567</v>
-      </c>
       <c r="C105" s="113" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D105" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="113" t="s">
+        <v>568</v>
+      </c>
+      <c r="B106" s="113" t="s">
         <v>569</v>
       </c>
-      <c r="B106" s="113" t="s">
-        <v>570</v>
-      </c>
       <c r="C106" s="113" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D106" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A107" s="113" t="s">
+        <v>571</v>
+      </c>
+      <c r="B107" s="113" t="s">
         <v>572</v>
       </c>
-      <c r="B107" s="113" t="s">
-        <v>573</v>
-      </c>
       <c r="C107" s="113" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D107" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="113" t="s">
+        <v>574</v>
+      </c>
+      <c r="B108" s="113" t="s">
         <v>575</v>
       </c>
-      <c r="B108" s="113" t="s">
-        <v>576</v>
-      </c>
       <c r="C108" s="113" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D108" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A109" s="113" t="s">
+        <v>577</v>
+      </c>
+      <c r="B109" s="113" t="s">
         <v>578</v>
       </c>
-      <c r="B109" s="113" t="s">
-        <v>579</v>
-      </c>
       <c r="C109" s="113" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D109" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A110" s="113" t="s">
+        <v>580</v>
+      </c>
+      <c r="B110" s="113" t="s">
         <v>581</v>
       </c>
-      <c r="B110" s="113" t="s">
-        <v>582</v>
-      </c>
       <c r="C110" s="113" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D110" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A111" s="113" t="s">
+        <v>583</v>
+      </c>
+      <c r="B111" s="113" t="s">
         <v>584</v>
       </c>
-      <c r="B111" s="113" t="s">
+      <c r="C111" s="113" t="s">
+        <v>582</v>
+      </c>
+      <c r="D111" s="113" t="s">
         <v>585</v>
-      </c>
-      <c r="C111" s="113" t="s">
-        <v>583</v>
-      </c>
-      <c r="D111" s="113" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="113" t="s">
+        <v>587</v>
+      </c>
+      <c r="B112" s="113" t="s">
         <v>588</v>
       </c>
-      <c r="B112" s="113" t="s">
+      <c r="C112" s="113" t="s">
+        <v>586</v>
+      </c>
+      <c r="D112" s="113" t="s">
         <v>589</v>
-      </c>
-      <c r="C112" s="113" t="s">
-        <v>587</v>
-      </c>
-      <c r="D112" s="113" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A113" s="113" t="s">
+        <v>591</v>
+      </c>
+      <c r="B113" s="113" t="s">
         <v>592</v>
       </c>
-      <c r="B113" s="113" t="s">
-        <v>593</v>
-      </c>
       <c r="C113" s="113" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D113" s="113" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A114" s="113" t="s">
+        <v>594</v>
+      </c>
+      <c r="B114" s="113" t="s">
         <v>595</v>
       </c>
-      <c r="B114" s="113" t="s">
+      <c r="C114" s="113" t="s">
+        <v>593</v>
+      </c>
+      <c r="D114" s="113" t="s">
         <v>596</v>
-      </c>
-      <c r="C114" s="113" t="s">
-        <v>594</v>
-      </c>
-      <c r="D114" s="113" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A115" s="113" t="s">
+        <v>598</v>
+      </c>
+      <c r="B115" s="113" t="s">
         <v>599</v>
       </c>
-      <c r="B115" s="113" t="s">
-        <v>600</v>
-      </c>
       <c r="C115" s="113" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D115" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A116" s="113" t="s">
+        <v>601</v>
+      </c>
+      <c r="B116" s="113" t="s">
         <v>602</v>
       </c>
-      <c r="B116" s="113" t="s">
-        <v>603</v>
-      </c>
       <c r="C116" s="113" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D116" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A117" s="113" t="s">
+        <v>604</v>
+      </c>
+      <c r="B117" s="113" t="s">
         <v>605</v>
       </c>
-      <c r="B117" s="113" t="s">
-        <v>606</v>
-      </c>
       <c r="C117" s="113" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D117" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A118" s="113" t="s">
+        <v>607</v>
+      </c>
+      <c r="B118" s="113" t="s">
         <v>608</v>
       </c>
-      <c r="B118" s="113" t="s">
+      <c r="C118" s="113" t="s">
+        <v>606</v>
+      </c>
+      <c r="D118" s="113" t="s">
         <v>609</v>
-      </c>
-      <c r="C118" s="113" t="s">
-        <v>607</v>
-      </c>
-      <c r="D118" s="113" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A119" s="113" t="s">
+        <v>611</v>
+      </c>
+      <c r="B119" s="113" t="s">
         <v>612</v>
       </c>
-      <c r="B119" s="113" t="s">
+      <c r="C119" s="113" t="s">
+        <v>610</v>
+      </c>
+      <c r="D119" s="113" t="s">
         <v>613</v>
-      </c>
-      <c r="C119" s="113" t="s">
-        <v>611</v>
-      </c>
-      <c r="D119" s="113" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A120" s="113" t="s">
+        <v>615</v>
+      </c>
+      <c r="B120" s="113" t="s">
         <v>616</v>
       </c>
-      <c r="B120" s="113" t="s">
+      <c r="C120" s="113" t="s">
+        <v>614</v>
+      </c>
+      <c r="D120" s="113" t="s">
         <v>617</v>
-      </c>
-      <c r="C120" s="113" t="s">
-        <v>615</v>
-      </c>
-      <c r="D120" s="113" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="113" t="s">
+        <v>619</v>
+      </c>
+      <c r="B121" s="113" t="s">
         <v>620</v>
       </c>
-      <c r="B121" s="113" t="s">
+      <c r="C121" s="113" t="s">
+        <v>618</v>
+      </c>
+      <c r="D121" s="113" t="s">
         <v>621</v>
-      </c>
-      <c r="C121" s="113" t="s">
-        <v>619</v>
-      </c>
-      <c r="D121" s="113" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="113" t="s">
+        <v>623</v>
+      </c>
+      <c r="B122" s="113" t="s">
         <v>624</v>
       </c>
-      <c r="B122" s="113" t="s">
-        <v>625</v>
-      </c>
       <c r="C122" s="113" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D122" s="113" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A123" s="113" t="s">
+        <v>626</v>
+      </c>
+      <c r="B123" s="113" t="s">
         <v>627</v>
       </c>
-      <c r="B123" s="113" t="s">
-        <v>628</v>
-      </c>
       <c r="C123" s="113" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D123" s="113" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A124" s="113" t="s">
+        <v>629</v>
+      </c>
+      <c r="B124" s="113" t="s">
         <v>630</v>
       </c>
-      <c r="B124" s="113" t="s">
-        <v>631</v>
-      </c>
       <c r="C124" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D124" s="113" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A125" s="113" t="s">
+        <v>632</v>
+      </c>
+      <c r="B125" s="113" t="s">
         <v>633</v>
       </c>
-      <c r="B125" s="113" t="s">
-        <v>634</v>
-      </c>
       <c r="C125" s="113" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D125" s="113" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A126" s="113" t="s">
+        <v>635</v>
+      </c>
+      <c r="B126" s="113" t="s">
         <v>636</v>
       </c>
-      <c r="B126" s="113" t="s">
-        <v>637</v>
-      </c>
       <c r="C126" s="113" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D126" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A127" s="113" t="s">
+        <v>638</v>
+      </c>
+      <c r="B127" s="113" t="s">
         <v>639</v>
       </c>
-      <c r="B127" s="113" t="s">
-        <v>640</v>
-      </c>
       <c r="C127" s="113" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D127" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A128" s="113" t="s">
+        <v>641</v>
+      </c>
+      <c r="B128" s="113" t="s">
         <v>642</v>
       </c>
-      <c r="B128" s="113" t="s">
-        <v>643</v>
-      </c>
       <c r="C128" s="113" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D128" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A129" s="113" t="s">
+        <v>644</v>
+      </c>
+      <c r="B129" s="113" t="s">
         <v>645</v>
       </c>
-      <c r="B129" s="113" t="s">
-        <v>646</v>
-      </c>
       <c r="C129" s="113" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D129" s="113" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A130" s="113" t="s">
+        <v>647</v>
+      </c>
+      <c r="B130" s="113" t="s">
         <v>648</v>
       </c>
-      <c r="B130" s="113" t="s">
+      <c r="C130" s="113" t="s">
+        <v>646</v>
+      </c>
+      <c r="D130" s="113" t="s">
         <v>649</v>
-      </c>
-      <c r="C130" s="113" t="s">
-        <v>647</v>
-      </c>
-      <c r="D130" s="113" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A131" s="113" t="s">
+        <v>651</v>
+      </c>
+      <c r="B131" s="113" t="s">
         <v>652</v>
       </c>
-      <c r="B131" s="113" t="s">
+      <c r="C131" s="113" t="s">
+        <v>650</v>
+      </c>
+      <c r="D131" s="113" t="s">
         <v>653</v>
-      </c>
-      <c r="C131" s="113" t="s">
-        <v>651</v>
-      </c>
-      <c r="D131" s="113" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A132" s="113" t="s">
+        <v>655</v>
+      </c>
+      <c r="B132" s="113" t="s">
         <v>656</v>
       </c>
-      <c r="B132" s="113" t="s">
+      <c r="C132" s="113" t="s">
+        <v>654</v>
+      </c>
+      <c r="D132" s="113" t="s">
         <v>657</v>
-      </c>
-      <c r="C132" s="113" t="s">
-        <v>655</v>
-      </c>
-      <c r="D132" s="113" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A133" s="113" t="s">
+        <v>659</v>
+      </c>
+      <c r="B133" s="113" t="s">
         <v>660</v>
       </c>
-      <c r="B133" s="113" t="s">
-        <v>661</v>
-      </c>
       <c r="C133" s="113" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D133" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A134" s="113" t="s">
+        <v>662</v>
+      </c>
+      <c r="B134" s="113" t="s">
         <v>663</v>
       </c>
-      <c r="B134" s="113" t="s">
-        <v>664</v>
-      </c>
       <c r="C134" s="113" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D134" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A135" s="113" t="s">
+        <v>665</v>
+      </c>
+      <c r="B135" s="113" t="s">
         <v>666</v>
       </c>
-      <c r="B135" s="113" t="s">
-        <v>667</v>
-      </c>
       <c r="C135" s="113" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D135" s="113" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A136" s="113" t="s">
+        <v>668</v>
+      </c>
+      <c r="B136" s="113" t="s">
         <v>669</v>
       </c>
-      <c r="B136" s="113" t="s">
+      <c r="C136" s="113" t="s">
+        <v>667</v>
+      </c>
+      <c r="D136" s="113" t="s">
         <v>670</v>
-      </c>
-      <c r="C136" s="113" t="s">
-        <v>668</v>
-      </c>
-      <c r="D136" s="113" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A137" s="113" t="s">
+        <v>672</v>
+      </c>
+      <c r="B137" s="113" t="s">
         <v>673</v>
       </c>
-      <c r="B137" s="113" t="s">
-        <v>674</v>
-      </c>
       <c r="C137" s="113" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D137" s="113" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="113" t="s">
+        <v>675</v>
+      </c>
+      <c r="B138" s="113" t="s">
         <v>676</v>
       </c>
-      <c r="B138" s="113" t="s">
-        <v>677</v>
-      </c>
       <c r="C138" s="113" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D138" s="113" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A139" s="113" t="s">
+        <v>678</v>
+      </c>
+      <c r="B139" s="113" t="s">
         <v>679</v>
       </c>
-      <c r="B139" s="113" t="s">
+      <c r="C139" s="113" t="s">
+        <v>677</v>
+      </c>
+      <c r="D139" s="113" t="s">
         <v>680</v>
-      </c>
-      <c r="C139" s="113" t="s">
-        <v>678</v>
-      </c>
-      <c r="D139" s="113" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A140" s="113" t="s">
+        <v>682</v>
+      </c>
+      <c r="B140" s="113" t="s">
         <v>683</v>
       </c>
-      <c r="B140" s="113" t="s">
+      <c r="C140" s="113" t="s">
+        <v>681</v>
+      </c>
+      <c r="D140" s="113" t="s">
         <v>684</v>
-      </c>
-      <c r="C140" s="113" t="s">
-        <v>682</v>
-      </c>
-      <c r="D140" s="113" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A141" s="113" t="s">
+        <v>686</v>
+      </c>
+      <c r="B141" s="113" t="s">
         <v>687</v>
       </c>
-      <c r="B141" s="113" t="s">
-        <v>688</v>
-      </c>
       <c r="C141" s="113" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D141" s="113" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A142" s="113" t="s">
+        <v>689</v>
+      </c>
+      <c r="B142" s="113" t="s">
         <v>690</v>
       </c>
-      <c r="B142" s="113" t="s">
-        <v>691</v>
-      </c>
       <c r="C142" s="113" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D142" s="113" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A143" s="113" t="s">
+        <v>692</v>
+      </c>
+      <c r="B143" s="113" t="s">
         <v>693</v>
       </c>
-      <c r="B143" s="113" t="s">
-        <v>694</v>
-      </c>
       <c r="C143" s="113" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D143" s="113" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A144" s="113" t="s">
+        <v>695</v>
+      </c>
+      <c r="B144" s="113" t="s">
         <v>696</v>
       </c>
-      <c r="B144" s="113" t="s">
-        <v>697</v>
-      </c>
       <c r="C144" s="113" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D144" s="113" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="113" t="s">
+        <v>698</v>
+      </c>
+      <c r="B145" s="113" t="s">
         <v>699</v>
       </c>
-      <c r="B145" s="113" t="s">
-        <v>700</v>
-      </c>
       <c r="C145" s="113" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D145" s="113" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="113" t="s">
+        <v>701</v>
+      </c>
+      <c r="B146" s="113" t="s">
         <v>702</v>
       </c>
-      <c r="B146" s="113" t="s">
-        <v>703</v>
-      </c>
       <c r="C146" s="113" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D146" s="113" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A147" s="113" t="s">
+        <v>704</v>
+      </c>
+      <c r="B147" s="113" t="s">
         <v>705</v>
       </c>
-      <c r="B147" s="113" t="s">
-        <v>706</v>
-      </c>
       <c r="C147" s="113" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D147" s="113" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A148" s="113" t="s">
+        <v>707</v>
+      </c>
+      <c r="B148" s="113" t="s">
         <v>708</v>
       </c>
-      <c r="B148" s="113" t="s">
-        <v>709</v>
-      </c>
       <c r="C148" s="113" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D148" s="113" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A149" s="113" t="s">
+        <v>710</v>
+      </c>
+      <c r="B149" s="113" t="s">
         <v>711</v>
       </c>
-      <c r="B149" s="113" t="s">
-        <v>712</v>
-      </c>
       <c r="C149" s="113" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D149" s="113" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A150" s="113" t="s">
+        <v>713</v>
+      </c>
+      <c r="B150" s="113" t="s">
         <v>714</v>
       </c>
-      <c r="B150" s="113" t="s">
-        <v>715</v>
-      </c>
       <c r="C150" s="113" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D150" s="113" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A151" s="113" t="s">
+        <v>716</v>
+      </c>
+      <c r="B151" s="113" t="s">
         <v>717</v>
       </c>
-      <c r="B151" s="113" t="s">
-        <v>718</v>
-      </c>
       <c r="C151" s="113" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D151" s="113" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" s="113" t="s">
+        <v>719</v>
+      </c>
+      <c r="B152" s="113" t="s">
         <v>720</v>
       </c>
-      <c r="B152" s="113" t="s">
-        <v>721</v>
-      </c>
       <c r="C152" s="113" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D152" s="113" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A153" s="113" t="s">
+        <v>722</v>
+      </c>
+      <c r="B153" s="113" t="s">
         <v>723</v>
       </c>
-      <c r="B153" s="113" t="s">
-        <v>724</v>
-      </c>
       <c r="C153" s="113" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D153" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="113" t="s">
+        <v>725</v>
+      </c>
+      <c r="B154" s="113" t="s">
         <v>726</v>
       </c>
-      <c r="B154" s="113" t="s">
-        <v>727</v>
-      </c>
       <c r="C154" s="113" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D154" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="113" t="s">
+        <v>728</v>
+      </c>
+      <c r="B155" s="113" t="s">
         <v>729</v>
       </c>
-      <c r="B155" s="113" t="s">
-        <v>730</v>
-      </c>
       <c r="C155" s="113" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D155" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="A156" s="113" t="s">
+        <v>731</v>
+      </c>
+      <c r="B156" s="113" t="s">
         <v>732</v>
       </c>
-      <c r="B156" s="113" t="s">
-        <v>733</v>
-      </c>
       <c r="C156" s="113" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D156" s="113" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A157" s="113" t="s">
+        <v>734</v>
+      </c>
+      <c r="B157" s="113" t="s">
         <v>735</v>
       </c>
-      <c r="B157" s="113" t="s">
-        <v>736</v>
-      </c>
       <c r="C157" s="113" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D157" s="113" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A158" s="113" t="s">
+        <v>737</v>
+      </c>
+      <c r="B158" s="113" t="s">
         <v>738</v>
       </c>
-      <c r="B158" s="113" t="s">
+      <c r="C158" s="113" t="s">
+        <v>736</v>
+      </c>
+      <c r="D158" s="113" t="s">
         <v>739</v>
-      </c>
-      <c r="C158" s="113" t="s">
-        <v>737</v>
-      </c>
-      <c r="D158" s="113" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A159" s="113" t="s">
+        <v>741</v>
+      </c>
+      <c r="B159" s="113" t="s">
         <v>742</v>
       </c>
-      <c r="B159" s="113" t="s">
-        <v>743</v>
-      </c>
       <c r="C159" s="113" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D159" s="113" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A160" s="113" t="s">
+        <v>744</v>
+      </c>
+      <c r="B160" s="113" t="s">
         <v>745</v>
       </c>
-      <c r="B160" s="113" t="s">
+      <c r="C160" s="113" t="s">
+        <v>743</v>
+      </c>
+      <c r="D160" s="113" t="s">
         <v>746</v>
-      </c>
-      <c r="C160" s="113" t="s">
-        <v>744</v>
-      </c>
-      <c r="D160" s="113" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A161" s="113" t="s">
+        <v>748</v>
+      </c>
+      <c r="B161" s="113" t="s">
         <v>749</v>
       </c>
-      <c r="B161" s="113" t="s">
-        <v>750</v>
-      </c>
       <c r="C161" s="113" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D161" s="113" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A162" s="113" t="s">
+        <v>751</v>
+      </c>
+      <c r="B162" s="113" t="s">
         <v>752</v>
       </c>
-      <c r="B162" s="113" t="s">
-        <v>753</v>
-      </c>
       <c r="C162" s="113" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D162" s="113" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A163" s="113" t="s">
+        <v>754</v>
+      </c>
+      <c r="B163" s="113" t="s">
         <v>755</v>
       </c>
-      <c r="B163" s="113" t="s">
+      <c r="C163" s="113" t="s">
+        <v>753</v>
+      </c>
+      <c r="D163" s="113" t="s">
         <v>756</v>
-      </c>
-      <c r="C163" s="113" t="s">
-        <v>754</v>
-      </c>
-      <c r="D163" s="113" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A164" s="113" t="s">
+        <v>758</v>
+      </c>
+      <c r="B164" s="113" t="s">
         <v>759</v>
       </c>
-      <c r="B164" s="113" t="s">
-        <v>760</v>
-      </c>
       <c r="C164" s="113" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D164" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A165" s="113" t="s">
+        <v>761</v>
+      </c>
+      <c r="B165" s="113" t="s">
         <v>762</v>
       </c>
-      <c r="B165" s="113" t="s">
+      <c r="C165" s="113" t="s">
+        <v>760</v>
+      </c>
+      <c r="D165" s="113" t="s">
         <v>763</v>
-      </c>
-      <c r="C165" s="113" t="s">
-        <v>761</v>
-      </c>
-      <c r="D165" s="113" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A166" s="113" t="s">
+        <v>765</v>
+      </c>
+      <c r="B166" s="113" t="s">
         <v>766</v>
       </c>
-      <c r="B166" s="113" t="s">
-        <v>767</v>
-      </c>
       <c r="C166" s="113" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D166" s="113" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="113" t="s">
+        <v>768</v>
+      </c>
+      <c r="B167" s="113" t="s">
         <v>769</v>
       </c>
-      <c r="B167" s="113" t="s">
-        <v>770</v>
-      </c>
       <c r="C167" s="113" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D167" s="113" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="113" t="s">
+        <v>771</v>
+      </c>
+      <c r="B168" s="113" t="s">
         <v>772</v>
       </c>
-      <c r="B168" s="113" t="s">
-        <v>773</v>
-      </c>
       <c r="C168" s="113" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D168" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A169" s="113" t="s">
+        <v>774</v>
+      </c>
+      <c r="B169" s="113" t="s">
         <v>775</v>
       </c>
-      <c r="B169" s="113" t="s">
-        <v>776</v>
-      </c>
       <c r="C169" s="113" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D169" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="113" t="s">
+        <v>777</v>
+      </c>
+      <c r="B170" s="113" t="s">
         <v>778</v>
       </c>
-      <c r="B170" s="113" t="s">
-        <v>779</v>
-      </c>
       <c r="C170" s="113" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D170" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A171" s="113" t="s">
+        <v>780</v>
+      </c>
+      <c r="B171" s="113" t="s">
         <v>781</v>
       </c>
-      <c r="B171" s="113" t="s">
+      <c r="C171" s="113" t="s">
+        <v>779</v>
+      </c>
+      <c r="D171" s="113" t="s">
         <v>782</v>
-      </c>
-      <c r="C171" s="113" t="s">
-        <v>780</v>
-      </c>
-      <c r="D171" s="113" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A172" s="113" t="s">
+        <v>784</v>
+      </c>
+      <c r="B172" s="113" t="s">
         <v>785</v>
       </c>
-      <c r="B172" s="113" t="s">
+      <c r="C172" s="113" t="s">
+        <v>783</v>
+      </c>
+      <c r="D172" s="113" t="s">
         <v>786</v>
-      </c>
-      <c r="C172" s="113" t="s">
-        <v>784</v>
-      </c>
-      <c r="D172" s="113" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A173" s="113" t="s">
+        <v>788</v>
+      </c>
+      <c r="B173" s="113" t="s">
         <v>789</v>
       </c>
-      <c r="B173" s="113" t="s">
+      <c r="C173" s="113" t="s">
+        <v>787</v>
+      </c>
+      <c r="D173" s="113" t="s">
         <v>790</v>
-      </c>
-      <c r="C173" s="113" t="s">
-        <v>788</v>
-      </c>
-      <c r="D173" s="113" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A174" s="113" t="s">
+        <v>792</v>
+      </c>
+      <c r="B174" s="113" t="s">
         <v>793</v>
       </c>
-      <c r="B174" s="113" t="s">
-        <v>794</v>
-      </c>
       <c r="C174" s="113" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D174" s="113" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A175" s="113" t="s">
+        <v>795</v>
+      </c>
+      <c r="B175" s="113" t="s">
         <v>796</v>
       </c>
-      <c r="B175" s="113" t="s">
+      <c r="C175" s="113" t="s">
+        <v>794</v>
+      </c>
+      <c r="D175" s="113" t="s">
         <v>797</v>
-      </c>
-      <c r="C175" s="113" t="s">
-        <v>795</v>
-      </c>
-      <c r="D175" s="113" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A176" s="113" t="s">
+        <v>799</v>
+      </c>
+      <c r="B176" s="113" t="s">
         <v>800</v>
       </c>
-      <c r="B176" s="113" t="s">
-        <v>801</v>
-      </c>
       <c r="C176" s="113" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D176" s="113" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A177" s="113" t="s">
+        <v>802</v>
+      </c>
+      <c r="B177" s="113" t="s">
         <v>803</v>
       </c>
-      <c r="B177" s="113" t="s">
-        <v>804</v>
-      </c>
       <c r="C177" s="113" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D177" s="113" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A178" s="113" t="s">
+        <v>805</v>
+      </c>
+      <c r="B178" s="113" t="s">
         <v>806</v>
       </c>
-      <c r="B178" s="113" t="s">
+      <c r="C178" s="113" t="s">
+        <v>804</v>
+      </c>
+      <c r="D178" s="113" t="s">
         <v>807</v>
-      </c>
-      <c r="C178" s="113" t="s">
-        <v>805</v>
-      </c>
-      <c r="D178" s="113" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A179" s="113" t="s">
+        <v>809</v>
+      </c>
+      <c r="B179" s="113" t="s">
         <v>810</v>
       </c>
-      <c r="B179" s="113" t="s">
+      <c r="C179" s="113" t="s">
+        <v>808</v>
+      </c>
+      <c r="D179" s="113" t="s">
         <v>811</v>
-      </c>
-      <c r="C179" s="113" t="s">
-        <v>809</v>
-      </c>
-      <c r="D179" s="113" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A180" s="113" t="s">
+        <v>813</v>
+      </c>
+      <c r="B180" s="113" t="s">
         <v>814</v>
       </c>
-      <c r="B180" s="113" t="s">
-        <v>815</v>
-      </c>
       <c r="C180" s="113" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D180" s="113" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="113" t="s">
+        <v>816</v>
+      </c>
+      <c r="B181" s="113" t="s">
         <v>817</v>
       </c>
-      <c r="B181" s="113" t="s">
-        <v>818</v>
-      </c>
       <c r="C181" s="113" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D181" s="113" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A182" s="113" t="s">
+        <v>819</v>
+      </c>
+      <c r="B182" s="113" t="s">
         <v>820</v>
       </c>
-      <c r="B182" s="113" t="s">
-        <v>821</v>
-      </c>
       <c r="C182" s="113" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D182" s="113" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A183" s="113" t="s">
+        <v>822</v>
+      </c>
+      <c r="B183" s="113" t="s">
         <v>823</v>
       </c>
-      <c r="B183" s="113" t="s">
-        <v>824</v>
-      </c>
       <c r="C183" s="113" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D183" s="113" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A184" s="113" t="s">
+        <v>825</v>
+      </c>
+      <c r="B184" s="113" t="s">
         <v>826</v>
       </c>
-      <c r="B184" s="113" t="s">
+      <c r="C184" s="113" t="s">
+        <v>824</v>
+      </c>
+      <c r="D184" s="113" t="s">
         <v>827</v>
-      </c>
-      <c r="C184" s="113" t="s">
-        <v>825</v>
-      </c>
-      <c r="D184" s="113" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A185" s="113" t="s">
+        <v>829</v>
+      </c>
+      <c r="B185" s="113" t="s">
         <v>830</v>
       </c>
-      <c r="B185" s="113" t="s">
-        <v>831</v>
-      </c>
       <c r="C185" s="113" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D185" s="113" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A186" s="113" t="s">
+        <v>832</v>
+      </c>
+      <c r="B186" s="113" t="s">
         <v>833</v>
       </c>
-      <c r="B186" s="113" t="s">
-        <v>834</v>
-      </c>
       <c r="C186" s="113" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D186" s="113" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" s="113" t="s">
+        <v>835</v>
+      </c>
+      <c r="B187" s="113" t="s">
         <v>836</v>
       </c>
-      <c r="B187" s="113" t="s">
-        <v>837</v>
-      </c>
       <c r="C187" s="113" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D187" s="113" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A188" s="113" t="s">
+        <v>838</v>
+      </c>
+      <c r="B188" s="113" t="s">
         <v>839</v>
       </c>
-      <c r="B188" s="113" t="s">
-        <v>840</v>
-      </c>
       <c r="C188" s="113" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D188" s="113" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A189" s="113" t="s">
+        <v>841</v>
+      </c>
+      <c r="B189" s="113" t="s">
         <v>842</v>
       </c>
-      <c r="B189" s="113" t="s">
-        <v>843</v>
-      </c>
       <c r="C189" s="113" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D189" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A190" s="113" t="s">
+        <v>844</v>
+      </c>
+      <c r="B190" s="113" t="s">
         <v>845</v>
       </c>
-      <c r="B190" s="113" t="s">
-        <v>846</v>
-      </c>
       <c r="C190" s="113" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D190" s="113" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A191" s="113" t="s">
+        <v>847</v>
+      </c>
+      <c r="B191" s="113" t="s">
         <v>848</v>
       </c>
-      <c r="B191" s="113" t="s">
-        <v>849</v>
-      </c>
       <c r="C191" s="113" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D191" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A192" s="113" t="s">
+        <v>850</v>
+      </c>
+      <c r="B192" s="113" t="s">
         <v>851</v>
       </c>
-      <c r="B192" s="113" t="s">
-        <v>852</v>
-      </c>
       <c r="C192" s="113" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D192" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A193" s="113" t="s">
+        <v>853</v>
+      </c>
+      <c r="B193" s="113" t="s">
         <v>854</v>
       </c>
-      <c r="B193" s="113" t="s">
-        <v>855</v>
-      </c>
       <c r="C193" s="113" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D193" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A194" s="113" t="s">
+        <v>856</v>
+      </c>
+      <c r="B194" s="113" t="s">
         <v>857</v>
       </c>
-      <c r="B194" s="113" t="s">
-        <v>858</v>
-      </c>
       <c r="C194" s="113" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D194" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A195" s="113" t="s">
+        <v>859</v>
+      </c>
+      <c r="B195" s="113" t="s">
         <v>860</v>
       </c>
-      <c r="B195" s="113" t="s">
-        <v>861</v>
-      </c>
       <c r="C195" s="113" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D195" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A196" s="113" t="s">
+        <v>862</v>
+      </c>
+      <c r="B196" s="113" t="s">
         <v>863</v>
       </c>
-      <c r="B196" s="113" t="s">
-        <v>864</v>
-      </c>
       <c r="C196" s="113" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D196" s="113" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" s="113" t="s">
+        <v>865</v>
+      </c>
+      <c r="B197" s="113" t="s">
         <v>866</v>
       </c>
-      <c r="B197" s="113" t="s">
-        <v>867</v>
-      </c>
       <c r="C197" s="113" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D197" s="113" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A198" s="113" t="s">
+        <v>868</v>
+      </c>
+      <c r="B198" s="113" t="s">
         <v>869</v>
       </c>
-      <c r="B198" s="113" t="s">
+      <c r="C198" s="113" t="s">
+        <v>867</v>
+      </c>
+      <c r="D198" s="113" t="s">
         <v>870</v>
-      </c>
-      <c r="C198" s="113" t="s">
-        <v>868</v>
-      </c>
-      <c r="D198" s="113" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A199" s="113" t="s">
+        <v>872</v>
+      </c>
+      <c r="B199" s="113" t="s">
         <v>873</v>
       </c>
-      <c r="B199" s="113" t="s">
-        <v>874</v>
-      </c>
       <c r="C199" s="113" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D199" s="113" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A200" s="113" t="s">
+        <v>875</v>
+      </c>
+      <c r="B200" s="113" t="s">
         <v>876</v>
       </c>
-      <c r="B200" s="113" t="s">
+      <c r="C200" s="113" t="s">
+        <v>874</v>
+      </c>
+      <c r="D200" s="113" t="s">
         <v>877</v>
-      </c>
-      <c r="C200" s="113" t="s">
-        <v>875</v>
-      </c>
-      <c r="D200" s="113" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A201" s="113" t="s">
+        <v>879</v>
+      </c>
+      <c r="B201" s="113" t="s">
         <v>880</v>
       </c>
-      <c r="B201" s="113" t="s">
-        <v>881</v>
-      </c>
       <c r="C201" s="113" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D201" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A202" s="113" t="s">
+        <v>882</v>
+      </c>
+      <c r="B202" s="113" t="s">
         <v>883</v>
       </c>
-      <c r="B202" s="113" t="s">
-        <v>884</v>
-      </c>
       <c r="C202" s="113" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D202" s="113" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A203" s="113" t="s">
+        <v>885</v>
+      </c>
+      <c r="B203" s="113" t="s">
         <v>886</v>
       </c>
-      <c r="B203" s="113" t="s">
-        <v>887</v>
-      </c>
       <c r="C203" s="113" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D203" s="113" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A204" s="113" t="s">
+        <v>888</v>
+      </c>
+      <c r="B204" s="113" t="s">
         <v>889</v>
       </c>
-      <c r="B204" s="113" t="s">
-        <v>890</v>
-      </c>
       <c r="C204" s="113" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D204" s="113" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A205" s="113" t="s">
+        <v>891</v>
+      </c>
+      <c r="B205" s="113" t="s">
         <v>892</v>
       </c>
-      <c r="B205" s="113" t="s">
-        <v>893</v>
-      </c>
       <c r="C205" s="113" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D205" s="113" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A206" s="113" t="s">
+        <v>894</v>
+      </c>
+      <c r="B206" s="113" t="s">
         <v>895</v>
       </c>
-      <c r="B206" s="113" t="s">
-        <v>896</v>
-      </c>
       <c r="C206" s="113" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D206" s="113" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A207" s="113" t="s">
+        <v>897</v>
+      </c>
+      <c r="B207" s="113" t="s">
         <v>898</v>
       </c>
-      <c r="B207" s="113" t="s">
-        <v>899</v>
-      </c>
       <c r="C207" s="113" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D207" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A208" s="113" t="s">
+        <v>900</v>
+      </c>
+      <c r="B208" s="113" t="s">
         <v>901</v>
       </c>
-      <c r="B208" s="113" t="s">
-        <v>902</v>
-      </c>
       <c r="C208" s="113" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D208" s="113" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A209" s="113" t="s">
+        <v>903</v>
+      </c>
+      <c r="B209" s="113" t="s">
         <v>904</v>
       </c>
-      <c r="B209" s="113" t="s">
-        <v>905</v>
-      </c>
       <c r="C209" s="113" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D209" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="113" t="s">
+        <v>906</v>
+      </c>
+      <c r="B210" s="113" t="s">
         <v>907</v>
       </c>
-      <c r="B210" s="113" t="s">
-        <v>908</v>
-      </c>
       <c r="C210" s="113" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D210" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="113" t="s">
+        <v>909</v>
+      </c>
+      <c r="B211" s="113" t="s">
         <v>910</v>
       </c>
-      <c r="B211" s="113" t="s">
-        <v>911</v>
-      </c>
       <c r="C211" s="113" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D211" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="113" t="s">
+        <v>912</v>
+      </c>
+      <c r="B212" s="113" t="s">
         <v>913</v>
       </c>
-      <c r="B212" s="113" t="s">
-        <v>914</v>
-      </c>
       <c r="C212" s="113" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D212" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="113" t="s">
+        <v>915</v>
+      </c>
+      <c r="B213" s="113" t="s">
         <v>916</v>
       </c>
-      <c r="B213" s="113" t="s">
-        <v>917</v>
-      </c>
       <c r="C213" s="113" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D213" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" s="113" t="s">
+        <v>918</v>
+      </c>
+      <c r="B214" s="113" t="s">
         <v>919</v>
       </c>
-      <c r="B214" s="113" t="s">
-        <v>920</v>
-      </c>
       <c r="C214" s="113" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D214" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" s="113" t="s">
+        <v>921</v>
+      </c>
+      <c r="B215" s="113" t="s">
         <v>922</v>
       </c>
-      <c r="B215" s="113" t="s">
-        <v>923</v>
-      </c>
       <c r="C215" s="113" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D215" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="113" t="s">
+        <v>924</v>
+      </c>
+      <c r="B216" s="113" t="s">
         <v>925</v>
       </c>
-      <c r="B216" s="113" t="s">
-        <v>926</v>
-      </c>
       <c r="C216" s="113" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D216" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="113" t="s">
+        <v>927</v>
+      </c>
+      <c r="B217" s="113" t="s">
         <v>928</v>
       </c>
-      <c r="B217" s="113" t="s">
-        <v>929</v>
-      </c>
       <c r="C217" s="113" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D217" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="113" t="s">
+        <v>930</v>
+      </c>
+      <c r="B218" s="113" t="s">
         <v>931</v>
       </c>
-      <c r="B218" s="113" t="s">
-        <v>932</v>
-      </c>
       <c r="C218" s="113" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D218" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A219" s="113" t="s">
+        <v>933</v>
+      </c>
+      <c r="B219" s="113" t="s">
         <v>934</v>
       </c>
-      <c r="B219" s="113" t="s">
-        <v>935</v>
-      </c>
       <c r="C219" s="113" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D219" s="113" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" s="113" t="s">
+        <v>936</v>
+      </c>
+      <c r="B220" s="113" t="s">
         <v>937</v>
       </c>
-      <c r="B220" s="113" t="s">
-        <v>938</v>
-      </c>
       <c r="C220" s="113" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D220" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="113" t="s">
+        <v>939</v>
+      </c>
+      <c r="B221" s="113" t="s">
         <v>940</v>
       </c>
-      <c r="B221" s="113" t="s">
-        <v>941</v>
-      </c>
       <c r="C221" s="113" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D221" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="113" t="s">
+        <v>942</v>
+      </c>
+      <c r="B222" s="113" t="s">
         <v>943</v>
       </c>
-      <c r="B222" s="113" t="s">
+      <c r="C222" s="113" t="s">
+        <v>941</v>
+      </c>
+      <c r="D222" s="113" t="s">
         <v>944</v>
-      </c>
-      <c r="C222" s="113" t="s">
-        <v>942</v>
-      </c>
-      <c r="D222" s="113" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A223" s="113" t="s">
+        <v>946</v>
+      </c>
+      <c r="B223" s="113" t="s">
         <v>947</v>
       </c>
-      <c r="B223" s="113" t="s">
-        <v>948</v>
-      </c>
       <c r="C223" s="113" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D223" s="113" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" s="113" t="s">
+        <v>949</v>
+      </c>
+      <c r="B224" s="113" t="s">
         <v>950</v>
       </c>
-      <c r="B224" s="113" t="s">
-        <v>951</v>
-      </c>
       <c r="C224" s="113" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D224" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A225" s="113" t="s">
+        <v>952</v>
+      </c>
+      <c r="B225" s="113" t="s">
         <v>953</v>
       </c>
-      <c r="B225" s="113" t="s">
-        <v>954</v>
-      </c>
       <c r="C225" s="113" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D225" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A226" s="113" t="s">
+        <v>955</v>
+      </c>
+      <c r="B226" s="113" t="s">
         <v>956</v>
       </c>
-      <c r="B226" s="113" t="s">
+      <c r="C226" s="113" t="s">
+        <v>954</v>
+      </c>
+      <c r="D226" s="113" t="s">
         <v>957</v>
-      </c>
-      <c r="C226" s="113" t="s">
-        <v>955</v>
-      </c>
-      <c r="D226" s="113" t="s">
-        <v>958</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="113" t="s">
+        <v>959</v>
+      </c>
+      <c r="B227" s="113" t="s">
         <v>960</v>
       </c>
-      <c r="B227" s="113" t="s">
-        <v>961</v>
-      </c>
       <c r="C227" s="113" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D227" s="113" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="113" t="s">
+        <v>962</v>
+      </c>
+      <c r="B228" s="113" t="s">
         <v>963</v>
       </c>
-      <c r="B228" s="113" t="s">
-        <v>964</v>
-      </c>
       <c r="C228" s="113" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D228" s="113" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A229" s="113" t="s">
+        <v>965</v>
+      </c>
+      <c r="B229" s="113" t="s">
         <v>966</v>
       </c>
-      <c r="B229" s="113" t="s">
+      <c r="C229" s="113" t="s">
+        <v>964</v>
+      </c>
+      <c r="D229" s="113" t="s">
         <v>967</v>
-      </c>
-      <c r="C229" s="113" t="s">
-        <v>965</v>
-      </c>
-      <c r="D229" s="113" t="s">
-        <v>968</v>
       </c>
     </row>
     <row r="230" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A230" s="113" t="s">
+        <v>969</v>
+      </c>
+      <c r="B230" s="113" t="s">
         <v>970</v>
       </c>
-      <c r="B230" s="113" t="s">
+      <c r="C230" s="113" t="s">
+        <v>968</v>
+      </c>
+      <c r="D230" s="113" t="s">
         <v>971</v>
-      </c>
-      <c r="C230" s="113" t="s">
-        <v>969</v>
-      </c>
-      <c r="D230" s="113" t="s">
-        <v>972</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A231" s="113" t="s">
+        <v>973</v>
+      </c>
+      <c r="B231" s="113" t="s">
         <v>974</v>
       </c>
-      <c r="B231" s="113" t="s">
-        <v>975</v>
-      </c>
       <c r="C231" s="113" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D231" s="113" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A232" s="113" t="s">
+        <v>976</v>
+      </c>
+      <c r="B232" s="113" t="s">
         <v>977</v>
       </c>
-      <c r="B232" s="113" t="s">
+      <c r="C232" s="113" t="s">
+        <v>975</v>
+      </c>
+      <c r="D232" s="113" t="s">
         <v>978</v>
-      </c>
-      <c r="C232" s="113" t="s">
-        <v>976</v>
-      </c>
-      <c r="D232" s="113" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A233" s="113" t="s">
+        <v>980</v>
+      </c>
+      <c r="B233" s="113" t="s">
         <v>981</v>
       </c>
-      <c r="B233" s="113" t="s">
-        <v>982</v>
-      </c>
       <c r="C233" s="113" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="D233" s="113" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A234" s="113" t="s">
+        <v>983</v>
+      </c>
+      <c r="B234" s="113" t="s">
         <v>984</v>
       </c>
-      <c r="B234" s="113" t="s">
-        <v>985</v>
-      </c>
       <c r="C234" s="113" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="D234" s="113" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A235" s="113" t="s">
+        <v>986</v>
+      </c>
+      <c r="B235" s="113" t="s">
         <v>987</v>
       </c>
-      <c r="B235" s="113" t="s">
-        <v>988</v>
-      </c>
       <c r="C235" s="113" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="D235" s="113" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A236" s="113" t="s">
+        <v>989</v>
+      </c>
+      <c r="B236" s="113" t="s">
         <v>990</v>
       </c>
-      <c r="B236" s="113" t="s">
-        <v>991</v>
-      </c>
       <c r="C236" s="113" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D236" s="113" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A237" s="113" t="s">
+        <v>992</v>
+      </c>
+      <c r="B237" s="113" t="s">
         <v>993</v>
       </c>
-      <c r="B237" s="113" t="s">
+      <c r="C237" s="113" t="s">
+        <v>991</v>
+      </c>
+      <c r="D237" s="113" t="s">
         <v>994</v>
-      </c>
-      <c r="C237" s="113" t="s">
-        <v>992</v>
-      </c>
-      <c r="D237" s="113" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A238" s="113" t="s">
+        <v>996</v>
+      </c>
+      <c r="B238" s="113" t="s">
         <v>997</v>
       </c>
-      <c r="B238" s="113" t="s">
-        <v>998</v>
-      </c>
       <c r="C238" s="113" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D238" s="113" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A239" s="113" t="s">
+        <v>999</v>
+      </c>
+      <c r="B239" s="113" t="s">
         <v>1000</v>
       </c>
-      <c r="B239" s="113" t="s">
-        <v>1001</v>
-      </c>
       <c r="C239" s="113" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D239" s="113" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A240" s="113" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B240" s="113" t="s">
         <v>1003</v>
       </c>
-      <c r="B240" s="113" t="s">
-        <v>1004</v>
-      </c>
       <c r="C240" s="113" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D240" s="113" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A241" s="113" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B241" s="113" t="s">
         <v>1006</v>
       </c>
-      <c r="B241" s="113" t="s">
-        <v>1007</v>
-      </c>
       <c r="C241" s="113" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D241" s="113" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="242" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A242" s="113" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B242" s="113" t="s">
         <v>1009</v>
       </c>
-      <c r="B242" s="113" t="s">
-        <v>1010</v>
-      </c>
       <c r="C242" s="113" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D242" s="113" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="243" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A243" s="113" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B243" s="113" t="s">
         <v>1012</v>
       </c>
-      <c r="B243" s="113" t="s">
+      <c r="C243" s="113" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D243" s="113" t="s">
         <v>1013</v>
-      </c>
-      <c r="C243" s="113" t="s">
-        <v>1011</v>
-      </c>
-      <c r="D243" s="113" t="s">
-        <v>1014</v>
       </c>
     </row>
     <row r="244" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A244" s="113" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B244" s="113" t="s">
         <v>1016</v>
       </c>
-      <c r="B244" s="113" t="s">
+      <c r="C244" s="113" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D244" s="113" t="s">
         <v>1017</v>
-      </c>
-      <c r="C244" s="113" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D244" s="113" t="s">
-        <v>1018</v>
       </c>
     </row>
     <row r="245" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A245" s="113" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B245" s="113" t="s">
         <v>1020</v>
       </c>
-      <c r="B245" s="113" t="s">
+      <c r="C245" s="113" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D245" s="113" t="s">
         <v>1021</v>
-      </c>
-      <c r="C245" s="113" t="s">
-        <v>1019</v>
-      </c>
-      <c r="D245" s="113" t="s">
-        <v>1022</v>
       </c>
     </row>
     <row r="246" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A246" s="113" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B246" s="113" t="s">
         <v>1024</v>
       </c>
-      <c r="B246" s="113" t="s">
-        <v>1025</v>
-      </c>
       <c r="C246" s="113" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D246" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="247" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A247" s="113" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B247" s="113" t="s">
         <v>1027</v>
       </c>
-      <c r="B247" s="113" t="s">
-        <v>1028</v>
-      </c>
       <c r="C247" s="113" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D247" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A248" s="113" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B248" s="113" t="s">
         <v>1030</v>
       </c>
-      <c r="B248" s="113" t="s">
-        <v>1031</v>
-      </c>
       <c r="C248" s="113" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D248" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A249" s="113" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B249" s="113" t="s">
         <v>1033</v>
       </c>
-      <c r="B249" s="113" t="s">
-        <v>1034</v>
-      </c>
       <c r="C249" s="113" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D249" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="250" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A250" s="113" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B250" s="113" t="s">
         <v>1036</v>
       </c>
-      <c r="B250" s="113" t="s">
+      <c r="C250" s="113" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D250" s="113" t="s">
         <v>1037</v>
-      </c>
-      <c r="C250" s="113" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D250" s="113" t="s">
-        <v>1038</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A251" s="113" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B251" s="113" t="s">
         <v>1040</v>
       </c>
-      <c r="B251" s="113" t="s">
-        <v>1041</v>
-      </c>
       <c r="C251" s="113" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D251" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="252" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A252" s="113" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B252" s="113" t="s">
         <v>1043</v>
       </c>
-      <c r="B252" s="113" t="s">
-        <v>1044</v>
-      </c>
       <c r="C252" s="113" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="D252" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A253" s="113" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B253" s="113" t="s">
         <v>1046</v>
       </c>
-      <c r="B253" s="113" t="s">
-        <v>1047</v>
-      </c>
       <c r="C253" s="113" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D253" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="254" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A254" s="113" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B254" s="113" t="s">
         <v>1049</v>
       </c>
-      <c r="B254" s="113" t="s">
-        <v>1050</v>
-      </c>
       <c r="C254" s="113" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="D254" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="255" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A255" s="113" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B255" s="113" t="s">
         <v>1052</v>
       </c>
-      <c r="B255" s="113" t="s">
-        <v>1053</v>
-      </c>
       <c r="C255" s="113" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="D255" s="113" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="256" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A256" s="113" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B256" s="113" t="s">
         <v>1055</v>
       </c>
-      <c r="B256" s="113" t="s">
-        <v>1056</v>
-      </c>
       <c r="C256" s="113" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D256" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="257" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A257" s="113" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B257" s="113" t="s">
         <v>1058</v>
       </c>
-      <c r="B257" s="113" t="s">
-        <v>1059</v>
-      </c>
       <c r="C257" s="113" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D257" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A258" s="113" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B258" s="113" t="s">
         <v>1061</v>
       </c>
-      <c r="B258" s="113" t="s">
-        <v>1062</v>
-      </c>
       <c r="C258" s="113" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D258" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A259" s="113" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B259" s="113" t="s">
         <v>1064</v>
       </c>
-      <c r="B259" s="113" t="s">
-        <v>1065</v>
-      </c>
       <c r="C259" s="113" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="D259" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="260" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A260" s="113" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B260" s="113" t="s">
         <v>1067</v>
       </c>
-      <c r="B260" s="113" t="s">
+      <c r="C260" s="113" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D260" s="113" t="s">
         <v>1068</v>
-      </c>
-      <c r="C260" s="113" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D260" s="113" t="s">
-        <v>1069</v>
       </c>
     </row>
     <row r="261" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A261" s="113" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B261" s="113" t="s">
         <v>1071</v>
       </c>
-      <c r="B261" s="113" t="s">
-        <v>1072</v>
-      </c>
       <c r="C261" s="113" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="D261" s="113" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A262" s="113" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B262" s="113" t="s">
         <v>1074</v>
       </c>
-      <c r="B262" s="113" t="s">
+      <c r="C262" s="113" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D262" s="113" t="s">
         <v>1075</v>
-      </c>
-      <c r="C262" s="113" t="s">
-        <v>1073</v>
-      </c>
-      <c r="D262" s="113" t="s">
-        <v>1076</v>
       </c>
     </row>
     <row r="263" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A263" s="113" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B263" s="113" t="s">
         <v>1078</v>
       </c>
-      <c r="B263" s="113" t="s">
-        <v>1079</v>
-      </c>
       <c r="C263" s="113" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D263" s="113" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="264" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A264" s="113" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B264" s="113" t="s">
         <v>1081</v>
       </c>
-      <c r="B264" s="113" t="s">
+      <c r="C264" s="113" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D264" s="113" t="s">
         <v>1082</v>
-      </c>
-      <c r="C264" s="113" t="s">
-        <v>1080</v>
-      </c>
-      <c r="D264" s="113" t="s">
-        <v>1083</v>
       </c>
     </row>
     <row r="265" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A265" s="113" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B265" s="113" t="s">
         <v>1085</v>
       </c>
-      <c r="B265" s="113" t="s">
-        <v>1086</v>
-      </c>
       <c r="C265" s="113" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D265" s="113" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="266" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A266" s="113" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B266" s="113" t="s">
         <v>1088</v>
       </c>
-      <c r="B266" s="113" t="s">
-        <v>1089</v>
-      </c>
       <c r="C266" s="113" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="D266" s="113" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="267" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A267" s="113" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B267" s="113" t="s">
         <v>1091</v>
       </c>
-      <c r="B267" s="113" t="s">
-        <v>1092</v>
-      </c>
       <c r="C267" s="113" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
   </sheetData>
@@ -13260,7 +13314,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="167" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B1" s="161"/>
       <c r="C1" s="161"/>
@@ -13283,13 +13337,13 @@
       <c r="I2" s="161"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="194" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B3" s="194"/>
-      <c r="C3" s="194"/>
-      <c r="D3" s="194"/>
-      <c r="E3" s="194"/>
+      <c r="A3" s="196" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B3" s="196"/>
+      <c r="C3" s="196"/>
+      <c r="D3" s="196"/>
+      <c r="E3" s="196"/>
       <c r="F3" s="161"/>
       <c r="G3" s="161"/>
       <c r="H3" s="161"/>
@@ -13307,15 +13361,15 @@
       <c r="I4" s="161"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="198" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B5" s="199"/>
-      <c r="C5" s="199"/>
-      <c r="D5" s="199"/>
-      <c r="E5" s="199"/>
-      <c r="F5" s="199"/>
-      <c r="G5" s="200"/>
+      <c r="A5" s="200" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B5" s="201"/>
+      <c r="C5" s="201"/>
+      <c r="D5" s="201"/>
+      <c r="E5" s="201"/>
+      <c r="F5" s="201"/>
+      <c r="G5" s="202"/>
       <c r="H5" s="161"/>
       <c r="I5" s="161"/>
     </row>
@@ -13331,12 +13385,12 @@
       <c r="I6" s="161"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="195" t="s">
-        <v>1149</v>
-      </c>
-      <c r="B7" s="196"/>
-      <c r="C7" s="196"/>
-      <c r="D7" s="197"/>
+      <c r="A7" s="197" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B7" s="198"/>
+      <c r="C7" s="198"/>
+      <c r="D7" s="199"/>
       <c r="E7" s="161"/>
       <c r="F7" s="161"/>
       <c r="G7" s="161"/>
@@ -13356,7 +13410,7 @@
     </row>
     <row r="9" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A9" s="170" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B9" s="161"/>
       <c r="C9" s="161"/>
@@ -13368,10 +13422,10 @@
       <c r="I9" s="161"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="193"/>
-      <c r="B10" s="193"/>
-      <c r="C10" s="193"/>
-      <c r="D10" s="193"/>
+      <c r="A10" s="195"/>
+      <c r="B10" s="195"/>
+      <c r="C10" s="195"/>
+      <c r="D10" s="195"/>
       <c r="E10" s="164"/>
       <c r="F10" s="164"/>
       <c r="G10" s="161"/>
@@ -13380,28 +13434,28 @@
     </row>
     <row r="11" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="179" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B11" s="179" t="s">
         <v>1151</v>
       </c>
-      <c r="B11" s="179" t="s">
+      <c r="C11" s="179" t="s">
         <v>1152</v>
-      </c>
-      <c r="C11" s="179" t="s">
-        <v>1153</v>
       </c>
       <c r="D11" s="179" t="s">
         <v>137</v>
       </c>
       <c r="E11" s="179" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F11" s="182" t="s">
         <v>139</v>
       </c>
       <c r="G11" s="179" t="s">
+        <v>1154</v>
+      </c>
+      <c r="H11" s="179" t="s">
         <v>1155</v>
-      </c>
-      <c r="H11" s="179" t="s">
-        <v>1156</v>
       </c>
       <c r="I11" s="182" t="s">
         <v>139</v>
@@ -13423,19 +13477,19 @@
       <c r="B13" s="178"/>
       <c r="C13" s="178"/>
       <c r="D13" s="175" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E13" s="175" t="s">
         <v>1157</v>
-      </c>
-      <c r="E13" s="175" t="s">
-        <v>1158</v>
       </c>
       <c r="F13" s="174">
         <v>40766</v>
       </c>
       <c r="G13" s="173" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H13" s="175" t="s">
         <v>1159</v>
-      </c>
-      <c r="H13" s="175" t="s">
-        <v>1160</v>
       </c>
       <c r="I13" s="165">
         <v>40770</v>
@@ -13446,7 +13500,7 @@
       <c r="B14" s="176"/>
       <c r="C14" s="176"/>
       <c r="D14" s="175" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="E14" s="175"/>
       <c r="F14" s="172"/>
@@ -13470,7 +13524,7 @@
       <c r="B16" s="176"/>
       <c r="C16" s="176"/>
       <c r="D16" s="183" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="E16" s="178"/>
       <c r="F16" s="177"/>
@@ -13699,7 +13753,7 @@
     </row>
     <row r="34" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A34" s="170" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B34" s="161"/>
       <c r="C34" s="161"/>
